--- a/5/9/Índice de stress local 2017 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2017 - Diaria.xlsx
@@ -1149,13 +1149,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3703</v>
+        <v>0.3345</v>
       </c>
       <c r="C2">
-        <v>0.0738</v>
+        <v>0.0751</v>
       </c>
       <c r="D2">
-        <v>0.2965</v>
+        <v>0.2593</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1163,13 +1163,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3664</v>
+        <v>0.331</v>
       </c>
       <c r="C3">
-        <v>0.0738</v>
+        <v>0.0751</v>
       </c>
       <c r="D3">
-        <v>0.2926</v>
+        <v>0.2559</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1177,13 +1177,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3626</v>
+        <v>0.3277</v>
       </c>
       <c r="C4">
-        <v>0.07389999999999999</v>
+        <v>0.0752</v>
       </c>
       <c r="D4">
-        <v>0.2887</v>
+        <v>0.2524</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1191,13 +1191,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3591</v>
+        <v>0.3246</v>
       </c>
       <c r="C5">
-        <v>0.0742</v>
+        <v>0.0755</v>
       </c>
       <c r="D5">
-        <v>0.2849</v>
+        <v>0.2491</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1205,13 +1205,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3562</v>
+        <v>0.322</v>
       </c>
       <c r="C6">
-        <v>0.0746</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="D6">
-        <v>0.2817</v>
+        <v>0.2462</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1219,13 +1219,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3533</v>
+        <v>0.3193</v>
       </c>
       <c r="C7">
-        <v>0.0747</v>
+        <v>0.0759</v>
       </c>
       <c r="D7">
-        <v>0.2786</v>
+        <v>0.2434</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1233,13 +1233,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3503</v>
+        <v>0.3164</v>
       </c>
       <c r="C8">
-        <v>0.0746</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="D8">
-        <v>0.2757</v>
+        <v>0.2406</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1247,13 +1247,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3474</v>
+        <v>0.3134</v>
       </c>
       <c r="C9">
-        <v>0.0745</v>
+        <v>0.0756</v>
       </c>
       <c r="D9">
-        <v>0.2729</v>
+        <v>0.2378</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1261,13 +1261,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3445</v>
+        <v>0.3106</v>
       </c>
       <c r="C10">
-        <v>0.07489999999999999</v>
+        <v>0.076</v>
       </c>
       <c r="D10">
-        <v>0.2696</v>
+        <v>0.2346</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1275,13 +1275,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3402</v>
+        <v>0.3064</v>
       </c>
       <c r="C11">
-        <v>0.0745</v>
+        <v>0.0755</v>
       </c>
       <c r="D11">
-        <v>0.2657</v>
+        <v>0.2308</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1289,13 +1289,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3361</v>
+        <v>0.3023</v>
       </c>
       <c r="C12">
-        <v>0.0742</v>
+        <v>0.0752</v>
       </c>
       <c r="D12">
-        <v>0.2619</v>
+        <v>0.2271</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1303,13 +1303,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3319</v>
+        <v>0.2981</v>
       </c>
       <c r="C13">
-        <v>0.0736</v>
+        <v>0.0746</v>
       </c>
       <c r="D13">
-        <v>0.2583</v>
+        <v>0.2236</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1317,13 +1317,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.328</v>
+        <v>0.2941</v>
       </c>
       <c r="C14">
-        <v>0.0733</v>
+        <v>0.0741</v>
       </c>
       <c r="D14">
-        <v>0.2547</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1331,13 +1331,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.3236</v>
+        <v>0.2895</v>
       </c>
       <c r="C15">
-        <v>0.0721</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="D15">
-        <v>0.2515</v>
+        <v>0.2167</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1345,13 +1345,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.3195</v>
+        <v>0.2853</v>
       </c>
       <c r="C16">
-        <v>0.07099999999999999</v>
+        <v>0.0717</v>
       </c>
       <c r="D16">
-        <v>0.2485</v>
+        <v>0.2136</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1359,13 +1359,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.316</v>
+        <v>0.2816</v>
       </c>
       <c r="C17">
-        <v>0.0703</v>
+        <v>0.0709</v>
       </c>
       <c r="D17">
-        <v>0.2457</v>
+        <v>0.2107</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1373,13 +1373,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.3122</v>
+        <v>0.2777</v>
       </c>
       <c r="C18">
-        <v>0.0693</v>
+        <v>0.0699</v>
       </c>
       <c r="D18">
-        <v>0.2429</v>
+        <v>0.2078</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1387,13 +1387,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.3085</v>
+        <v>0.2739</v>
       </c>
       <c r="C19">
-        <v>0.06850000000000001</v>
+        <v>0.0689</v>
       </c>
       <c r="D19">
-        <v>0.2401</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1401,13 +1401,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.306</v>
+        <v>0.2711</v>
       </c>
       <c r="C20">
-        <v>0.06809999999999999</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="D20">
-        <v>0.2379</v>
+        <v>0.2026</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1415,13 +1415,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.3032</v>
+        <v>0.2679</v>
       </c>
       <c r="C21">
-        <v>0.067</v>
+        <v>0.0673</v>
       </c>
       <c r="D21">
-        <v>0.2363</v>
+        <v>0.2006</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1429,13 +1429,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.301</v>
+        <v>0.2651</v>
       </c>
       <c r="C22">
-        <v>0.06569999999999999</v>
+        <v>0.066</v>
       </c>
       <c r="D22">
-        <v>0.2353</v>
+        <v>0.1991</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1443,13 +1443,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.2986</v>
+        <v>0.2621</v>
       </c>
       <c r="C23">
-        <v>0.0646</v>
+        <v>0.0648</v>
       </c>
       <c r="D23">
-        <v>0.2341</v>
+        <v>0.1973</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1457,13 +1457,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.2958</v>
+        <v>0.2587</v>
       </c>
       <c r="C24">
-        <v>0.06320000000000001</v>
+        <v>0.0633</v>
       </c>
       <c r="D24">
-        <v>0.2326</v>
+        <v>0.1954</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1471,13 +1471,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.2934</v>
+        <v>0.2556</v>
       </c>
       <c r="C25">
-        <v>0.0619</v>
+        <v>0.062</v>
       </c>
       <c r="D25">
-        <v>0.2315</v>
+        <v>0.1937</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1485,13 +1485,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.2908</v>
+        <v>0.2525</v>
       </c>
       <c r="C26">
         <v>0.0607</v>
       </c>
       <c r="D26">
-        <v>0.2301</v>
+        <v>0.1918</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1499,13 +1499,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.2892</v>
+        <v>0.2504</v>
       </c>
       <c r="C27">
         <v>0.06</v>
       </c>
       <c r="D27">
-        <v>0.2292</v>
+        <v>0.1905</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1513,13 +1513,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.2878</v>
+        <v>0.2486</v>
       </c>
       <c r="C28">
-        <v>0.0593</v>
+        <v>0.0592</v>
       </c>
       <c r="D28">
-        <v>0.2285</v>
+        <v>0.1894</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1527,13 +1527,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.2869</v>
+        <v>0.2473</v>
       </c>
       <c r="C29">
-        <v>0.0587</v>
+        <v>0.0585</v>
       </c>
       <c r="D29">
-        <v>0.2282</v>
+        <v>0.1887</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1541,13 +1541,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.2854</v>
+        <v>0.2455</v>
       </c>
       <c r="C30">
-        <v>0.0572</v>
+        <v>0.057</v>
       </c>
       <c r="D30">
-        <v>0.2282</v>
+        <v>0.1885</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1555,13 +1555,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.2844</v>
+        <v>0.2444</v>
       </c>
       <c r="C31">
-        <v>0.056</v>
+        <v>0.0558</v>
       </c>
       <c r="D31">
-        <v>0.2284</v>
+        <v>0.1886</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1569,13 +1569,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.2831</v>
+        <v>0.243</v>
       </c>
       <c r="C32">
-        <v>0.0543</v>
+        <v>0.0541</v>
       </c>
       <c r="D32">
-        <v>0.2288</v>
+        <v>0.1889</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1583,13 +1583,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.2825</v>
+        <v>0.2424</v>
       </c>
       <c r="C33">
-        <v>0.0532</v>
+        <v>0.0529</v>
       </c>
       <c r="D33">
-        <v>0.2293</v>
+        <v>0.1895</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1597,13 +1597,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.2827</v>
+        <v>0.2425</v>
       </c>
       <c r="C34">
-        <v>0.0521</v>
+        <v>0.0518</v>
       </c>
       <c r="D34">
-        <v>0.2306</v>
+        <v>0.1907</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1611,13 +1611,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.2833</v>
+        <v>0.2429</v>
       </c>
       <c r="C35">
-        <v>0.0513</v>
+        <v>0.051</v>
       </c>
       <c r="D35">
-        <v>0.232</v>
+        <v>0.1919</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1625,13 +1625,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.2847</v>
+        <v>0.2442</v>
       </c>
       <c r="C36">
-        <v>0.051</v>
+        <v>0.0508</v>
       </c>
       <c r="D36">
-        <v>0.2336</v>
+        <v>0.1934</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1639,13 +1639,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.286</v>
+        <v>0.2453</v>
       </c>
       <c r="C37">
-        <v>0.0506</v>
+        <v>0.0504</v>
       </c>
       <c r="D37">
-        <v>0.2354</v>
+        <v>0.1949</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1653,13 +1653,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.2876</v>
+        <v>0.2467</v>
       </c>
       <c r="C38">
-        <v>0.0502</v>
+        <v>0.05</v>
       </c>
       <c r="D38">
-        <v>0.2373</v>
+        <v>0.1966</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1667,13 +1667,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.2895</v>
+        <v>0.2482</v>
       </c>
       <c r="C39">
-        <v>0.0498</v>
+        <v>0.0496</v>
       </c>
       <c r="D39">
-        <v>0.2397</v>
+        <v>0.1986</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1681,13 +1681,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.291</v>
+        <v>0.2496</v>
       </c>
       <c r="C40">
-        <v>0.0494</v>
+        <v>0.0492</v>
       </c>
       <c r="D40">
-        <v>0.2417</v>
+        <v>0.2004</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1695,13 +1695,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.2928</v>
+        <v>0.2513</v>
       </c>
       <c r="C41">
-        <v>0.0493</v>
+        <v>0.0491</v>
       </c>
       <c r="D41">
-        <v>0.2435</v>
+        <v>0.2021</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1709,13 +1709,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.2946</v>
+        <v>0.2532</v>
       </c>
       <c r="C42">
         <v>0.0496</v>
       </c>
       <c r="D42">
-        <v>0.245</v>
+        <v>0.2036</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1723,13 +1723,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.2965</v>
+        <v>0.2551</v>
       </c>
       <c r="C43">
-        <v>0.0498</v>
+        <v>0.0497</v>
       </c>
       <c r="D43">
-        <v>0.2467</v>
+        <v>0.2053</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1737,13 +1737,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.2986</v>
+        <v>0.2572</v>
       </c>
       <c r="C44">
         <v>0.05</v>
       </c>
       <c r="D44">
-        <v>0.2485</v>
+        <v>0.2072</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1751,13 +1751,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.3009</v>
+        <v>0.2595</v>
       </c>
       <c r="C45">
         <v>0.0503</v>
       </c>
       <c r="D45">
-        <v>0.2506</v>
+        <v>0.2092</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1765,13 +1765,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.3032</v>
+        <v>0.2619</v>
       </c>
       <c r="C46">
-        <v>0.0505</v>
+        <v>0.0506</v>
       </c>
       <c r="D46">
-        <v>0.2527</v>
+        <v>0.2114</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1779,13 +1779,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.3054</v>
+        <v>0.2641</v>
       </c>
       <c r="C47">
-        <v>0.0506</v>
+        <v>0.0507</v>
       </c>
       <c r="D47">
-        <v>0.2548</v>
+        <v>0.2134</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1793,13 +1793,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.3076</v>
+        <v>0.2662</v>
       </c>
       <c r="C48">
-        <v>0.0506</v>
+        <v>0.0507</v>
       </c>
       <c r="D48">
-        <v>0.257</v>
+        <v>0.2155</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1807,13 +1807,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.3102</v>
+        <v>0.2688</v>
       </c>
       <c r="C49">
-        <v>0.051</v>
+        <v>0.0511</v>
       </c>
       <c r="D49">
-        <v>0.2592</v>
+        <v>0.2177</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1821,13 +1821,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.3131</v>
+        <v>0.2715</v>
       </c>
       <c r="C50">
-        <v>0.0514</v>
+        <v>0.0516</v>
       </c>
       <c r="D50">
-        <v>0.2617</v>
+        <v>0.2198</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1835,13 +1835,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.316</v>
+        <v>0.274</v>
       </c>
       <c r="C51">
-        <v>0.0518</v>
+        <v>0.052</v>
       </c>
       <c r="D51">
-        <v>0.2642</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1849,13 +1849,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.3194</v>
+        <v>0.277</v>
       </c>
       <c r="C52">
-        <v>0.0525</v>
+        <v>0.0527</v>
       </c>
       <c r="D52">
-        <v>0.2669</v>
+        <v>0.2243</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1863,13 +1863,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.3227</v>
+        <v>0.2799</v>
       </c>
       <c r="C53">
-        <v>0.053</v>
+        <v>0.0533</v>
       </c>
       <c r="D53">
-        <v>0.2697</v>
+        <v>0.2266</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1877,13 +1877,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.3262</v>
+        <v>0.283</v>
       </c>
       <c r="C54">
-        <v>0.0538</v>
+        <v>0.0542</v>
       </c>
       <c r="D54">
-        <v>0.2724</v>
+        <v>0.2289</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1891,13 +1891,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.3318</v>
+        <v>0.2879</v>
       </c>
       <c r="C55">
-        <v>0.0553</v>
+        <v>0.0557</v>
       </c>
       <c r="D55">
-        <v>0.2765</v>
+        <v>0.2322</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1905,13 +1905,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.3368</v>
+        <v>0.2923</v>
       </c>
       <c r="C56">
-        <v>0.0563</v>
+        <v>0.0568</v>
       </c>
       <c r="D56">
-        <v>0.2805</v>
+        <v>0.2355</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1919,13 +1919,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.3419</v>
+        <v>0.2967</v>
       </c>
       <c r="C57">
-        <v>0.0573</v>
+        <v>0.0578</v>
       </c>
       <c r="D57">
-        <v>0.2846</v>
+        <v>0.2389</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1933,13 +1933,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.3471</v>
+        <v>0.3013</v>
       </c>
       <c r="C58">
-        <v>0.0585</v>
+        <v>0.059</v>
       </c>
       <c r="D58">
-        <v>0.2887</v>
+        <v>0.2422</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1947,13 +1947,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3522</v>
+        <v>0.3057</v>
       </c>
       <c r="C59">
-        <v>0.0596</v>
+        <v>0.0602</v>
       </c>
       <c r="D59">
-        <v>0.2926</v>
+        <v>0.2455</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1961,13 +1961,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3574</v>
+        <v>0.3101</v>
       </c>
       <c r="C60">
-        <v>0.0603</v>
+        <v>0.0609</v>
       </c>
       <c r="D60">
-        <v>0.2971</v>
+        <v>0.2492</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1975,13 +1975,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.3624</v>
+        <v>0.3143</v>
       </c>
       <c r="C61">
-        <v>0.061</v>
+        <v>0.0617</v>
       </c>
       <c r="D61">
-        <v>0.3014</v>
+        <v>0.2526</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1989,13 +1989,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.3669</v>
+        <v>0.3181</v>
       </c>
       <c r="C62">
-        <v>0.0615</v>
+        <v>0.0622</v>
       </c>
       <c r="D62">
-        <v>0.3054</v>
+        <v>0.2558</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2003,13 +2003,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3716</v>
+        <v>0.322</v>
       </c>
       <c r="C63">
-        <v>0.0623</v>
+        <v>0.0631</v>
       </c>
       <c r="D63">
-        <v>0.3093</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2017,13 +2017,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.376</v>
+        <v>0.3257</v>
       </c>
       <c r="C64">
-        <v>0.063</v>
+        <v>0.0638</v>
       </c>
       <c r="D64">
-        <v>0.313</v>
+        <v>0.2619</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2031,13 +2031,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.3802</v>
+        <v>0.3292</v>
       </c>
       <c r="C65">
-        <v>0.0636</v>
+        <v>0.0645</v>
       </c>
       <c r="D65">
-        <v>0.3166</v>
+        <v>0.2647</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2045,13 +2045,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.3842</v>
+        <v>0.3324</v>
       </c>
       <c r="C66">
-        <v>0.064</v>
+        <v>0.0649</v>
       </c>
       <c r="D66">
-        <v>0.3202</v>
+        <v>0.2675</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2059,13 +2059,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.3882</v>
+        <v>0.3356</v>
       </c>
       <c r="C67">
-        <v>0.0643</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="D67">
-        <v>0.3239</v>
+        <v>0.2703</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2073,13 +2073,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.3921</v>
+        <v>0.3387</v>
       </c>
       <c r="C68">
-        <v>0.0646</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="D68">
-        <v>0.3275</v>
+        <v>0.2731</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2087,13 +2087,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.395</v>
+        <v>0.3409</v>
       </c>
       <c r="C69">
-        <v>0.0643</v>
+        <v>0.0653</v>
       </c>
       <c r="D69">
-        <v>0.3307</v>
+        <v>0.2756</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2101,13 +2101,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.3978</v>
+        <v>0.3432</v>
       </c>
       <c r="C70">
-        <v>0.06419999999999999</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="D70">
-        <v>0.3336</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2115,13 +2115,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.4008</v>
+        <v>0.3455</v>
       </c>
       <c r="C71">
-        <v>0.0641</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="D71">
-        <v>0.3367</v>
+        <v>0.2804</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2129,13 +2129,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.4039</v>
+        <v>0.3481</v>
       </c>
       <c r="C72">
-        <v>0.0644</v>
+        <v>0.0654</v>
       </c>
       <c r="D72">
-        <v>0.3395</v>
+        <v>0.2827</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2143,13 +2143,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.4063</v>
+        <v>0.35</v>
       </c>
       <c r="C73">
-        <v>0.0644</v>
+        <v>0.0654</v>
       </c>
       <c r="D73">
-        <v>0.3419</v>
+        <v>0.2846</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2157,13 +2157,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.4077</v>
+        <v>0.3511</v>
       </c>
       <c r="C74">
-        <v>0.0643</v>
+        <v>0.0653</v>
       </c>
       <c r="D74">
-        <v>0.3435</v>
+        <v>0.2858</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2171,13 +2171,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.4075</v>
+        <v>0.3509</v>
       </c>
       <c r="C75">
-        <v>0.0643</v>
+        <v>0.0653</v>
       </c>
       <c r="D75">
-        <v>0.3432</v>
+        <v>0.2856</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2185,13 +2185,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.4069</v>
+        <v>0.3502</v>
       </c>
       <c r="C76">
-        <v>0.0638</v>
+        <v>0.0649</v>
       </c>
       <c r="D76">
-        <v>0.3431</v>
+        <v>0.2853</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2199,13 +2199,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.4062</v>
+        <v>0.3492</v>
       </c>
       <c r="C77">
-        <v>0.0634</v>
+        <v>0.0645</v>
       </c>
       <c r="D77">
-        <v>0.3427</v>
+        <v>0.2848</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2213,13 +2213,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.4045</v>
+        <v>0.3474</v>
       </c>
       <c r="C78">
-        <v>0.06270000000000001</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="D78">
-        <v>0.3418</v>
+        <v>0.2837</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2227,13 +2227,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.4028</v>
+        <v>0.3456</v>
       </c>
       <c r="C79">
-        <v>0.0623</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="D79">
-        <v>0.3406</v>
+        <v>0.2824</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2241,13 +2241,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.4004</v>
+        <v>0.3431</v>
       </c>
       <c r="C80">
-        <v>0.0619</v>
+        <v>0.06279999999999999</v>
       </c>
       <c r="D80">
-        <v>0.3385</v>
+        <v>0.2803</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2255,13 +2255,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.3976</v>
+        <v>0.3403</v>
       </c>
       <c r="C81">
-        <v>0.0616</v>
+        <v>0.0624</v>
       </c>
       <c r="D81">
-        <v>0.336</v>
+        <v>0.2779</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2269,13 +2269,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.3944</v>
+        <v>0.3371</v>
       </c>
       <c r="C82">
-        <v>0.0612</v>
+        <v>0.062</v>
       </c>
       <c r="D82">
-        <v>0.3333</v>
+        <v>0.2751</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2283,13 +2283,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.3911</v>
+        <v>0.3337</v>
       </c>
       <c r="C83">
-        <v>0.0606</v>
+        <v>0.0614</v>
       </c>
       <c r="D83">
-        <v>0.3305</v>
+        <v>0.2723</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2297,13 +2297,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.3878</v>
+        <v>0.3303</v>
       </c>
       <c r="C84">
-        <v>0.0603</v>
+        <v>0.061</v>
       </c>
       <c r="D84">
-        <v>0.3275</v>
+        <v>0.2693</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2311,13 +2311,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.3835</v>
+        <v>0.326</v>
       </c>
       <c r="C85">
-        <v>0.0595</v>
+        <v>0.0601</v>
       </c>
       <c r="D85">
-        <v>0.3241</v>
+        <v>0.2659</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2325,13 +2325,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.3787</v>
+        <v>0.3212</v>
       </c>
       <c r="C86">
-        <v>0.0586</v>
+        <v>0.0592</v>
       </c>
       <c r="D86">
-        <v>0.3201</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2339,13 +2339,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.3739</v>
+        <v>0.3164</v>
       </c>
       <c r="C87">
-        <v>0.0581</v>
+        <v>0.0587</v>
       </c>
       <c r="D87">
-        <v>0.3158</v>
+        <v>0.2577</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2353,13 +2353,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.3682</v>
+        <v>0.3102</v>
       </c>
       <c r="C88">
-        <v>0.0573</v>
+        <v>0.0577</v>
       </c>
       <c r="D88">
-        <v>0.3109</v>
+        <v>0.2525</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2367,13 +2367,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.3628</v>
+        <v>0.3044</v>
       </c>
       <c r="C89">
-        <v>0.0569</v>
+        <v>0.0572</v>
       </c>
       <c r="D89">
-        <v>0.3059</v>
+        <v>0.2472</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2381,13 +2381,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.3578</v>
+        <v>0.2987</v>
       </c>
       <c r="C90">
-        <v>0.0566</v>
+        <v>0.0568</v>
       </c>
       <c r="D90">
-        <v>0.3012</v>
+        <v>0.2419</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2395,13 +2395,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.3522</v>
+        <v>0.2925</v>
       </c>
       <c r="C91">
-        <v>0.0563</v>
+        <v>0.0564</v>
       </c>
       <c r="D91">
-        <v>0.296</v>
+        <v>0.2361</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2409,13 +2409,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.347</v>
+        <v>0.2864</v>
       </c>
       <c r="C92">
-        <v>0.0558</v>
+        <v>0.0559</v>
       </c>
       <c r="D92">
-        <v>0.2912</v>
+        <v>0.2305</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2423,13 +2423,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.3421</v>
+        <v>0.2807</v>
       </c>
       <c r="C93">
-        <v>0.0558</v>
+        <v>0.0557</v>
       </c>
       <c r="D93">
-        <v>0.2863</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2437,13 +2437,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.3371</v>
+        <v>0.2749</v>
       </c>
       <c r="C94">
-        <v>0.0556</v>
+        <v>0.0554</v>
       </c>
       <c r="D94">
-        <v>0.2815</v>
+        <v>0.2195</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2451,13 +2451,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.3321</v>
+        <v>0.269</v>
       </c>
       <c r="C95">
-        <v>0.055</v>
+        <v>0.0547</v>
       </c>
       <c r="D95">
-        <v>0.2771</v>
+        <v>0.2144</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2465,13 +2465,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.3275</v>
+        <v>0.2638</v>
       </c>
       <c r="C96">
-        <v>0.0551</v>
+        <v>0.0546</v>
       </c>
       <c r="D96">
-        <v>0.2724</v>
+        <v>0.2092</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2479,13 +2479,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.3222</v>
+        <v>0.2582</v>
       </c>
       <c r="C97">
-        <v>0.055</v>
+        <v>0.0544</v>
       </c>
       <c r="D97">
-        <v>0.2672</v>
+        <v>0.2037</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2493,13 +2493,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.3174</v>
+        <v>0.253</v>
       </c>
       <c r="C98">
-        <v>0.0551</v>
+        <v>0.0544</v>
       </c>
       <c r="D98">
-        <v>0.2623</v>
+        <v>0.1986</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2507,13 +2507,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.3129</v>
+        <v>0.2483</v>
       </c>
       <c r="C99">
-        <v>0.0553</v>
+        <v>0.0546</v>
       </c>
       <c r="D99">
-        <v>0.2576</v>
+        <v>0.1937</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2521,13 +2521,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.308</v>
+        <v>0.2433</v>
       </c>
       <c r="C100">
-        <v>0.0556</v>
+        <v>0.0547</v>
       </c>
       <c r="D100">
-        <v>0.2525</v>
+        <v>0.1886</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2535,13 +2535,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.3031</v>
+        <v>0.2383</v>
       </c>
       <c r="C101">
-        <v>0.0556</v>
+        <v>0.0546</v>
       </c>
       <c r="D101">
-        <v>0.2475</v>
+        <v>0.1837</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2549,13 +2549,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.2994</v>
+        <v>0.2345</v>
       </c>
       <c r="C102">
-        <v>0.0559</v>
+        <v>0.0548</v>
       </c>
       <c r="D102">
-        <v>0.2435</v>
+        <v>0.1797</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2563,13 +2563,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.2959</v>
+        <v>0.231</v>
       </c>
       <c r="C103">
-        <v>0.0564</v>
+        <v>0.0553</v>
       </c>
       <c r="D103">
-        <v>0.2394</v>
+        <v>0.1757</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2577,13 +2577,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.2925</v>
+        <v>0.2277</v>
       </c>
       <c r="C104">
-        <v>0.057</v>
+        <v>0.0557</v>
       </c>
       <c r="D104">
-        <v>0.2355</v>
+        <v>0.1719</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2591,13 +2591,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.2905</v>
+        <v>0.2256</v>
       </c>
       <c r="C105">
-        <v>0.0579</v>
+        <v>0.0566</v>
       </c>
       <c r="D105">
-        <v>0.2326</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2605,13 +2605,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.289</v>
+        <v>0.2239</v>
       </c>
       <c r="C106">
-        <v>0.0588</v>
+        <v>0.0574</v>
       </c>
       <c r="D106">
-        <v>0.2302</v>
+        <v>0.1665</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2619,13 +2619,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.2875</v>
+        <v>0.2222</v>
       </c>
       <c r="C107">
-        <v>0.0592</v>
+        <v>0.0578</v>
       </c>
       <c r="D107">
-        <v>0.2283</v>
+        <v>0.1644</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2633,13 +2633,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.2858</v>
+        <v>0.2207</v>
       </c>
       <c r="C108">
-        <v>0.0597</v>
+        <v>0.0582</v>
       </c>
       <c r="D108">
-        <v>0.2262</v>
+        <v>0.1625</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2647,13 +2647,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.2839</v>
+        <v>0.2191</v>
       </c>
       <c r="C109">
-        <v>0.0598</v>
+        <v>0.0583</v>
       </c>
       <c r="D109">
-        <v>0.2241</v>
+        <v>0.1608</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2661,13 +2661,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.2809</v>
+        <v>0.2167</v>
       </c>
       <c r="C110">
-        <v>0.0597</v>
+        <v>0.0581</v>
       </c>
       <c r="D110">
-        <v>0.2212</v>
+        <v>0.1586</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2675,13 +2675,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.2774</v>
+        <v>0.214</v>
       </c>
       <c r="C111">
-        <v>0.0594</v>
+        <v>0.0578</v>
       </c>
       <c r="D111">
-        <v>0.218</v>
+        <v>0.1562</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2689,13 +2689,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.2736</v>
+        <v>0.2112</v>
       </c>
       <c r="C112">
-        <v>0.0592</v>
+        <v>0.0575</v>
       </c>
       <c r="D112">
-        <v>0.2145</v>
+        <v>0.1536</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2703,13 +2703,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.2698</v>
+        <v>0.2082</v>
       </c>
       <c r="C113">
-        <v>0.0588</v>
+        <v>0.0571</v>
       </c>
       <c r="D113">
-        <v>0.211</v>
+        <v>0.1511</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2717,13 +2717,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.2666</v>
+        <v>0.2057</v>
       </c>
       <c r="C114">
-        <v>0.0588</v>
+        <v>0.0571</v>
       </c>
       <c r="D114">
-        <v>0.2078</v>
+        <v>0.1487</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2731,13 +2731,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.2631</v>
+        <v>0.203</v>
       </c>
       <c r="C115">
-        <v>0.0589</v>
+        <v>0.057</v>
       </c>
       <c r="D115">
-        <v>0.2042</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2745,13 +2745,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.2592</v>
+        <v>0.1998</v>
       </c>
       <c r="C116">
-        <v>0.0587</v>
+        <v>0.0568</v>
       </c>
       <c r="D116">
-        <v>0.2005</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2759,13 +2759,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.2565</v>
+        <v>0.1975</v>
       </c>
       <c r="C117">
-        <v>0.0593</v>
+        <v>0.0573</v>
       </c>
       <c r="D117">
-        <v>0.1972</v>
+        <v>0.1402</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2773,13 +2773,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.2535</v>
+        <v>0.1947</v>
       </c>
       <c r="C118">
-        <v>0.0594</v>
+        <v>0.0573</v>
       </c>
       <c r="D118">
-        <v>0.1941</v>
+        <v>0.1374</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2787,13 +2787,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.2499</v>
+        <v>0.1911</v>
       </c>
       <c r="C119">
-        <v>0.0593</v>
+        <v>0.057</v>
       </c>
       <c r="D119">
-        <v>0.1907</v>
+        <v>0.1341</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2801,13 +2801,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.2464</v>
+        <v>0.1876</v>
       </c>
       <c r="C120">
-        <v>0.0592</v>
+        <v>0.0567</v>
       </c>
       <c r="D120">
-        <v>0.1872</v>
+        <v>0.1308</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2815,13 +2815,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.2432</v>
+        <v>0.1841</v>
       </c>
       <c r="C121">
-        <v>0.0592</v>
+        <v>0.0566</v>
       </c>
       <c r="D121">
-        <v>0.184</v>
+        <v>0.1276</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2829,13 +2829,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.2399</v>
+        <v>0.1806</v>
       </c>
       <c r="C122">
-        <v>0.0594</v>
+        <v>0.0566</v>
       </c>
       <c r="D122">
-        <v>0.1805</v>
+        <v>0.1241</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2843,13 +2843,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.2368</v>
+        <v>0.1772</v>
       </c>
       <c r="C123">
-        <v>0.0596</v>
+        <v>0.0566</v>
       </c>
       <c r="D123">
-        <v>0.1772</v>
+        <v>0.1206</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2857,13 +2857,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.2337</v>
+        <v>0.1737</v>
       </c>
       <c r="C124">
-        <v>0.0597</v>
+        <v>0.0565</v>
       </c>
       <c r="D124">
-        <v>0.174</v>
+        <v>0.1172</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2871,13 +2871,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.2291</v>
+        <v>0.1689</v>
       </c>
       <c r="C125">
-        <v>0.0593</v>
+        <v>0.0558</v>
       </c>
       <c r="D125">
-        <v>0.1699</v>
+        <v>0.1131</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2885,13 +2885,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.2243</v>
+        <v>0.1639</v>
       </c>
       <c r="C126">
-        <v>0.059</v>
+        <v>0.0553</v>
       </c>
       <c r="D126">
-        <v>0.1653</v>
+        <v>0.1086</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2899,13 +2899,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.2191</v>
+        <v>0.1587</v>
       </c>
       <c r="C127">
-        <v>0.0587</v>
+        <v>0.0548</v>
       </c>
       <c r="D127">
-        <v>0.1603</v>
+        <v>0.1039</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2913,13 +2913,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.215</v>
+        <v>0.1545</v>
       </c>
       <c r="C128">
-        <v>0.059</v>
+        <v>0.0549</v>
       </c>
       <c r="D128">
-        <v>0.156</v>
+        <v>0.0997</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2927,13 +2927,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.2115</v>
+        <v>0.1508</v>
       </c>
       <c r="C129">
-        <v>0.0596</v>
+        <v>0.0551</v>
       </c>
       <c r="D129">
-        <v>0.1519</v>
+        <v>0.09569999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2941,13 +2941,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.2084</v>
+        <v>0.1475</v>
       </c>
       <c r="C130">
-        <v>0.06</v>
+        <v>0.0554</v>
       </c>
       <c r="D130">
-        <v>0.1484</v>
+        <v>0.0921</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2955,13 +2955,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.2063</v>
+        <v>0.1448</v>
       </c>
       <c r="C131">
-        <v>0.0605</v>
+        <v>0.0556</v>
       </c>
       <c r="D131">
-        <v>0.1458</v>
+        <v>0.0892</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2969,13 +2969,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.2049</v>
+        <v>0.1427</v>
       </c>
       <c r="C132">
-        <v>0.0609</v>
+        <v>0.0558</v>
       </c>
       <c r="D132">
-        <v>0.1441</v>
+        <v>0.08690000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2983,13 +2983,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.2041</v>
+        <v>0.1411</v>
       </c>
       <c r="C133">
-        <v>0.0614</v>
+        <v>0.0562</v>
       </c>
       <c r="D133">
-        <v>0.1427</v>
+        <v>0.0849</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2997,13 +2997,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.2031</v>
+        <v>0.1394</v>
       </c>
       <c r="C134">
-        <v>0.0616</v>
+        <v>0.0563</v>
       </c>
       <c r="D134">
-        <v>0.1415</v>
+        <v>0.0832</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3011,13 +3011,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.2024</v>
+        <v>0.1382</v>
       </c>
       <c r="C135">
-        <v>0.0618</v>
+        <v>0.0564</v>
       </c>
       <c r="D135">
-        <v>0.1405</v>
+        <v>0.08169999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3025,13 +3025,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.2025</v>
+        <v>0.1378</v>
       </c>
       <c r="C136">
-        <v>0.062</v>
+        <v>0.0565</v>
       </c>
       <c r="D136">
-        <v>0.1406</v>
+        <v>0.0813</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3039,13 +3039,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.2031</v>
+        <v>0.1379</v>
       </c>
       <c r="C137">
-        <v>0.0616</v>
+        <v>0.0562</v>
       </c>
       <c r="D137">
-        <v>0.1415</v>
+        <v>0.08169999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3053,13 +3053,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.2042</v>
+        <v>0.1389</v>
       </c>
       <c r="C138">
-        <v>0.0618</v>
+        <v>0.0564</v>
       </c>
       <c r="D138">
-        <v>0.1424</v>
+        <v>0.0825</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3067,13 +3067,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.2055</v>
+        <v>0.1403</v>
       </c>
       <c r="C139">
-        <v>0.062</v>
+        <v>0.0567</v>
       </c>
       <c r="D139">
-        <v>0.1435</v>
+        <v>0.0837</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3081,13 +3081,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.2076</v>
+        <v>0.1426</v>
       </c>
       <c r="C140">
-        <v>0.0624</v>
+        <v>0.0571</v>
       </c>
       <c r="D140">
-        <v>0.1452</v>
+        <v>0.08550000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3095,13 +3095,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.2098</v>
+        <v>0.1452</v>
       </c>
       <c r="C141">
-        <v>0.06270000000000001</v>
+        <v>0.0577</v>
       </c>
       <c r="D141">
-        <v>0.1471</v>
+        <v>0.08749999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3109,13 +3109,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.2112</v>
+        <v>0.1471</v>
       </c>
       <c r="C142">
-        <v>0.06270000000000001</v>
+        <v>0.0577</v>
       </c>
       <c r="D142">
-        <v>0.1486</v>
+        <v>0.08939999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3123,13 +3123,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.2128</v>
+        <v>0.1493</v>
       </c>
       <c r="C143">
-        <v>0.06270000000000001</v>
+        <v>0.0579</v>
       </c>
       <c r="D143">
-        <v>0.1501</v>
+        <v>0.0914</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3137,13 +3137,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.2143</v>
+        <v>0.1515</v>
       </c>
       <c r="C144">
-        <v>0.06270000000000001</v>
+        <v>0.058</v>
       </c>
       <c r="D144">
-        <v>0.1517</v>
+        <v>0.0935</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3151,13 +3151,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.2166</v>
+        <v>0.1545</v>
       </c>
       <c r="C145">
-        <v>0.0631</v>
+        <v>0.0586</v>
       </c>
       <c r="D145">
-        <v>0.1535</v>
+        <v>0.0958</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3165,13 +3165,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.2196</v>
+        <v>0.1582</v>
       </c>
       <c r="C146">
-        <v>0.0639</v>
+        <v>0.0597</v>
       </c>
       <c r="D146">
-        <v>0.1557</v>
+        <v>0.0984</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3179,13 +3179,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.223</v>
+        <v>0.1623</v>
       </c>
       <c r="C147">
-        <v>0.06519999999999999</v>
+        <v>0.0612</v>
       </c>
       <c r="D147">
-        <v>0.1578</v>
+        <v>0.1011</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3193,13 +3193,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.2261</v>
+        <v>0.1664</v>
       </c>
       <c r="C148">
-        <v>0.0665</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="D148">
-        <v>0.1597</v>
+        <v>0.1037</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3207,13 +3207,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.2289</v>
+        <v>0.17</v>
       </c>
       <c r="C149">
-        <v>0.0675</v>
+        <v>0.0639</v>
       </c>
       <c r="D149">
-        <v>0.1615</v>
+        <v>0.1061</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3221,13 +3221,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.2315</v>
+        <v>0.1735</v>
       </c>
       <c r="C150">
-        <v>0.06859999999999999</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="D150">
-        <v>0.1629</v>
+        <v>0.1083</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3235,13 +3235,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.2338</v>
+        <v>0.1769</v>
       </c>
       <c r="C151">
-        <v>0.0699</v>
+        <v>0.0668</v>
       </c>
       <c r="D151">
-        <v>0.1639</v>
+        <v>0.1102</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3249,13 +3249,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.2352</v>
+        <v>0.1796</v>
       </c>
       <c r="C152">
-        <v>0.0711</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="D152">
-        <v>0.1641</v>
+        <v>0.1115</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3263,13 +3263,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.2361</v>
+        <v>0.1817</v>
       </c>
       <c r="C153">
-        <v>0.0721</v>
+        <v>0.0692</v>
       </c>
       <c r="D153">
-        <v>0.1641</v>
+        <v>0.1125</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3277,13 +3277,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.2373</v>
+        <v>0.184</v>
       </c>
       <c r="C154">
-        <v>0.0732</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="D154">
-        <v>0.1641</v>
+        <v>0.1136</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3291,13 +3291,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.238</v>
+        <v>0.1857</v>
       </c>
       <c r="C155">
-        <v>0.07389999999999999</v>
+        <v>0.0713</v>
       </c>
       <c r="D155">
-        <v>0.1641</v>
+        <v>0.1144</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3305,13 +3305,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.2374</v>
+        <v>0.186</v>
       </c>
       <c r="C156">
-        <v>0.0741</v>
+        <v>0.0716</v>
       </c>
       <c r="D156">
-        <v>0.1632</v>
+        <v>0.1144</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3319,13 +3319,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.236</v>
+        <v>0.1856</v>
       </c>
       <c r="C157">
-        <v>0.0746</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="D157">
-        <v>0.1614</v>
+        <v>0.1136</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3333,13 +3333,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.2338</v>
+        <v>0.1842</v>
       </c>
       <c r="C158">
-        <v>0.07439999999999999</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="D158">
-        <v>0.1594</v>
+        <v>0.1124</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3347,13 +3347,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.2319</v>
+        <v>0.183</v>
       </c>
       <c r="C159">
-        <v>0.0746</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="D159">
-        <v>0.1573</v>
+        <v>0.1111</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3361,13 +3361,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.2291</v>
+        <v>0.1808</v>
       </c>
       <c r="C160">
-        <v>0.0743</v>
+        <v>0.0716</v>
       </c>
       <c r="D160">
-        <v>0.1548</v>
+        <v>0.1092</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3375,13 +3375,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.2262</v>
+        <v>0.1784</v>
       </c>
       <c r="C161">
-        <v>0.074</v>
+        <v>0.0712</v>
       </c>
       <c r="D161">
-        <v>0.1521</v>
+        <v>0.1071</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3389,13 +3389,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.2234</v>
+        <v>0.176</v>
       </c>
       <c r="C162">
-        <v>0.07389999999999999</v>
+        <v>0.0711</v>
       </c>
       <c r="D162">
-        <v>0.1495</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3403,13 +3403,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.2211</v>
+        <v>0.1741</v>
       </c>
       <c r="C163">
-        <v>0.07439999999999999</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="D163">
-        <v>0.1467</v>
+        <v>0.1027</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3417,13 +3417,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.2186</v>
+        <v>0.172</v>
       </c>
       <c r="C164">
-        <v>0.07489999999999999</v>
+        <v>0.0718</v>
       </c>
       <c r="D164">
-        <v>0.1438</v>
+        <v>0.1003</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3431,13 +3431,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.2173</v>
+        <v>0.1709</v>
       </c>
       <c r="C165">
-        <v>0.076</v>
+        <v>0.0728</v>
       </c>
       <c r="D165">
-        <v>0.1413</v>
+        <v>0.09810000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3445,13 +3445,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.2167</v>
+        <v>0.1705</v>
       </c>
       <c r="C166">
-        <v>0.0779</v>
+        <v>0.0746</v>
       </c>
       <c r="D166">
-        <v>0.1388</v>
+        <v>0.0959</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3459,13 +3459,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.2151</v>
+        <v>0.1691</v>
       </c>
       <c r="C167">
-        <v>0.0789</v>
+        <v>0.0755</v>
       </c>
       <c r="D167">
-        <v>0.1362</v>
+        <v>0.0935</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3473,13 +3473,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.2128</v>
+        <v>0.1666</v>
       </c>
       <c r="C168">
-        <v>0.0788</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="D168">
-        <v>0.1339</v>
+        <v>0.09130000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3487,13 +3487,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.2104</v>
+        <v>0.1639</v>
       </c>
       <c r="C169">
-        <v>0.0785</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="D169">
-        <v>0.1319</v>
+        <v>0.0891</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3501,13 +3501,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.209</v>
+        <v>0.1623</v>
       </c>
       <c r="C170">
-        <v>0.0788</v>
+        <v>0.0751</v>
       </c>
       <c r="D170">
-        <v>0.1301</v>
+        <v>0.0872</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3515,13 +3515,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.2081</v>
+        <v>0.1611</v>
       </c>
       <c r="C171">
-        <v>0.0795</v>
+        <v>0.0756</v>
       </c>
       <c r="D171">
-        <v>0.1286</v>
+        <v>0.08550000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3529,13 +3529,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.2067</v>
+        <v>0.1594</v>
       </c>
       <c r="C172">
-        <v>0.0798</v>
+        <v>0.0757</v>
       </c>
       <c r="D172">
-        <v>0.1269</v>
+        <v>0.08359999999999999</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3543,13 +3543,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.2056</v>
+        <v>0.158</v>
       </c>
       <c r="C173">
-        <v>0.08</v>
+        <v>0.0759</v>
       </c>
       <c r="D173">
-        <v>0.1256</v>
+        <v>0.08210000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3557,13 +3557,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.2048</v>
+        <v>0.157</v>
       </c>
       <c r="C174">
-        <v>0.0805</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="D174">
-        <v>0.1242</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3571,13 +3571,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.2047</v>
+        <v>0.1567</v>
       </c>
       <c r="C175">
-        <v>0.0814</v>
+        <v>0.0771</v>
       </c>
       <c r="D175">
-        <v>0.1233</v>
+        <v>0.07969999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3585,13 +3585,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.206</v>
+        <v>0.1581</v>
       </c>
       <c r="C176">
-        <v>0.08309999999999999</v>
+        <v>0.0789</v>
       </c>
       <c r="D176">
-        <v>0.1229</v>
+        <v>0.0793</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3599,13 +3599,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.2075</v>
+        <v>0.1597</v>
       </c>
       <c r="C177">
-        <v>0.0848</v>
+        <v>0.0805</v>
       </c>
       <c r="D177">
-        <v>0.1228</v>
+        <v>0.07920000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3613,13 +3613,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.21</v>
+        <v>0.1624</v>
       </c>
       <c r="C178">
-        <v>0.0868</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="D178">
-        <v>0.1232</v>
+        <v>0.0798</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3627,13 +3627,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.2122</v>
+        <v>0.1648</v>
       </c>
       <c r="C179">
-        <v>0.0883</v>
+        <v>0.0842</v>
       </c>
       <c r="D179">
-        <v>0.1239</v>
+        <v>0.0806</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3641,13 +3641,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.2153</v>
+        <v>0.1683</v>
       </c>
       <c r="C180">
-        <v>0.09039999999999999</v>
+        <v>0.0864</v>
       </c>
       <c r="D180">
-        <v>0.125</v>
+        <v>0.0819</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3655,13 +3655,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.2181</v>
+        <v>0.1714</v>
       </c>
       <c r="C181">
-        <v>0.0919</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="D181">
-        <v>0.1262</v>
+        <v>0.0834</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3669,13 +3669,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.2211</v>
+        <v>0.1749</v>
       </c>
       <c r="C182">
-        <v>0.0935</v>
+        <v>0.0898</v>
       </c>
       <c r="D182">
-        <v>0.1276</v>
+        <v>0.0851</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3683,13 +3683,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.2239</v>
+        <v>0.1781</v>
       </c>
       <c r="C183">
-        <v>0.0945</v>
+        <v>0.091</v>
       </c>
       <c r="D183">
-        <v>0.1293</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3697,13 +3697,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.227</v>
+        <v>0.1818</v>
       </c>
       <c r="C184">
-        <v>0.0955</v>
+        <v>0.0922</v>
       </c>
       <c r="D184">
-        <v>0.1315</v>
+        <v>0.0896</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3711,13 +3711,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.2293</v>
+        <v>0.1847</v>
       </c>
       <c r="C185">
-        <v>0.0958</v>
+        <v>0.0926</v>
       </c>
       <c r="D185">
-        <v>0.1335</v>
+        <v>0.0921</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3725,13 +3725,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.2303</v>
+        <v>0.1864</v>
       </c>
       <c r="C186">
-        <v>0.0948</v>
+        <v>0.0917</v>
       </c>
       <c r="D186">
-        <v>0.1356</v>
+        <v>0.0946</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3739,13 +3739,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.2323</v>
+        <v>0.1889</v>
       </c>
       <c r="C187">
-        <v>0.09420000000000001</v>
+        <v>0.0914</v>
       </c>
       <c r="D187">
-        <v>0.1381</v>
+        <v>0.0975</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3753,13 +3753,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.2357</v>
+        <v>0.1929</v>
       </c>
       <c r="C188">
-        <v>0.0948</v>
+        <v>0.0922</v>
       </c>
       <c r="D188">
-        <v>0.1409</v>
+        <v>0.1007</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3767,13 +3767,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.2393</v>
+        <v>0.1973</v>
       </c>
       <c r="C189">
-        <v>0.0954</v>
+        <v>0.093</v>
       </c>
       <c r="D189">
-        <v>0.1439</v>
+        <v>0.1043</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3781,13 +3781,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.2422</v>
+        <v>0.201</v>
       </c>
       <c r="C190">
-        <v>0.0953</v>
+        <v>0.0931</v>
       </c>
       <c r="D190">
-        <v>0.147</v>
+        <v>0.1079</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3795,13 +3795,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.245</v>
+        <v>0.2045</v>
       </c>
       <c r="C191">
-        <v>0.0949</v>
+        <v>0.0929</v>
       </c>
       <c r="D191">
-        <v>0.1502</v>
+        <v>0.1116</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3809,13 +3809,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.2483</v>
+        <v>0.2084</v>
       </c>
       <c r="C192">
-        <v>0.0948</v>
+        <v>0.093</v>
       </c>
       <c r="D192">
-        <v>0.1535</v>
+        <v>0.1153</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3823,13 +3823,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.2513</v>
+        <v>0.212</v>
       </c>
       <c r="C193">
-        <v>0.0946</v>
+        <v>0.093</v>
       </c>
       <c r="D193">
-        <v>0.1567</v>
+        <v>0.1189</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3837,13 +3837,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.255</v>
+        <v>0.2162</v>
       </c>
       <c r="C194">
-        <v>0.095</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="D194">
-        <v>0.16</v>
+        <v>0.1225</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3851,13 +3851,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.2593</v>
+        <v>0.2206</v>
       </c>
       <c r="C195">
-        <v>0.0953</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="D195">
-        <v>0.164</v>
+        <v>0.1263</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3865,13 +3865,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.2628</v>
+        <v>0.224</v>
       </c>
       <c r="C196">
-        <v>0.09520000000000001</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="D196">
-        <v>0.1676</v>
+        <v>0.1298</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3879,13 +3879,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.2663</v>
+        <v>0.2271</v>
       </c>
       <c r="C197">
-        <v>0.0949</v>
+        <v>0.094</v>
       </c>
       <c r="D197">
-        <v>0.1715</v>
+        <v>0.1331</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3893,13 +3893,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.2692</v>
+        <v>0.2297</v>
       </c>
       <c r="C198">
-        <v>0.0945</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="D198">
-        <v>0.1748</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3907,13 +3907,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.2721</v>
+        <v>0.2322</v>
       </c>
       <c r="C199">
-        <v>0.0944</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="D199">
-        <v>0.1777</v>
+        <v>0.1385</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3921,13 +3921,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.2742</v>
+        <v>0.2339</v>
       </c>
       <c r="C200">
-        <v>0.0939</v>
+        <v>0.09320000000000001</v>
       </c>
       <c r="D200">
-        <v>0.1803</v>
+        <v>0.1407</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3935,13 +3935,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.2764</v>
+        <v>0.2358</v>
       </c>
       <c r="C201">
-        <v>0.0939</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="D201">
-        <v>0.1826</v>
+        <v>0.1426</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3949,13 +3949,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.2779</v>
+        <v>0.237</v>
       </c>
       <c r="C202">
-        <v>0.0935</v>
+        <v>0.0929</v>
       </c>
       <c r="D202">
-        <v>0.1845</v>
+        <v>0.1441</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3963,13 +3963,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.2791</v>
+        <v>0.2378</v>
       </c>
       <c r="C203">
-        <v>0.09279999999999999</v>
+        <v>0.09229999999999999</v>
       </c>
       <c r="D203">
-        <v>0.1863</v>
+        <v>0.1456</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3977,13 +3977,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.2796</v>
+        <v>0.2378</v>
       </c>
       <c r="C204">
-        <v>0.0919</v>
+        <v>0.0914</v>
       </c>
       <c r="D204">
-        <v>0.1877</v>
+        <v>0.1464</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3991,13 +3991,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.2797</v>
+        <v>0.2373</v>
       </c>
       <c r="C205">
-        <v>0.091</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="D205">
-        <v>0.1887</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4005,13 +4005,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.2803</v>
+        <v>0.2374</v>
       </c>
       <c r="C206">
-        <v>0.09030000000000001</v>
+        <v>0.0896</v>
       </c>
       <c r="D206">
-        <v>0.19</v>
+        <v>0.1478</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4019,13 +4019,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.2808</v>
+        <v>0.2375</v>
       </c>
       <c r="C207">
-        <v>0.0898</v>
+        <v>0.0891</v>
       </c>
       <c r="D207">
-        <v>0.1911</v>
+        <v>0.1484</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4033,13 +4033,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.281</v>
+        <v>0.2375</v>
       </c>
       <c r="C208">
-        <v>0.0895</v>
+        <v>0.0888</v>
       </c>
       <c r="D208">
-        <v>0.1915</v>
+        <v>0.1487</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4047,13 +4047,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.2808</v>
+        <v>0.2371</v>
       </c>
       <c r="C209">
-        <v>0.08939999999999999</v>
+        <v>0.0888</v>
       </c>
       <c r="D209">
-        <v>0.1914</v>
+        <v>0.1484</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4061,13 +4061,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.2811</v>
+        <v>0.2373</v>
       </c>
       <c r="C210">
-        <v>0.0901</v>
+        <v>0.08939999999999999</v>
       </c>
       <c r="D210">
-        <v>0.1911</v>
+        <v>0.1479</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4075,13 +4075,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.2805</v>
+        <v>0.2366</v>
       </c>
       <c r="C211">
-        <v>0.0902</v>
+        <v>0.0895</v>
       </c>
       <c r="D211">
-        <v>0.1902</v>
+        <v>0.1471</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4089,13 +4089,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.2798</v>
+        <v>0.236</v>
       </c>
       <c r="C212">
-        <v>0.0906</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="D212">
-        <v>0.1893</v>
+        <v>0.1461</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4103,13 +4103,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.279</v>
+        <v>0.2352</v>
       </c>
       <c r="C213">
-        <v>0.09080000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="D213">
-        <v>0.1882</v>
+        <v>0.1452</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4117,13 +4117,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.2771</v>
+        <v>0.2334</v>
       </c>
       <c r="C214">
-        <v>0.08989999999999999</v>
+        <v>0.0892</v>
       </c>
       <c r="D214">
-        <v>0.1871</v>
+        <v>0.1442</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4131,13 +4131,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.274</v>
+        <v>0.2306</v>
       </c>
       <c r="C215">
-        <v>0.0888</v>
+        <v>0.08790000000000001</v>
       </c>
       <c r="D215">
-        <v>0.1852</v>
+        <v>0.1427</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4145,13 +4145,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.2708</v>
+        <v>0.2277</v>
       </c>
       <c r="C216">
-        <v>0.08740000000000001</v>
+        <v>0.08649999999999999</v>
       </c>
       <c r="D216">
-        <v>0.1834</v>
+        <v>0.1412</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4159,13 +4159,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.2671</v>
+        <v>0.2245</v>
       </c>
       <c r="C217">
-        <v>0.08599999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D217">
-        <v>0.1811</v>
+        <v>0.1395</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4173,13 +4173,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.2638</v>
+        <v>0.2217</v>
       </c>
       <c r="C218">
-        <v>0.0849</v>
+        <v>0.0839</v>
       </c>
       <c r="D218">
-        <v>0.1789</v>
+        <v>0.1378</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4187,13 +4187,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.2603</v>
+        <v>0.2186</v>
       </c>
       <c r="C219">
-        <v>0.08359999999999999</v>
+        <v>0.0824</v>
       </c>
       <c r="D219">
-        <v>0.1768</v>
+        <v>0.1362</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4201,13 +4201,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.2577</v>
+        <v>0.2163</v>
       </c>
       <c r="C220">
-        <v>0.08260000000000001</v>
+        <v>0.0814</v>
       </c>
       <c r="D220">
-        <v>0.1751</v>
+        <v>0.1349</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4215,13 +4215,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.2555</v>
+        <v>0.2144</v>
       </c>
       <c r="C221">
-        <v>0.08169999999999999</v>
+        <v>0.0805</v>
       </c>
       <c r="D221">
-        <v>0.1738</v>
+        <v>0.1338</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4229,13 +4229,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.2554</v>
+        <v>0.2146</v>
       </c>
       <c r="C222">
-        <v>0.0824</v>
+        <v>0.08119999999999999</v>
       </c>
       <c r="D222">
-        <v>0.173</v>
+        <v>0.1333</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4243,13 +4243,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.2556</v>
+        <v>0.2149</v>
       </c>
       <c r="C223">
-        <v>0.0829</v>
+        <v>0.0818</v>
       </c>
       <c r="D223">
-        <v>0.1726</v>
+        <v>0.1331</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4257,13 +4257,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.2582</v>
+        <v>0.2173</v>
       </c>
       <c r="C224">
-        <v>0.0842</v>
+        <v>0.08309999999999999</v>
       </c>
       <c r="D224">
-        <v>0.174</v>
+        <v>0.1342</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4271,13 +4271,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.2616</v>
+        <v>0.2204</v>
       </c>
       <c r="C225">
-        <v>0.0856</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="D225">
-        <v>0.176</v>
+        <v>0.1358</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4285,13 +4285,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.2643</v>
+        <v>0.2227</v>
       </c>
       <c r="C226">
-        <v>0.0868</v>
+        <v>0.0859</v>
       </c>
       <c r="D226">
-        <v>0.1775</v>
+        <v>0.1369</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4299,13 +4299,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.2667</v>
+        <v>0.2247</v>
       </c>
       <c r="C227">
-        <v>0.08790000000000001</v>
+        <v>0.08690000000000001</v>
       </c>
       <c r="D227">
-        <v>0.1788</v>
+        <v>0.1378</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4313,13 +4313,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.2689</v>
+        <v>0.2263</v>
       </c>
       <c r="C228">
-        <v>0.0883</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="D228">
-        <v>0.1805</v>
+        <v>0.1388</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4327,13 +4327,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.2709</v>
+        <v>0.2276</v>
       </c>
       <c r="C229">
-        <v>0.0887</v>
+        <v>0.0878</v>
       </c>
       <c r="D229">
-        <v>0.1822</v>
+        <v>0.1398</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4341,13 +4341,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.2721</v>
+        <v>0.228</v>
       </c>
       <c r="C230">
-        <v>0.0883</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="D230">
-        <v>0.1838</v>
+        <v>0.1406</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4355,13 +4355,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.2733</v>
+        <v>0.2285</v>
       </c>
       <c r="C231">
-        <v>0.08799999999999999</v>
+        <v>0.0871</v>
       </c>
       <c r="D231">
-        <v>0.1853</v>
+        <v>0.1415</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4369,13 +4369,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.2749</v>
+        <v>0.2294</v>
       </c>
       <c r="C232">
-        <v>0.08799999999999999</v>
+        <v>0.0871</v>
       </c>
       <c r="D232">
-        <v>0.1869</v>
+        <v>0.1423</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4383,13 +4383,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.2768</v>
+        <v>0.2306</v>
       </c>
       <c r="C233">
-        <v>0.0886</v>
+        <v>0.0876</v>
       </c>
       <c r="D233">
-        <v>0.1883</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4397,13 +4397,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.2783</v>
+        <v>0.2315</v>
       </c>
       <c r="C234">
-        <v>0.0892</v>
+        <v>0.0883</v>
       </c>
       <c r="D234">
-        <v>0.1891</v>
+        <v>0.1432</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4411,13 +4411,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.2804</v>
+        <v>0.2329</v>
       </c>
       <c r="C235">
-        <v>0.09030000000000001</v>
+        <v>0.0893</v>
       </c>
       <c r="D235">
-        <v>0.1901</v>
+        <v>0.1436</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4425,13 +4425,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.2819</v>
+        <v>0.2338</v>
       </c>
       <c r="C236">
-        <v>0.0912</v>
+        <v>0.0902</v>
       </c>
       <c r="D236">
-        <v>0.1907</v>
+        <v>0.1436</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4439,13 +4439,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.2837</v>
+        <v>0.2351</v>
       </c>
       <c r="C237">
-        <v>0.0924</v>
+        <v>0.0914</v>
       </c>
       <c r="D237">
-        <v>0.1913</v>
+        <v>0.1437</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4453,13 +4453,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.2861</v>
+        <v>0.2368</v>
       </c>
       <c r="C238">
-        <v>0.094</v>
+        <v>0.093</v>
       </c>
       <c r="D238">
-        <v>0.1921</v>
+        <v>0.1437</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4467,13 +4467,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.2885</v>
+        <v>0.2385</v>
       </c>
       <c r="C239">
-        <v>0.09569999999999999</v>
+        <v>0.09470000000000001</v>
       </c>
       <c r="D239">
-        <v>0.1928</v>
+        <v>0.1437</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4481,13 +4481,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.2902</v>
+        <v>0.2394</v>
       </c>
       <c r="C240">
-        <v>0.09669999999999999</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="D240">
-        <v>0.1935</v>
+        <v>0.1437</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4495,13 +4495,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.2933</v>
+        <v>0.2417</v>
       </c>
       <c r="C241">
-        <v>0.099</v>
+        <v>0.09810000000000001</v>
       </c>
       <c r="D241">
-        <v>0.1942</v>
+        <v>0.1436</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4509,13 +4509,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.2941</v>
+        <v>0.2416</v>
       </c>
       <c r="C242">
-        <v>0.09959999999999999</v>
+        <v>0.09859999999999999</v>
       </c>
       <c r="D242">
-        <v>0.1945</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4523,13 +4523,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.2942</v>
+        <v>0.2408</v>
       </c>
       <c r="C243">
-        <v>0.1001</v>
+        <v>0.099</v>
       </c>
       <c r="D243">
-        <v>0.1941</v>
+        <v>0.1418</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4537,13 +4537,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.2918</v>
+        <v>0.238</v>
       </c>
       <c r="C244">
-        <v>0.0999</v>
+        <v>0.0987</v>
       </c>
       <c r="D244">
-        <v>0.1919</v>
+        <v>0.1393</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4551,13 +4551,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.2884</v>
+        <v>0.2342</v>
       </c>
       <c r="C245">
-        <v>0.0994</v>
+        <v>0.098</v>
       </c>
       <c r="D245">
-        <v>0.189</v>
+        <v>0.1362</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4565,13 +4565,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.2848</v>
+        <v>0.2302</v>
       </c>
       <c r="C246">
-        <v>0.0987</v>
+        <v>0.09710000000000001</v>
       </c>
       <c r="D246">
-        <v>0.186</v>
+        <v>0.1331</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4579,13 +4579,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.2807</v>
+        <v>0.2258</v>
       </c>
       <c r="C247">
-        <v>0.0978</v>
+        <v>0.0961</v>
       </c>
       <c r="D247">
-        <v>0.1829</v>
+        <v>0.1298</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4593,13 +4593,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.277</v>
+        <v>0.2219</v>
       </c>
       <c r="C248">
-        <v>0.0975</v>
+        <v>0.0956</v>
       </c>
       <c r="D248">
-        <v>0.1795</v>
+        <v>0.1264</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2017 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2017 - Diaria.xlsx
@@ -1149,13 +1149,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3345</v>
+        <v>0.3347</v>
       </c>
       <c r="C2">
         <v>0.0751</v>
       </c>
       <c r="D2">
-        <v>0.2593</v>
+        <v>0.2596</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1163,13 +1163,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.331</v>
+        <v>0.3311</v>
       </c>
       <c r="C3">
         <v>0.0751</v>
       </c>
       <c r="D3">
-        <v>0.2559</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1183,7 +1183,7 @@
         <v>0.0752</v>
       </c>
       <c r="D4">
-        <v>0.2524</v>
+        <v>0.2526</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1219,13 +1219,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3193</v>
+        <v>0.3191</v>
       </c>
       <c r="C7">
-        <v>0.0759</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="D7">
-        <v>0.2434</v>
+        <v>0.2433</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1233,13 +1233,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3164</v>
+        <v>0.3161</v>
       </c>
       <c r="C8">
-        <v>0.07580000000000001</v>
+        <v>0.0757</v>
       </c>
       <c r="D8">
-        <v>0.2406</v>
+        <v>0.2404</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1247,13 +1247,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3134</v>
+        <v>0.3131</v>
       </c>
       <c r="C9">
         <v>0.0756</v>
       </c>
       <c r="D9">
-        <v>0.2378</v>
+        <v>0.2375</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1261,13 +1261,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3106</v>
+        <v>0.3102</v>
       </c>
       <c r="C10">
-        <v>0.076</v>
+        <v>0.0759</v>
       </c>
       <c r="D10">
-        <v>0.2346</v>
+        <v>0.2343</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1275,13 +1275,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3064</v>
+        <v>0.3059</v>
       </c>
       <c r="C11">
         <v>0.0755</v>
       </c>
       <c r="D11">
-        <v>0.2308</v>
+        <v>0.2305</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1289,13 +1289,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3023</v>
+        <v>0.3019</v>
       </c>
       <c r="C12">
-        <v>0.0752</v>
+        <v>0.0751</v>
       </c>
       <c r="D12">
-        <v>0.2271</v>
+        <v>0.2267</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1303,13 +1303,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.2981</v>
+        <v>0.2976</v>
       </c>
       <c r="C13">
-        <v>0.0746</v>
+        <v>0.0745</v>
       </c>
       <c r="D13">
-        <v>0.2236</v>
+        <v>0.2231</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1317,13 +1317,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.2941</v>
+        <v>0.2935</v>
       </c>
       <c r="C14">
         <v>0.0741</v>
       </c>
       <c r="D14">
-        <v>0.22</v>
+        <v>0.2195</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1331,13 +1331,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.2895</v>
+        <v>0.2889</v>
       </c>
       <c r="C15">
-        <v>0.07290000000000001</v>
+        <v>0.0728</v>
       </c>
       <c r="D15">
-        <v>0.2167</v>
+        <v>0.2161</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1345,13 +1345,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.2853</v>
+        <v>0.2846</v>
       </c>
       <c r="C16">
         <v>0.0717</v>
       </c>
       <c r="D16">
-        <v>0.2136</v>
+        <v>0.2129</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1359,13 +1359,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.2816</v>
+        <v>0.2809</v>
       </c>
       <c r="C17">
         <v>0.0709</v>
       </c>
       <c r="D17">
-        <v>0.2107</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1373,13 +1373,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.2777</v>
+        <v>0.2769</v>
       </c>
       <c r="C18">
-        <v>0.0699</v>
+        <v>0.0698</v>
       </c>
       <c r="D18">
-        <v>0.2078</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1387,13 +1387,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.2739</v>
+        <v>0.273</v>
       </c>
       <c r="C19">
         <v>0.0689</v>
       </c>
       <c r="D19">
-        <v>0.205</v>
+        <v>0.2041</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1401,13 +1401,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.2711</v>
+        <v>0.2702</v>
       </c>
       <c r="C20">
         <v>0.06850000000000001</v>
       </c>
       <c r="D20">
-        <v>0.2026</v>
+        <v>0.2017</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1415,13 +1415,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.2679</v>
+        <v>0.2669</v>
       </c>
       <c r="C21">
         <v>0.0673</v>
       </c>
       <c r="D21">
-        <v>0.2006</v>
+        <v>0.1996</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1429,13 +1429,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.2651</v>
+        <v>0.2639</v>
       </c>
       <c r="C22">
         <v>0.066</v>
       </c>
       <c r="D22">
-        <v>0.1991</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1443,13 +1443,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.2621</v>
+        <v>0.2609</v>
       </c>
       <c r="C23">
-        <v>0.0648</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="D23">
-        <v>0.1973</v>
+        <v>0.1962</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1457,13 +1457,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.2587</v>
+        <v>0.2575</v>
       </c>
       <c r="C24">
-        <v>0.0633</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="D24">
-        <v>0.1954</v>
+        <v>0.1942</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1471,13 +1471,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.2556</v>
+        <v>0.2544</v>
       </c>
       <c r="C25">
-        <v>0.062</v>
+        <v>0.0619</v>
       </c>
       <c r="D25">
-        <v>0.1937</v>
+        <v>0.1924</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1485,13 +1485,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.2525</v>
+        <v>0.2512</v>
       </c>
       <c r="C26">
-        <v>0.0607</v>
+        <v>0.0606</v>
       </c>
       <c r="D26">
-        <v>0.1918</v>
+        <v>0.1906</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1499,13 +1499,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.2504</v>
+        <v>0.2491</v>
       </c>
       <c r="C27">
-        <v>0.06</v>
+        <v>0.0599</v>
       </c>
       <c r="D27">
-        <v>0.1905</v>
+        <v>0.1892</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1513,13 +1513,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.2486</v>
+        <v>0.2472</v>
       </c>
       <c r="C28">
-        <v>0.0592</v>
+        <v>0.0591</v>
       </c>
       <c r="D28">
-        <v>0.1894</v>
+        <v>0.1881</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1527,13 +1527,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.2473</v>
+        <v>0.2459</v>
       </c>
       <c r="C29">
         <v>0.0585</v>
       </c>
       <c r="D29">
-        <v>0.1887</v>
+        <v>0.1874</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1541,13 +1541,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.2455</v>
+        <v>0.2441</v>
       </c>
       <c r="C30">
-        <v>0.057</v>
+        <v>0.0569</v>
       </c>
       <c r="D30">
-        <v>0.1885</v>
+        <v>0.1871</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1555,13 +1555,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.2444</v>
+        <v>0.2429</v>
       </c>
       <c r="C31">
-        <v>0.0558</v>
+        <v>0.0557</v>
       </c>
       <c r="D31">
-        <v>0.1886</v>
+        <v>0.1872</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1569,13 +1569,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.243</v>
+        <v>0.2415</v>
       </c>
       <c r="C32">
-        <v>0.0541</v>
+        <v>0.054</v>
       </c>
       <c r="D32">
-        <v>0.1889</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1583,13 +1583,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.2424</v>
+        <v>0.2409</v>
       </c>
       <c r="C33">
         <v>0.0529</v>
       </c>
       <c r="D33">
-        <v>0.1895</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1597,13 +1597,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.2425</v>
+        <v>0.2409</v>
       </c>
       <c r="C34">
-        <v>0.0518</v>
+        <v>0.0517</v>
       </c>
       <c r="D34">
-        <v>0.1907</v>
+        <v>0.1892</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1611,13 +1611,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.2429</v>
+        <v>0.2413</v>
       </c>
       <c r="C35">
-        <v>0.051</v>
+        <v>0.0509</v>
       </c>
       <c r="D35">
-        <v>0.1919</v>
+        <v>0.1904</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1625,13 +1625,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.2442</v>
+        <v>0.2426</v>
       </c>
       <c r="C36">
         <v>0.0508</v>
       </c>
       <c r="D36">
-        <v>0.1934</v>
+        <v>0.1918</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1639,13 +1639,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.2453</v>
+        <v>0.2437</v>
       </c>
       <c r="C37">
         <v>0.0504</v>
       </c>
       <c r="D37">
-        <v>0.1949</v>
+        <v>0.1933</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1653,13 +1653,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.2467</v>
+        <v>0.245</v>
       </c>
       <c r="C38">
         <v>0.05</v>
       </c>
       <c r="D38">
-        <v>0.1966</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1667,13 +1667,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.2482</v>
+        <v>0.2466</v>
       </c>
       <c r="C39">
         <v>0.0496</v>
       </c>
       <c r="D39">
-        <v>0.1986</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1681,13 +1681,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.2496</v>
+        <v>0.248</v>
       </c>
       <c r="C40">
         <v>0.0492</v>
       </c>
       <c r="D40">
-        <v>0.2004</v>
+        <v>0.1988</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1695,13 +1695,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.2513</v>
+        <v>0.2496</v>
       </c>
       <c r="C41">
         <v>0.0491</v>
       </c>
       <c r="D41">
-        <v>0.2021</v>
+        <v>0.2005</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1709,13 +1709,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.2532</v>
+        <v>0.2515</v>
       </c>
       <c r="C42">
-        <v>0.0496</v>
+        <v>0.0495</v>
       </c>
       <c r="D42">
-        <v>0.2036</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1723,13 +1723,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.2551</v>
+        <v>0.2534</v>
       </c>
       <c r="C43">
         <v>0.0497</v>
       </c>
       <c r="D43">
-        <v>0.2053</v>
+        <v>0.2037</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1737,13 +1737,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.2572</v>
+        <v>0.2555</v>
       </c>
       <c r="C44">
         <v>0.05</v>
       </c>
       <c r="D44">
-        <v>0.2072</v>
+        <v>0.2056</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1751,13 +1751,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.2595</v>
+        <v>0.2579</v>
       </c>
       <c r="C45">
         <v>0.0503</v>
       </c>
       <c r="D45">
-        <v>0.2092</v>
+        <v>0.2076</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1765,13 +1765,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.2619</v>
+        <v>0.2602</v>
       </c>
       <c r="C46">
-        <v>0.0506</v>
+        <v>0.0505</v>
       </c>
       <c r="D46">
-        <v>0.2114</v>
+        <v>0.2097</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1779,13 +1779,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.2641</v>
+        <v>0.2624</v>
       </c>
       <c r="C47">
-        <v>0.0507</v>
+        <v>0.0506</v>
       </c>
       <c r="D47">
-        <v>0.2134</v>
+        <v>0.2118</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1793,13 +1793,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.2662</v>
+        <v>0.2645</v>
       </c>
       <c r="C48">
-        <v>0.0507</v>
+        <v>0.0506</v>
       </c>
       <c r="D48">
-        <v>0.2155</v>
+        <v>0.2139</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1807,13 +1807,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.2688</v>
+        <v>0.2671</v>
       </c>
       <c r="C49">
         <v>0.0511</v>
       </c>
       <c r="D49">
-        <v>0.2177</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1821,13 +1821,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.2715</v>
+        <v>0.2697</v>
       </c>
       <c r="C50">
         <v>0.0516</v>
       </c>
       <c r="D50">
-        <v>0.2198</v>
+        <v>0.2181</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1835,13 +1835,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.274</v>
+        <v>0.2722</v>
       </c>
       <c r="C51">
         <v>0.052</v>
       </c>
       <c r="D51">
-        <v>0.222</v>
+        <v>0.2202</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1849,13 +1849,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.277</v>
+        <v>0.2752</v>
       </c>
       <c r="C52">
         <v>0.0527</v>
       </c>
       <c r="D52">
-        <v>0.2243</v>
+        <v>0.2225</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1863,13 +1863,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.2799</v>
+        <v>0.2781</v>
       </c>
       <c r="C53">
-        <v>0.0533</v>
+        <v>0.0532</v>
       </c>
       <c r="D53">
-        <v>0.2266</v>
+        <v>0.2248</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1877,13 +1877,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.283</v>
+        <v>0.2812</v>
       </c>
       <c r="C54">
-        <v>0.0542</v>
+        <v>0.0541</v>
       </c>
       <c r="D54">
-        <v>0.2289</v>
+        <v>0.2271</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1891,13 +1891,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.2879</v>
+        <v>0.2861</v>
       </c>
       <c r="C55">
         <v>0.0557</v>
       </c>
       <c r="D55">
-        <v>0.2322</v>
+        <v>0.2304</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1905,13 +1905,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.2923</v>
+        <v>0.2904</v>
       </c>
       <c r="C56">
-        <v>0.0568</v>
+        <v>0.0567</v>
       </c>
       <c r="D56">
-        <v>0.2355</v>
+        <v>0.2337</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1919,13 +1919,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.2967</v>
+        <v>0.2948</v>
       </c>
       <c r="C57">
         <v>0.0578</v>
       </c>
       <c r="D57">
-        <v>0.2389</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1933,13 +1933,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.3013</v>
+        <v>0.2993</v>
       </c>
       <c r="C58">
         <v>0.059</v>
       </c>
       <c r="D58">
-        <v>0.2422</v>
+        <v>0.2404</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1947,13 +1947,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3057</v>
+        <v>0.3037</v>
       </c>
       <c r="C59">
-        <v>0.0602</v>
+        <v>0.0601</v>
       </c>
       <c r="D59">
-        <v>0.2455</v>
+        <v>0.2436</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1961,13 +1961,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3101</v>
+        <v>0.3082</v>
       </c>
       <c r="C60">
         <v>0.0609</v>
       </c>
       <c r="D60">
-        <v>0.2492</v>
+        <v>0.2473</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1975,13 +1975,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.3143</v>
+        <v>0.3124</v>
       </c>
       <c r="C61">
         <v>0.0617</v>
       </c>
       <c r="D61">
-        <v>0.2526</v>
+        <v>0.2507</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1989,13 +1989,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.3181</v>
+        <v>0.3161</v>
       </c>
       <c r="C62">
         <v>0.0622</v>
       </c>
       <c r="D62">
-        <v>0.2558</v>
+        <v>0.2539</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2003,13 +2003,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.322</v>
+        <v>0.3201</v>
       </c>
       <c r="C63">
-        <v>0.0631</v>
+        <v>0.063</v>
       </c>
       <c r="D63">
-        <v>0.259</v>
+        <v>0.2571</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2017,13 +2017,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.3257</v>
+        <v>0.3238</v>
       </c>
       <c r="C64">
-        <v>0.0638</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="D64">
-        <v>0.2619</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2031,13 +2031,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.3292</v>
+        <v>0.3273</v>
       </c>
       <c r="C65">
-        <v>0.0645</v>
+        <v>0.0644</v>
       </c>
       <c r="D65">
-        <v>0.2647</v>
+        <v>0.2628</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2045,13 +2045,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.3324</v>
+        <v>0.3305</v>
       </c>
       <c r="C66">
-        <v>0.0649</v>
+        <v>0.0648</v>
       </c>
       <c r="D66">
-        <v>0.2675</v>
+        <v>0.2657</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2059,13 +2059,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.3356</v>
+        <v>0.3337</v>
       </c>
       <c r="C67">
         <v>0.06519999999999999</v>
       </c>
       <c r="D67">
-        <v>0.2703</v>
+        <v>0.2685</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2073,13 +2073,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.3387</v>
+        <v>0.3369</v>
       </c>
       <c r="C68">
-        <v>0.06560000000000001</v>
+        <v>0.0655</v>
       </c>
       <c r="D68">
-        <v>0.2731</v>
+        <v>0.2713</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2087,13 +2087,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.3409</v>
+        <v>0.3391</v>
       </c>
       <c r="C69">
         <v>0.0653</v>
       </c>
       <c r="D69">
-        <v>0.2756</v>
+        <v>0.2738</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2101,13 +2101,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.3432</v>
+        <v>0.3414</v>
       </c>
       <c r="C70">
         <v>0.06519999999999999</v>
       </c>
       <c r="D70">
-        <v>0.278</v>
+        <v>0.2762</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2115,13 +2115,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.3455</v>
+        <v>0.3438</v>
       </c>
       <c r="C71">
-        <v>0.06510000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="D71">
-        <v>0.2804</v>
+        <v>0.2787</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2129,13 +2129,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.3481</v>
+        <v>0.3464</v>
       </c>
       <c r="C72">
         <v>0.0654</v>
       </c>
       <c r="D72">
-        <v>0.2827</v>
+        <v>0.2811</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2143,13 +2143,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.35</v>
+        <v>0.3483</v>
       </c>
       <c r="C73">
         <v>0.0654</v>
       </c>
       <c r="D73">
-        <v>0.2846</v>
+        <v>0.2829</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2157,13 +2157,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.3511</v>
+        <v>0.3495</v>
       </c>
       <c r="C74">
         <v>0.0653</v>
       </c>
       <c r="D74">
-        <v>0.2858</v>
+        <v>0.2842</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2171,13 +2171,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.3509</v>
+        <v>0.3493</v>
       </c>
       <c r="C75">
         <v>0.0653</v>
       </c>
       <c r="D75">
-        <v>0.2856</v>
+        <v>0.2841</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2185,13 +2185,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.3502</v>
+        <v>0.3486</v>
       </c>
       <c r="C76">
-        <v>0.0649</v>
+        <v>0.0648</v>
       </c>
       <c r="D76">
-        <v>0.2853</v>
+        <v>0.2838</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2199,13 +2199,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.3492</v>
+        <v>0.3477</v>
       </c>
       <c r="C77">
-        <v>0.0645</v>
+        <v>0.0644</v>
       </c>
       <c r="D77">
-        <v>0.2848</v>
+        <v>0.2833</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2213,13 +2213,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.3474</v>
+        <v>0.3459</v>
       </c>
       <c r="C78">
         <v>0.06370000000000001</v>
       </c>
       <c r="D78">
-        <v>0.2837</v>
+        <v>0.2823</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2227,13 +2227,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.3456</v>
+        <v>0.3441</v>
       </c>
       <c r="C79">
         <v>0.06320000000000001</v>
       </c>
       <c r="D79">
-        <v>0.2824</v>
+        <v>0.2809</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2241,13 +2241,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.3431</v>
+        <v>0.3416</v>
       </c>
       <c r="C80">
-        <v>0.06279999999999999</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="D80">
-        <v>0.2803</v>
+        <v>0.2789</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2255,13 +2255,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.3403</v>
+        <v>0.3389</v>
       </c>
       <c r="C81">
         <v>0.0624</v>
       </c>
       <c r="D81">
-        <v>0.2779</v>
+        <v>0.2764</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2269,13 +2269,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.3371</v>
+        <v>0.3357</v>
       </c>
       <c r="C82">
         <v>0.062</v>
       </c>
       <c r="D82">
-        <v>0.2751</v>
+        <v>0.2737</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2283,13 +2283,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.3337</v>
+        <v>0.3323</v>
       </c>
       <c r="C83">
         <v>0.0614</v>
       </c>
       <c r="D83">
-        <v>0.2723</v>
+        <v>0.2709</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2297,13 +2297,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.3303</v>
+        <v>0.3289</v>
       </c>
       <c r="C84">
         <v>0.061</v>
       </c>
       <c r="D84">
-        <v>0.2693</v>
+        <v>0.2679</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2311,13 +2311,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.326</v>
+        <v>0.3246</v>
       </c>
       <c r="C85">
         <v>0.0601</v>
       </c>
       <c r="D85">
-        <v>0.2659</v>
+        <v>0.2645</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2325,13 +2325,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.3212</v>
+        <v>0.3198</v>
       </c>
       <c r="C86">
         <v>0.0592</v>
       </c>
       <c r="D86">
-        <v>0.262</v>
+        <v>0.2606</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2339,13 +2339,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.3164</v>
+        <v>0.315</v>
       </c>
       <c r="C87">
-        <v>0.0587</v>
+        <v>0.0586</v>
       </c>
       <c r="D87">
-        <v>0.2577</v>
+        <v>0.2563</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2353,13 +2353,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.3102</v>
+        <v>0.3089</v>
       </c>
       <c r="C88">
         <v>0.0577</v>
       </c>
       <c r="D88">
-        <v>0.2525</v>
+        <v>0.2512</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2367,13 +2367,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.3044</v>
+        <v>0.303</v>
       </c>
       <c r="C89">
         <v>0.0572</v>
       </c>
       <c r="D89">
-        <v>0.2472</v>
+        <v>0.2459</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2381,13 +2381,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.2987</v>
+        <v>0.2973</v>
       </c>
       <c r="C90">
         <v>0.0568</v>
       </c>
       <c r="D90">
-        <v>0.2419</v>
+        <v>0.2405</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2395,13 +2395,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.2925</v>
+        <v>0.2911</v>
       </c>
       <c r="C91">
         <v>0.0564</v>
       </c>
       <c r="D91">
-        <v>0.2361</v>
+        <v>0.2347</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2409,13 +2409,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.2864</v>
+        <v>0.285</v>
       </c>
       <c r="C92">
-        <v>0.0559</v>
+        <v>0.0558</v>
       </c>
       <c r="D92">
-        <v>0.2305</v>
+        <v>0.2292</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2423,13 +2423,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.2807</v>
+        <v>0.2793</v>
       </c>
       <c r="C93">
         <v>0.0557</v>
       </c>
       <c r="D93">
-        <v>0.225</v>
+        <v>0.2236</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2437,13 +2437,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.2749</v>
+        <v>0.2735</v>
       </c>
       <c r="C94">
         <v>0.0554</v>
       </c>
       <c r="D94">
-        <v>0.2195</v>
+        <v>0.2181</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2451,13 +2451,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.269</v>
+        <v>0.2676</v>
       </c>
       <c r="C95">
-        <v>0.0547</v>
+        <v>0.0546</v>
       </c>
       <c r="D95">
-        <v>0.2144</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2465,13 +2465,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.2638</v>
+        <v>0.2624</v>
       </c>
       <c r="C96">
         <v>0.0546</v>
       </c>
       <c r="D96">
-        <v>0.2092</v>
+        <v>0.2078</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2479,13 +2479,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.2582</v>
+        <v>0.2567</v>
       </c>
       <c r="C97">
         <v>0.0544</v>
       </c>
       <c r="D97">
-        <v>0.2037</v>
+        <v>0.2024</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2493,13 +2493,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.253</v>
+        <v>0.2516</v>
       </c>
       <c r="C98">
         <v>0.0544</v>
       </c>
       <c r="D98">
-        <v>0.1986</v>
+        <v>0.1972</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2507,13 +2507,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.2483</v>
+        <v>0.2469</v>
       </c>
       <c r="C99">
-        <v>0.0546</v>
+        <v>0.0545</v>
       </c>
       <c r="D99">
-        <v>0.1937</v>
+        <v>0.1924</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2521,13 +2521,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.2433</v>
+        <v>0.2419</v>
       </c>
       <c r="C100">
         <v>0.0547</v>
       </c>
       <c r="D100">
-        <v>0.1886</v>
+        <v>0.1873</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2535,13 +2535,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.2383</v>
+        <v>0.2369</v>
       </c>
       <c r="C101">
-        <v>0.0546</v>
+        <v>0.0545</v>
       </c>
       <c r="D101">
-        <v>0.1837</v>
+        <v>0.1824</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2549,13 +2549,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.2345</v>
+        <v>0.2331</v>
       </c>
       <c r="C102">
         <v>0.0548</v>
       </c>
       <c r="D102">
-        <v>0.1797</v>
+        <v>0.1784</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2563,13 +2563,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.231</v>
+        <v>0.2296</v>
       </c>
       <c r="C103">
-        <v>0.0553</v>
+        <v>0.0552</v>
       </c>
       <c r="D103">
-        <v>0.1757</v>
+        <v>0.1744</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2577,13 +2577,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.2277</v>
+        <v>0.2263</v>
       </c>
       <c r="C104">
         <v>0.0557</v>
       </c>
       <c r="D104">
-        <v>0.1719</v>
+        <v>0.1706</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2591,13 +2591,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.2256</v>
+        <v>0.2242</v>
       </c>
       <c r="C105">
         <v>0.0566</v>
       </c>
       <c r="D105">
-        <v>0.169</v>
+        <v>0.1676</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2605,13 +2605,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.2239</v>
+        <v>0.2225</v>
       </c>
       <c r="C106">
-        <v>0.0574</v>
+        <v>0.0573</v>
       </c>
       <c r="D106">
-        <v>0.1665</v>
+        <v>0.1651</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2619,13 +2619,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.2222</v>
+        <v>0.2208</v>
       </c>
       <c r="C107">
         <v>0.0578</v>
       </c>
       <c r="D107">
-        <v>0.1644</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2633,13 +2633,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.2207</v>
+        <v>0.2193</v>
       </c>
       <c r="C108">
         <v>0.0582</v>
       </c>
       <c r="D108">
-        <v>0.1625</v>
+        <v>0.1611</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2647,13 +2647,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.2191</v>
+        <v>0.2177</v>
       </c>
       <c r="C109">
         <v>0.0583</v>
       </c>
       <c r="D109">
-        <v>0.1608</v>
+        <v>0.1594</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2661,13 +2661,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.2167</v>
+        <v>0.2153</v>
       </c>
       <c r="C110">
-        <v>0.0581</v>
+        <v>0.058</v>
       </c>
       <c r="D110">
-        <v>0.1586</v>
+        <v>0.1572</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2675,13 +2675,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.214</v>
+        <v>0.2126</v>
       </c>
       <c r="C111">
-        <v>0.0578</v>
+        <v>0.0577</v>
       </c>
       <c r="D111">
-        <v>0.1562</v>
+        <v>0.1549</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2689,13 +2689,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.2112</v>
+        <v>0.2098</v>
       </c>
       <c r="C112">
         <v>0.0575</v>
       </c>
       <c r="D112">
-        <v>0.1536</v>
+        <v>0.1523</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2703,13 +2703,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.2082</v>
+        <v>0.2068</v>
       </c>
       <c r="C113">
-        <v>0.0571</v>
+        <v>0.057</v>
       </c>
       <c r="D113">
-        <v>0.1511</v>
+        <v>0.1498</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2717,13 +2717,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.2057</v>
+        <v>0.2044</v>
       </c>
       <c r="C114">
-        <v>0.0571</v>
+        <v>0.057</v>
       </c>
       <c r="D114">
-        <v>0.1487</v>
+        <v>0.1474</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2731,13 +2731,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.203</v>
+        <v>0.2016</v>
       </c>
       <c r="C115">
         <v>0.057</v>
       </c>
       <c r="D115">
-        <v>0.146</v>
+        <v>0.1447</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2745,13 +2745,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.1998</v>
+        <v>0.1984</v>
       </c>
       <c r="C116">
         <v>0.0568</v>
       </c>
       <c r="D116">
-        <v>0.143</v>
+        <v>0.1417</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2759,13 +2759,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.1975</v>
+        <v>0.1962</v>
       </c>
       <c r="C117">
-        <v>0.0573</v>
+        <v>0.0572</v>
       </c>
       <c r="D117">
-        <v>0.1402</v>
+        <v>0.1389</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2773,13 +2773,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.1947</v>
+        <v>0.1933</v>
       </c>
       <c r="C118">
-        <v>0.0573</v>
+        <v>0.0572</v>
       </c>
       <c r="D118">
-        <v>0.1374</v>
+        <v>0.1361</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2787,13 +2787,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.1911</v>
+        <v>0.1898</v>
       </c>
       <c r="C119">
-        <v>0.057</v>
+        <v>0.0569</v>
       </c>
       <c r="D119">
-        <v>0.1341</v>
+        <v>0.1329</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2801,13 +2801,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.1876</v>
+        <v>0.1863</v>
       </c>
       <c r="C120">
         <v>0.0567</v>
       </c>
       <c r="D120">
-        <v>0.1308</v>
+        <v>0.1296</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2815,13 +2815,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.1841</v>
+        <v>0.1828</v>
       </c>
       <c r="C121">
-        <v>0.0566</v>
+        <v>0.0565</v>
       </c>
       <c r="D121">
-        <v>0.1276</v>
+        <v>0.1263</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2829,13 +2829,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.1806</v>
+        <v>0.1793</v>
       </c>
       <c r="C122">
-        <v>0.0566</v>
+        <v>0.0565</v>
       </c>
       <c r="D122">
-        <v>0.1241</v>
+        <v>0.1228</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2843,13 +2843,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.1772</v>
+        <v>0.1759</v>
       </c>
       <c r="C123">
-        <v>0.0566</v>
+        <v>0.0565</v>
       </c>
       <c r="D123">
-        <v>0.1206</v>
+        <v>0.1194</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2857,13 +2857,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.1737</v>
+        <v>0.1724</v>
       </c>
       <c r="C124">
-        <v>0.0565</v>
+        <v>0.0564</v>
       </c>
       <c r="D124">
-        <v>0.1172</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2871,13 +2871,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.1689</v>
+        <v>0.1676</v>
       </c>
       <c r="C125">
-        <v>0.0558</v>
+        <v>0.0557</v>
       </c>
       <c r="D125">
-        <v>0.1131</v>
+        <v>0.1119</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2885,13 +2885,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.1639</v>
+        <v>0.1627</v>
       </c>
       <c r="C126">
         <v>0.0553</v>
       </c>
       <c r="D126">
-        <v>0.1086</v>
+        <v>0.1074</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2899,13 +2899,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.1587</v>
+        <v>0.1574</v>
       </c>
       <c r="C127">
-        <v>0.0548</v>
+        <v>0.0547</v>
       </c>
       <c r="D127">
-        <v>0.1039</v>
+        <v>0.1027</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2913,13 +2913,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.1545</v>
+        <v>0.1532</v>
       </c>
       <c r="C128">
-        <v>0.0549</v>
+        <v>0.0548</v>
       </c>
       <c r="D128">
-        <v>0.0997</v>
+        <v>0.0985</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2927,13 +2927,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.1508</v>
+        <v>0.1496</v>
       </c>
       <c r="C129">
         <v>0.0551</v>
       </c>
       <c r="D129">
-        <v>0.09569999999999999</v>
+        <v>0.0945</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2941,13 +2941,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.1475</v>
+        <v>0.1462</v>
       </c>
       <c r="C130">
-        <v>0.0554</v>
+        <v>0.0553</v>
       </c>
       <c r="D130">
-        <v>0.0921</v>
+        <v>0.09089999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2955,13 +2955,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.1448</v>
+        <v>0.1435</v>
       </c>
       <c r="C131">
-        <v>0.0556</v>
+        <v>0.0555</v>
       </c>
       <c r="D131">
-        <v>0.0892</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2969,13 +2969,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.1427</v>
+        <v>0.1413</v>
       </c>
       <c r="C132">
-        <v>0.0558</v>
+        <v>0.0557</v>
       </c>
       <c r="D132">
-        <v>0.08690000000000001</v>
+        <v>0.0856</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2983,13 +2983,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.1411</v>
+        <v>0.1397</v>
       </c>
       <c r="C133">
-        <v>0.0562</v>
+        <v>0.0561</v>
       </c>
       <c r="D133">
-        <v>0.0849</v>
+        <v>0.08359999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2997,13 +2997,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.1394</v>
+        <v>0.138</v>
       </c>
       <c r="C134">
-        <v>0.0563</v>
+        <v>0.0561</v>
       </c>
       <c r="D134">
-        <v>0.0832</v>
+        <v>0.0819</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3011,13 +3011,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.1382</v>
+        <v>0.1368</v>
       </c>
       <c r="C135">
-        <v>0.0564</v>
+        <v>0.0563</v>
       </c>
       <c r="D135">
-        <v>0.08169999999999999</v>
+        <v>0.0804</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3025,13 +3025,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.1378</v>
+        <v>0.1364</v>
       </c>
       <c r="C136">
-        <v>0.0565</v>
+        <v>0.0564</v>
       </c>
       <c r="D136">
-        <v>0.0813</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3039,13 +3039,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.1379</v>
+        <v>0.1364</v>
       </c>
       <c r="C137">
-        <v>0.0562</v>
+        <v>0.056</v>
       </c>
       <c r="D137">
-        <v>0.08169999999999999</v>
+        <v>0.0804</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3053,13 +3053,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.1389</v>
+        <v>0.1374</v>
       </c>
       <c r="C138">
-        <v>0.0564</v>
+        <v>0.0562</v>
       </c>
       <c r="D138">
-        <v>0.0825</v>
+        <v>0.08110000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3067,13 +3067,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.1403</v>
+        <v>0.1388</v>
       </c>
       <c r="C139">
-        <v>0.0567</v>
+        <v>0.0565</v>
       </c>
       <c r="D139">
-        <v>0.0837</v>
+        <v>0.0823</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3081,13 +3081,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.1426</v>
+        <v>0.1411</v>
       </c>
       <c r="C140">
-        <v>0.0571</v>
+        <v>0.057</v>
       </c>
       <c r="D140">
-        <v>0.08550000000000001</v>
+        <v>0.08409999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3095,13 +3095,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.1452</v>
+        <v>0.1437</v>
       </c>
       <c r="C141">
-        <v>0.0577</v>
+        <v>0.0575</v>
       </c>
       <c r="D141">
-        <v>0.08749999999999999</v>
+        <v>0.0861</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3109,13 +3109,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.1471</v>
+        <v>0.1456</v>
       </c>
       <c r="C142">
-        <v>0.0577</v>
+        <v>0.0576</v>
       </c>
       <c r="D142">
-        <v>0.08939999999999999</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3123,13 +3123,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.1493</v>
+        <v>0.1478</v>
       </c>
       <c r="C143">
-        <v>0.0579</v>
+        <v>0.0578</v>
       </c>
       <c r="D143">
-        <v>0.0914</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3137,13 +3137,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.1515</v>
+        <v>0.15</v>
       </c>
       <c r="C144">
-        <v>0.058</v>
+        <v>0.0579</v>
       </c>
       <c r="D144">
-        <v>0.0935</v>
+        <v>0.0921</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3151,13 +3151,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.1545</v>
+        <v>0.153</v>
       </c>
       <c r="C145">
-        <v>0.0586</v>
+        <v>0.0585</v>
       </c>
       <c r="D145">
-        <v>0.0958</v>
+        <v>0.0945</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3165,13 +3165,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.1582</v>
+        <v>0.1567</v>
       </c>
       <c r="C146">
-        <v>0.0597</v>
+        <v>0.0596</v>
       </c>
       <c r="D146">
-        <v>0.0984</v>
+        <v>0.09710000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3179,13 +3179,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.1623</v>
+        <v>0.1609</v>
       </c>
       <c r="C147">
-        <v>0.0612</v>
+        <v>0.0611</v>
       </c>
       <c r="D147">
-        <v>0.1011</v>
+        <v>0.0998</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3193,13 +3193,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.1664</v>
+        <v>0.1649</v>
       </c>
       <c r="C148">
-        <v>0.06270000000000001</v>
+        <v>0.0626</v>
       </c>
       <c r="D148">
-        <v>0.1037</v>
+        <v>0.1023</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3207,13 +3207,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.17</v>
+        <v>0.1686</v>
       </c>
       <c r="C149">
-        <v>0.0639</v>
+        <v>0.0638</v>
       </c>
       <c r="D149">
-        <v>0.1061</v>
+        <v>0.1048</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3221,13 +3221,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.1735</v>
+        <v>0.1721</v>
       </c>
       <c r="C150">
-        <v>0.06519999999999999</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="D150">
-        <v>0.1083</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3235,13 +3235,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.1769</v>
+        <v>0.1756</v>
       </c>
       <c r="C151">
-        <v>0.0668</v>
+        <v>0.0667</v>
       </c>
       <c r="D151">
-        <v>0.1102</v>
+        <v>0.1089</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3249,13 +3249,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.1796</v>
+        <v>0.1782</v>
       </c>
       <c r="C152">
-        <v>0.06809999999999999</v>
+        <v>0.068</v>
       </c>
       <c r="D152">
-        <v>0.1115</v>
+        <v>0.1102</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3263,13 +3263,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.1817</v>
+        <v>0.1804</v>
       </c>
       <c r="C153">
-        <v>0.0692</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="D153">
-        <v>0.1125</v>
+        <v>0.1113</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3277,13 +3277,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.184</v>
+        <v>0.1827</v>
       </c>
       <c r="C154">
-        <v>0.07049999999999999</v>
+        <v>0.0704</v>
       </c>
       <c r="D154">
-        <v>0.1136</v>
+        <v>0.1123</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3291,13 +3291,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.1857</v>
+        <v>0.1843</v>
       </c>
       <c r="C155">
-        <v>0.0713</v>
+        <v>0.0712</v>
       </c>
       <c r="D155">
-        <v>0.1144</v>
+        <v>0.1132</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3305,13 +3305,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.186</v>
+        <v>0.1846</v>
       </c>
       <c r="C156">
-        <v>0.0716</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="D156">
-        <v>0.1144</v>
+        <v>0.1132</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3319,13 +3319,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.1856</v>
+        <v>0.1843</v>
       </c>
       <c r="C157">
-        <v>0.07199999999999999</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="D157">
-        <v>0.1136</v>
+        <v>0.1123</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3333,13 +3333,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.1842</v>
+        <v>0.1829</v>
       </c>
       <c r="C158">
-        <v>0.07190000000000001</v>
+        <v>0.0718</v>
       </c>
       <c r="D158">
-        <v>0.1124</v>
+        <v>0.1111</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3347,13 +3347,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.183</v>
+        <v>0.1817</v>
       </c>
       <c r="C159">
-        <v>0.07199999999999999</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="D159">
-        <v>0.1111</v>
+        <v>0.1098</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3361,13 +3361,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.1808</v>
+        <v>0.1795</v>
       </c>
       <c r="C160">
         <v>0.0716</v>
       </c>
       <c r="D160">
-        <v>0.1092</v>
+        <v>0.1079</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3375,13 +3375,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.1784</v>
+        <v>0.177</v>
       </c>
       <c r="C161">
         <v>0.0712</v>
       </c>
       <c r="D161">
-        <v>0.1071</v>
+        <v>0.1058</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3389,13 +3389,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.176</v>
+        <v>0.1747</v>
       </c>
       <c r="C162">
-        <v>0.0711</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D162">
-        <v>0.105</v>
+        <v>0.1037</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3403,13 +3403,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.1741</v>
+        <v>0.1727</v>
       </c>
       <c r="C163">
-        <v>0.07140000000000001</v>
+        <v>0.0713</v>
       </c>
       <c r="D163">
-        <v>0.1027</v>
+        <v>0.1014</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3417,13 +3417,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.172</v>
+        <v>0.1706</v>
       </c>
       <c r="C164">
-        <v>0.0718</v>
+        <v>0.0716</v>
       </c>
       <c r="D164">
-        <v>0.1003</v>
+        <v>0.0989</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3431,13 +3431,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.1709</v>
+        <v>0.1694</v>
       </c>
       <c r="C165">
-        <v>0.0728</v>
+        <v>0.0727</v>
       </c>
       <c r="D165">
-        <v>0.09810000000000001</v>
+        <v>0.09669999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3445,13 +3445,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.1705</v>
+        <v>0.169</v>
       </c>
       <c r="C166">
-        <v>0.0746</v>
+        <v>0.0745</v>
       </c>
       <c r="D166">
-        <v>0.0959</v>
+        <v>0.0945</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3459,13 +3459,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.1691</v>
+        <v>0.1675</v>
       </c>
       <c r="C167">
-        <v>0.0755</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="D167">
-        <v>0.0935</v>
+        <v>0.0921</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3473,13 +3473,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.1666</v>
+        <v>0.165</v>
       </c>
       <c r="C168">
-        <v>0.07530000000000001</v>
+        <v>0.0752</v>
       </c>
       <c r="D168">
-        <v>0.09130000000000001</v>
+        <v>0.0898</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3487,13 +3487,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.1639</v>
+        <v>0.1622</v>
       </c>
       <c r="C169">
-        <v>0.07489999999999999</v>
+        <v>0.0747</v>
       </c>
       <c r="D169">
-        <v>0.0891</v>
+        <v>0.0876</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3501,13 +3501,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.1623</v>
+        <v>0.1605</v>
       </c>
       <c r="C170">
-        <v>0.0751</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="D170">
-        <v>0.0872</v>
+        <v>0.0856</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3515,13 +3515,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.1611</v>
+        <v>0.1593</v>
       </c>
       <c r="C171">
-        <v>0.0756</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="D171">
-        <v>0.08550000000000001</v>
+        <v>0.0839</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3529,13 +3529,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.1594</v>
+        <v>0.1576</v>
       </c>
       <c r="C172">
-        <v>0.0757</v>
+        <v>0.0756</v>
       </c>
       <c r="D172">
-        <v>0.08359999999999999</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3543,13 +3543,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.158</v>
+        <v>0.1562</v>
       </c>
       <c r="C173">
-        <v>0.0759</v>
+        <v>0.0757</v>
       </c>
       <c r="D173">
-        <v>0.08210000000000001</v>
+        <v>0.0805</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3557,13 +3557,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.157</v>
+        <v>0.1551</v>
       </c>
       <c r="C174">
-        <v>0.07630000000000001</v>
+        <v>0.0761</v>
       </c>
       <c r="D174">
-        <v>0.08069999999999999</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3571,13 +3571,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.1567</v>
+        <v>0.1548</v>
       </c>
       <c r="C175">
-        <v>0.0771</v>
+        <v>0.0769</v>
       </c>
       <c r="D175">
-        <v>0.07969999999999999</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3585,13 +3585,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.1581</v>
+        <v>0.1562</v>
       </c>
       <c r="C176">
-        <v>0.0789</v>
+        <v>0.0786</v>
       </c>
       <c r="D176">
-        <v>0.0793</v>
+        <v>0.0775</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3599,13 +3599,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.1597</v>
+        <v>0.1578</v>
       </c>
       <c r="C177">
-        <v>0.0805</v>
+        <v>0.0803</v>
       </c>
       <c r="D177">
-        <v>0.07920000000000001</v>
+        <v>0.0775</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3613,13 +3613,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.1624</v>
+        <v>0.1604</v>
       </c>
       <c r="C178">
-        <v>0.08260000000000001</v>
+        <v>0.0824</v>
       </c>
       <c r="D178">
-        <v>0.0798</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3627,13 +3627,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.1648</v>
+        <v>0.1629</v>
       </c>
       <c r="C179">
-        <v>0.0842</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="D179">
-        <v>0.0806</v>
+        <v>0.0789</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3641,13 +3641,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.1683</v>
+        <v>0.1663</v>
       </c>
       <c r="C180">
-        <v>0.0864</v>
+        <v>0.0862</v>
       </c>
       <c r="D180">
-        <v>0.0819</v>
+        <v>0.0801</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3655,13 +3655,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.1714</v>
+        <v>0.1694</v>
       </c>
       <c r="C181">
-        <v>0.08799999999999999</v>
+        <v>0.0878</v>
       </c>
       <c r="D181">
-        <v>0.0834</v>
+        <v>0.08160000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3669,13 +3669,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.1749</v>
+        <v>0.1728</v>
       </c>
       <c r="C182">
-        <v>0.0898</v>
+        <v>0.0896</v>
       </c>
       <c r="D182">
-        <v>0.0851</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3683,13 +3683,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.1781</v>
+        <v>0.176</v>
       </c>
       <c r="C183">
-        <v>0.091</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="D183">
-        <v>0.08699999999999999</v>
+        <v>0.0852</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3697,13 +3697,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.1818</v>
+        <v>0.1798</v>
       </c>
       <c r="C184">
-        <v>0.0922</v>
+        <v>0.092</v>
       </c>
       <c r="D184">
-        <v>0.0896</v>
+        <v>0.0878</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3711,13 +3711,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.1847</v>
+        <v>0.1827</v>
       </c>
       <c r="C185">
-        <v>0.0926</v>
+        <v>0.0924</v>
       </c>
       <c r="D185">
-        <v>0.0921</v>
+        <v>0.09030000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3725,13 +3725,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.1864</v>
+        <v>0.1844</v>
       </c>
       <c r="C186">
-        <v>0.0917</v>
+        <v>0.0915</v>
       </c>
       <c r="D186">
-        <v>0.0946</v>
+        <v>0.09279999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3739,13 +3739,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.1889</v>
+        <v>0.1869</v>
       </c>
       <c r="C187">
-        <v>0.0914</v>
+        <v>0.0912</v>
       </c>
       <c r="D187">
-        <v>0.0975</v>
+        <v>0.09569999999999999</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3753,13 +3753,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.1929</v>
+        <v>0.1909</v>
       </c>
       <c r="C188">
-        <v>0.0922</v>
+        <v>0.092</v>
       </c>
       <c r="D188">
-        <v>0.1007</v>
+        <v>0.0989</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3767,13 +3767,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.1973</v>
+        <v>0.1953</v>
       </c>
       <c r="C189">
-        <v>0.093</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="D189">
-        <v>0.1043</v>
+        <v>0.1025</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3781,13 +3781,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.201</v>
+        <v>0.199</v>
       </c>
       <c r="C190">
-        <v>0.0931</v>
+        <v>0.0929</v>
       </c>
       <c r="D190">
-        <v>0.1079</v>
+        <v>0.1061</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3795,13 +3795,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.2045</v>
+        <v>0.2025</v>
       </c>
       <c r="C191">
-        <v>0.0929</v>
+        <v>0.0927</v>
       </c>
       <c r="D191">
-        <v>0.1116</v>
+        <v>0.1097</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3809,13 +3809,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.2084</v>
+        <v>0.2064</v>
       </c>
       <c r="C192">
-        <v>0.093</v>
+        <v>0.0929</v>
       </c>
       <c r="D192">
-        <v>0.1153</v>
+        <v>0.1135</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3823,13 +3823,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.212</v>
+        <v>0.21</v>
       </c>
       <c r="C193">
-        <v>0.093</v>
+        <v>0.0929</v>
       </c>
       <c r="D193">
-        <v>0.1189</v>
+        <v>0.1171</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3837,13 +3837,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.2162</v>
+        <v>0.2142</v>
       </c>
       <c r="C194">
-        <v>0.09370000000000001</v>
+        <v>0.0936</v>
       </c>
       <c r="D194">
-        <v>0.1225</v>
+        <v>0.1206</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3851,13 +3851,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.2206</v>
+        <v>0.2185</v>
       </c>
       <c r="C195">
-        <v>0.09420000000000001</v>
+        <v>0.0941</v>
       </c>
       <c r="D195">
-        <v>0.1263</v>
+        <v>0.1245</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3865,13 +3865,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.224</v>
+        <v>0.2219</v>
       </c>
       <c r="C196">
-        <v>0.09420000000000001</v>
+        <v>0.0941</v>
       </c>
       <c r="D196">
-        <v>0.1298</v>
+        <v>0.1279</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3879,13 +3879,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.2271</v>
+        <v>0.2251</v>
       </c>
       <c r="C197">
-        <v>0.094</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="D197">
-        <v>0.1331</v>
+        <v>0.1312</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3893,13 +3893,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.2297</v>
+        <v>0.2276</v>
       </c>
       <c r="C198">
-        <v>0.09370000000000001</v>
+        <v>0.0936</v>
       </c>
       <c r="D198">
-        <v>0.136</v>
+        <v>0.1341</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3907,13 +3907,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.2322</v>
+        <v>0.2302</v>
       </c>
       <c r="C199">
-        <v>0.09370000000000001</v>
+        <v>0.0936</v>
       </c>
       <c r="D199">
-        <v>0.1385</v>
+        <v>0.1366</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3921,13 +3921,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.2339</v>
+        <v>0.2319</v>
       </c>
       <c r="C200">
-        <v>0.09320000000000001</v>
+        <v>0.0931</v>
       </c>
       <c r="D200">
-        <v>0.1407</v>
+        <v>0.1388</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3935,13 +3935,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.2358</v>
+        <v>0.2338</v>
       </c>
       <c r="C201">
-        <v>0.09329999999999999</v>
+        <v>0.0931</v>
       </c>
       <c r="D201">
-        <v>0.1426</v>
+        <v>0.1407</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3949,13 +3949,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.237</v>
+        <v>0.235</v>
       </c>
       <c r="C202">
-        <v>0.0929</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="D202">
-        <v>0.1441</v>
+        <v>0.1422</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3963,13 +3963,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.2378</v>
+        <v>0.2359</v>
       </c>
       <c r="C203">
-        <v>0.09229999999999999</v>
+        <v>0.0921</v>
       </c>
       <c r="D203">
-        <v>0.1456</v>
+        <v>0.1437</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3977,13 +3977,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.2378</v>
+        <v>0.2358</v>
       </c>
       <c r="C204">
-        <v>0.0914</v>
+        <v>0.0912</v>
       </c>
       <c r="D204">
-        <v>0.1464</v>
+        <v>0.1446</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3991,13 +3991,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.2373</v>
+        <v>0.2354</v>
       </c>
       <c r="C205">
-        <v>0.09039999999999999</v>
+        <v>0.0902</v>
       </c>
       <c r="D205">
-        <v>0.147</v>
+        <v>0.1451</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4005,13 +4005,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.2374</v>
+        <v>0.2354</v>
       </c>
       <c r="C206">
-        <v>0.0896</v>
+        <v>0.0895</v>
       </c>
       <c r="D206">
-        <v>0.1478</v>
+        <v>0.1459</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4019,13 +4019,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.2375</v>
+        <v>0.2356</v>
       </c>
       <c r="C207">
-        <v>0.0891</v>
+        <v>0.089</v>
       </c>
       <c r="D207">
-        <v>0.1484</v>
+        <v>0.1466</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4033,13 +4033,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.2375</v>
+        <v>0.2356</v>
       </c>
       <c r="C208">
-        <v>0.0888</v>
+        <v>0.0887</v>
       </c>
       <c r="D208">
-        <v>0.1487</v>
+        <v>0.1469</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4047,13 +4047,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.2371</v>
+        <v>0.2352</v>
       </c>
       <c r="C209">
-        <v>0.0888</v>
+        <v>0.0886</v>
       </c>
       <c r="D209">
-        <v>0.1484</v>
+        <v>0.1466</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4061,13 +4061,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.2373</v>
+        <v>0.2354</v>
       </c>
       <c r="C210">
-        <v>0.08939999999999999</v>
+        <v>0.0893</v>
       </c>
       <c r="D210">
-        <v>0.1479</v>
+        <v>0.1461</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4075,13 +4075,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.2366</v>
+        <v>0.2347</v>
       </c>
       <c r="C211">
-        <v>0.0895</v>
+        <v>0.08939999999999999</v>
       </c>
       <c r="D211">
-        <v>0.1471</v>
+        <v>0.1453</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4089,13 +4089,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.236</v>
+        <v>0.2342</v>
       </c>
       <c r="C212">
-        <v>0.08989999999999999</v>
+        <v>0.0897</v>
       </c>
       <c r="D212">
-        <v>0.1461</v>
+        <v>0.1444</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4103,13 +4103,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.2352</v>
+        <v>0.2334</v>
       </c>
       <c r="C213">
-        <v>0.09</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="D213">
-        <v>0.1452</v>
+        <v>0.1435</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4117,13 +4117,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.2334</v>
+        <v>0.2316</v>
       </c>
       <c r="C214">
-        <v>0.0892</v>
+        <v>0.089</v>
       </c>
       <c r="D214">
-        <v>0.1442</v>
+        <v>0.1425</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4131,13 +4131,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.2306</v>
+        <v>0.2288</v>
       </c>
       <c r="C215">
-        <v>0.08790000000000001</v>
+        <v>0.0878</v>
       </c>
       <c r="D215">
-        <v>0.1427</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4145,13 +4145,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.2277</v>
+        <v>0.226</v>
       </c>
       <c r="C216">
-        <v>0.08649999999999999</v>
+        <v>0.0864</v>
       </c>
       <c r="D216">
-        <v>0.1412</v>
+        <v>0.1396</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4159,13 +4159,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.2245</v>
+        <v>0.2227</v>
       </c>
       <c r="C217">
-        <v>0.08500000000000001</v>
+        <v>0.0849</v>
       </c>
       <c r="D217">
-        <v>0.1395</v>
+        <v>0.1379</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4173,13 +4173,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.2217</v>
+        <v>0.22</v>
       </c>
       <c r="C218">
-        <v>0.0839</v>
+        <v>0.0837</v>
       </c>
       <c r="D218">
-        <v>0.1378</v>
+        <v>0.1362</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4187,13 +4187,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.2186</v>
+        <v>0.2169</v>
       </c>
       <c r="C219">
-        <v>0.0824</v>
+        <v>0.0823</v>
       </c>
       <c r="D219">
-        <v>0.1362</v>
+        <v>0.1346</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4201,13 +4201,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.2163</v>
+        <v>0.2146</v>
       </c>
       <c r="C220">
-        <v>0.0814</v>
+        <v>0.0813</v>
       </c>
       <c r="D220">
-        <v>0.1349</v>
+        <v>0.1333</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4215,13 +4215,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.2144</v>
+        <v>0.2127</v>
       </c>
       <c r="C221">
-        <v>0.0805</v>
+        <v>0.0804</v>
       </c>
       <c r="D221">
-        <v>0.1338</v>
+        <v>0.1323</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4229,13 +4229,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.2146</v>
+        <v>0.2129</v>
       </c>
       <c r="C222">
-        <v>0.08119999999999999</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="D222">
-        <v>0.1333</v>
+        <v>0.1318</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4243,13 +4243,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.2149</v>
+        <v>0.2132</v>
       </c>
       <c r="C223">
-        <v>0.0818</v>
+        <v>0.08169999999999999</v>
       </c>
       <c r="D223">
-        <v>0.1331</v>
+        <v>0.1315</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4257,13 +4257,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.2173</v>
+        <v>0.2156</v>
       </c>
       <c r="C224">
-        <v>0.08309999999999999</v>
+        <v>0.083</v>
       </c>
       <c r="D224">
-        <v>0.1342</v>
+        <v>0.1326</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4271,13 +4271,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.2204</v>
+        <v>0.2186</v>
       </c>
       <c r="C225">
-        <v>0.08459999999999999</v>
+        <v>0.0844</v>
       </c>
       <c r="D225">
-        <v>0.1358</v>
+        <v>0.1342</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4285,13 +4285,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.2227</v>
+        <v>0.221</v>
       </c>
       <c r="C226">
-        <v>0.0859</v>
+        <v>0.0858</v>
       </c>
       <c r="D226">
-        <v>0.1369</v>
+        <v>0.1352</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4299,13 +4299,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.2247</v>
+        <v>0.223</v>
       </c>
       <c r="C227">
-        <v>0.08690000000000001</v>
+        <v>0.0868</v>
       </c>
       <c r="D227">
-        <v>0.1378</v>
+        <v>0.1361</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4313,13 +4313,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.2263</v>
+        <v>0.2245</v>
       </c>
       <c r="C228">
-        <v>0.08740000000000001</v>
+        <v>0.0873</v>
       </c>
       <c r="D228">
-        <v>0.1388</v>
+        <v>0.1372</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4327,13 +4327,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.2276</v>
+        <v>0.2258</v>
       </c>
       <c r="C229">
-        <v>0.0878</v>
+        <v>0.0877</v>
       </c>
       <c r="D229">
-        <v>0.1398</v>
+        <v>0.1382</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4341,13 +4341,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.228</v>
+        <v>0.2263</v>
       </c>
       <c r="C230">
-        <v>0.08740000000000001</v>
+        <v>0.0873</v>
       </c>
       <c r="D230">
-        <v>0.1406</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4355,13 +4355,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.2285</v>
+        <v>0.2268</v>
       </c>
       <c r="C231">
-        <v>0.0871</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="D231">
-        <v>0.1415</v>
+        <v>0.1399</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4369,13 +4369,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.2294</v>
+        <v>0.2277</v>
       </c>
       <c r="C232">
-        <v>0.0871</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="D232">
-        <v>0.1423</v>
+        <v>0.1407</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4383,13 +4383,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.2306</v>
+        <v>0.2289</v>
       </c>
       <c r="C233">
-        <v>0.0876</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="D233">
-        <v>0.143</v>
+        <v>0.1414</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4397,13 +4397,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.2315</v>
+        <v>0.2298</v>
       </c>
       <c r="C234">
-        <v>0.0883</v>
+        <v>0.0882</v>
       </c>
       <c r="D234">
-        <v>0.1432</v>
+        <v>0.1417</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4411,13 +4411,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.2329</v>
+        <v>0.2313</v>
       </c>
       <c r="C235">
-        <v>0.0893</v>
+        <v>0.0892</v>
       </c>
       <c r="D235">
-        <v>0.1436</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4425,13 +4425,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.2338</v>
+        <v>0.2322</v>
       </c>
       <c r="C236">
-        <v>0.0902</v>
+        <v>0.0901</v>
       </c>
       <c r="D236">
-        <v>0.1436</v>
+        <v>0.1421</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4439,13 +4439,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.2351</v>
+        <v>0.2335</v>
       </c>
       <c r="C237">
-        <v>0.0914</v>
+        <v>0.09130000000000001</v>
       </c>
       <c r="D237">
-        <v>0.1437</v>
+        <v>0.1422</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4453,13 +4453,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.2368</v>
+        <v>0.2352</v>
       </c>
       <c r="C238">
-        <v>0.093</v>
+        <v>0.0929</v>
       </c>
       <c r="D238">
-        <v>0.1437</v>
+        <v>0.1423</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4467,13 +4467,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.2385</v>
+        <v>0.2369</v>
       </c>
       <c r="C239">
-        <v>0.09470000000000001</v>
+        <v>0.0946</v>
       </c>
       <c r="D239">
-        <v>0.1437</v>
+        <v>0.1423</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4481,13 +4481,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.2394</v>
+        <v>0.2378</v>
       </c>
       <c r="C240">
-        <v>0.09569999999999999</v>
+        <v>0.0956</v>
       </c>
       <c r="D240">
-        <v>0.1437</v>
+        <v>0.1422</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4495,13 +4495,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.2417</v>
+        <v>0.2402</v>
       </c>
       <c r="C241">
-        <v>0.09810000000000001</v>
+        <v>0.098</v>
       </c>
       <c r="D241">
-        <v>0.1436</v>
+        <v>0.1422</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4509,13 +4509,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.2416</v>
+        <v>0.2401</v>
       </c>
       <c r="C242">
-        <v>0.09859999999999999</v>
+        <v>0.0985</v>
       </c>
       <c r="D242">
-        <v>0.143</v>
+        <v>0.1416</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4523,13 +4523,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.2408</v>
+        <v>0.2394</v>
       </c>
       <c r="C243">
-        <v>0.099</v>
+        <v>0.0989</v>
       </c>
       <c r="D243">
-        <v>0.1418</v>
+        <v>0.1405</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4537,13 +4537,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.238</v>
+        <v>0.2366</v>
       </c>
       <c r="C244">
-        <v>0.0987</v>
+        <v>0.09859999999999999</v>
       </c>
       <c r="D244">
-        <v>0.1393</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4551,13 +4551,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.2342</v>
+        <v>0.2328</v>
       </c>
       <c r="C245">
-        <v>0.098</v>
+        <v>0.0978</v>
       </c>
       <c r="D245">
-        <v>0.1362</v>
+        <v>0.1349</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4565,13 +4565,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.2302</v>
+        <v>0.2288</v>
       </c>
       <c r="C246">
-        <v>0.09710000000000001</v>
+        <v>0.097</v>
       </c>
       <c r="D246">
-        <v>0.1331</v>
+        <v>0.1318</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4579,13 +4579,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.2258</v>
+        <v>0.2244</v>
       </c>
       <c r="C247">
-        <v>0.0961</v>
+        <v>0.0959</v>
       </c>
       <c r="D247">
-        <v>0.1298</v>
+        <v>0.1285</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4593,13 +4593,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.2219</v>
+        <v>0.2205</v>
       </c>
       <c r="C248">
-        <v>0.0956</v>
+        <v>0.0954</v>
       </c>
       <c r="D248">
-        <v>0.1264</v>
+        <v>0.1251</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2017 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2017 - Diaria.xlsx
@@ -1149,13 +1149,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3347</v>
+        <v>0.3348</v>
       </c>
       <c r="C2">
         <v>0.0751</v>
       </c>
       <c r="D2">
-        <v>0.2596</v>
+        <v>0.2597</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1163,13 +1163,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3311</v>
+        <v>0.3313</v>
       </c>
       <c r="C3">
         <v>0.0751</v>
       </c>
       <c r="D3">
-        <v>0.256</v>
+        <v>0.2561</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1177,13 +1177,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3277</v>
+        <v>0.3279</v>
       </c>
       <c r="C4">
         <v>0.0752</v>
       </c>
       <c r="D4">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1191,13 +1191,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3246</v>
+        <v>0.3247</v>
       </c>
       <c r="C5">
         <v>0.0755</v>
       </c>
       <c r="D5">
-        <v>0.2491</v>
+        <v>0.2493</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1205,13 +1205,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.322</v>
+        <v>0.3221</v>
       </c>
       <c r="C6">
         <v>0.07580000000000001</v>
       </c>
       <c r="D6">
-        <v>0.2462</v>
+        <v>0.2463</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1219,13 +1219,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3191</v>
+        <v>0.3193</v>
       </c>
       <c r="C7">
-        <v>0.07580000000000001</v>
+        <v>0.0759</v>
       </c>
       <c r="D7">
-        <v>0.2433</v>
+        <v>0.2434</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1233,13 +1233,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3161</v>
+        <v>0.3163</v>
       </c>
       <c r="C8">
-        <v>0.0757</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="D8">
-        <v>0.2404</v>
+        <v>0.2406</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1247,13 +1247,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3131</v>
+        <v>0.3133</v>
       </c>
       <c r="C9">
         <v>0.0756</v>
       </c>
       <c r="D9">
-        <v>0.2375</v>
+        <v>0.2377</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1261,13 +1261,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3102</v>
+        <v>0.3104</v>
       </c>
       <c r="C10">
-        <v>0.0759</v>
+        <v>0.076</v>
       </c>
       <c r="D10">
-        <v>0.2343</v>
+        <v>0.2344</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1275,13 +1275,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3059</v>
+        <v>0.3061</v>
       </c>
       <c r="C11">
         <v>0.0755</v>
       </c>
       <c r="D11">
-        <v>0.2305</v>
+        <v>0.2306</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1289,13 +1289,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3019</v>
+        <v>0.3021</v>
       </c>
       <c r="C12">
-        <v>0.0751</v>
+        <v>0.0752</v>
       </c>
       <c r="D12">
-        <v>0.2267</v>
+        <v>0.2269</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1303,13 +1303,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.2976</v>
+        <v>0.2978</v>
       </c>
       <c r="C13">
         <v>0.0745</v>
       </c>
       <c r="D13">
-        <v>0.2231</v>
+        <v>0.2233</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1317,13 +1317,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.2935</v>
+        <v>0.2938</v>
       </c>
       <c r="C14">
         <v>0.0741</v>
       </c>
       <c r="D14">
-        <v>0.2195</v>
+        <v>0.2197</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1331,13 +1331,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.2889</v>
+        <v>0.2891</v>
       </c>
       <c r="C15">
-        <v>0.0728</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="D15">
-        <v>0.2161</v>
+        <v>0.2163</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1345,13 +1345,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.2846</v>
+        <v>0.2849</v>
       </c>
       <c r="C16">
         <v>0.0717</v>
       </c>
       <c r="D16">
-        <v>0.2129</v>
+        <v>0.2131</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1359,13 +1359,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.2809</v>
+        <v>0.2811</v>
       </c>
       <c r="C17">
         <v>0.0709</v>
       </c>
       <c r="D17">
-        <v>0.21</v>
+        <v>0.2102</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1373,13 +1373,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.2769</v>
+        <v>0.2771</v>
       </c>
       <c r="C18">
-        <v>0.0698</v>
+        <v>0.0699</v>
       </c>
       <c r="D18">
-        <v>0.207</v>
+        <v>0.2072</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1387,13 +1387,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.273</v>
+        <v>0.2733</v>
       </c>
       <c r="C19">
         <v>0.0689</v>
       </c>
       <c r="D19">
-        <v>0.2041</v>
+        <v>0.2043</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1401,13 +1401,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.2702</v>
+        <v>0.2704</v>
       </c>
       <c r="C20">
         <v>0.06850000000000001</v>
       </c>
       <c r="D20">
-        <v>0.2017</v>
+        <v>0.2019</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1415,13 +1415,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.2669</v>
+        <v>0.2672</v>
       </c>
       <c r="C21">
         <v>0.0673</v>
       </c>
       <c r="D21">
-        <v>0.1996</v>
+        <v>0.1998</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1429,13 +1429,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.2639</v>
+        <v>0.2643</v>
       </c>
       <c r="C22">
         <v>0.066</v>
       </c>
       <c r="D22">
-        <v>0.198</v>
+        <v>0.1982</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1443,13 +1443,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.2609</v>
+        <v>0.2613</v>
       </c>
       <c r="C23">
-        <v>0.06469999999999999</v>
+        <v>0.0648</v>
       </c>
       <c r="D23">
-        <v>0.1962</v>
+        <v>0.1965</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1457,13 +1457,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.2575</v>
+        <v>0.2578</v>
       </c>
       <c r="C24">
-        <v>0.06320000000000001</v>
+        <v>0.0633</v>
       </c>
       <c r="D24">
-        <v>0.1942</v>
+        <v>0.1945</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1471,13 +1471,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.2544</v>
+        <v>0.2547</v>
       </c>
       <c r="C25">
-        <v>0.0619</v>
+        <v>0.062</v>
       </c>
       <c r="D25">
-        <v>0.1924</v>
+        <v>0.1928</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1485,13 +1485,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.2512</v>
+        <v>0.2516</v>
       </c>
       <c r="C26">
-        <v>0.0606</v>
+        <v>0.0607</v>
       </c>
       <c r="D26">
-        <v>0.1906</v>
+        <v>0.1909</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1499,13 +1499,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.2491</v>
+        <v>0.2495</v>
       </c>
       <c r="C27">
-        <v>0.0599</v>
+        <v>0.06</v>
       </c>
       <c r="D27">
-        <v>0.1892</v>
+        <v>0.1895</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1513,13 +1513,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.2472</v>
+        <v>0.2476</v>
       </c>
       <c r="C28">
-        <v>0.0591</v>
+        <v>0.0592</v>
       </c>
       <c r="D28">
-        <v>0.1881</v>
+        <v>0.1884</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1527,13 +1527,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.2459</v>
+        <v>0.2463</v>
       </c>
       <c r="C29">
         <v>0.0585</v>
       </c>
       <c r="D29">
-        <v>0.1874</v>
+        <v>0.1878</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1541,13 +1541,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.2441</v>
+        <v>0.2445</v>
       </c>
       <c r="C30">
-        <v>0.0569</v>
+        <v>0.057</v>
       </c>
       <c r="D30">
-        <v>0.1871</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1555,13 +1555,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.2429</v>
+        <v>0.2434</v>
       </c>
       <c r="C31">
-        <v>0.0557</v>
+        <v>0.0558</v>
       </c>
       <c r="D31">
-        <v>0.1872</v>
+        <v>0.1876</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1569,13 +1569,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.2415</v>
+        <v>0.2419</v>
       </c>
       <c r="C32">
-        <v>0.054</v>
+        <v>0.0541</v>
       </c>
       <c r="D32">
-        <v>0.1875</v>
+        <v>0.1879</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1583,13 +1583,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.2409</v>
+        <v>0.2414</v>
       </c>
       <c r="C33">
-        <v>0.0529</v>
+        <v>0.053</v>
       </c>
       <c r="D33">
-        <v>0.188</v>
+        <v>0.1884</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1597,13 +1597,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.2409</v>
+        <v>0.2414</v>
       </c>
       <c r="C34">
-        <v>0.0517</v>
+        <v>0.0518</v>
       </c>
       <c r="D34">
-        <v>0.1892</v>
+        <v>0.1896</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1611,13 +1611,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.2413</v>
+        <v>0.2418</v>
       </c>
       <c r="C35">
-        <v>0.0509</v>
+        <v>0.051</v>
       </c>
       <c r="D35">
-        <v>0.1904</v>
+        <v>0.1908</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1625,13 +1625,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.2426</v>
+        <v>0.2431</v>
       </c>
       <c r="C36">
         <v>0.0508</v>
       </c>
       <c r="D36">
-        <v>0.1918</v>
+        <v>0.1923</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1639,13 +1639,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.2437</v>
+        <v>0.2442</v>
       </c>
       <c r="C37">
         <v>0.0504</v>
       </c>
       <c r="D37">
-        <v>0.1933</v>
+        <v>0.1938</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1653,13 +1653,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.245</v>
+        <v>0.2455</v>
       </c>
       <c r="C38">
         <v>0.05</v>
       </c>
       <c r="D38">
-        <v>0.195</v>
+        <v>0.1955</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1667,13 +1667,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.2466</v>
+        <v>0.2471</v>
       </c>
       <c r="C39">
         <v>0.0496</v>
       </c>
       <c r="D39">
-        <v>0.197</v>
+        <v>0.1975</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1681,13 +1681,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.248</v>
+        <v>0.2485</v>
       </c>
       <c r="C40">
         <v>0.0492</v>
       </c>
       <c r="D40">
-        <v>0.1988</v>
+        <v>0.1992</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1695,13 +1695,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.2496</v>
+        <v>0.2501</v>
       </c>
       <c r="C41">
         <v>0.0491</v>
       </c>
       <c r="D41">
-        <v>0.2005</v>
+        <v>0.2009</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1709,13 +1709,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.2515</v>
+        <v>0.252</v>
       </c>
       <c r="C42">
-        <v>0.0495</v>
+        <v>0.0496</v>
       </c>
       <c r="D42">
-        <v>0.202</v>
+        <v>0.2024</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1723,13 +1723,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.2534</v>
+        <v>0.2539</v>
       </c>
       <c r="C43">
         <v>0.0497</v>
       </c>
       <c r="D43">
-        <v>0.2037</v>
+        <v>0.2041</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1737,13 +1737,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.2555</v>
+        <v>0.256</v>
       </c>
       <c r="C44">
         <v>0.05</v>
       </c>
       <c r="D44">
-        <v>0.2056</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1751,13 +1751,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.2579</v>
+        <v>0.2583</v>
       </c>
       <c r="C45">
         <v>0.0503</v>
       </c>
       <c r="D45">
-        <v>0.2076</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1765,13 +1765,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.2602</v>
+        <v>0.2607</v>
       </c>
       <c r="C46">
-        <v>0.0505</v>
+        <v>0.0506</v>
       </c>
       <c r="D46">
-        <v>0.2097</v>
+        <v>0.2101</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1779,13 +1779,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.2624</v>
+        <v>0.2628</v>
       </c>
       <c r="C47">
-        <v>0.0506</v>
+        <v>0.0507</v>
       </c>
       <c r="D47">
-        <v>0.2118</v>
+        <v>0.2122</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1793,13 +1793,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.2645</v>
+        <v>0.2649</v>
       </c>
       <c r="C48">
-        <v>0.0506</v>
+        <v>0.0507</v>
       </c>
       <c r="D48">
-        <v>0.2139</v>
+        <v>0.2143</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1807,13 +1807,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.2671</v>
+        <v>0.2675</v>
       </c>
       <c r="C49">
         <v>0.0511</v>
       </c>
       <c r="D49">
-        <v>0.216</v>
+        <v>0.2163</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1821,13 +1821,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.2697</v>
+        <v>0.2701</v>
       </c>
       <c r="C50">
         <v>0.0516</v>
       </c>
       <c r="D50">
-        <v>0.2181</v>
+        <v>0.2185</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1835,13 +1835,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.2722</v>
+        <v>0.2726</v>
       </c>
       <c r="C51">
         <v>0.052</v>
       </c>
       <c r="D51">
-        <v>0.2202</v>
+        <v>0.2206</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1849,13 +1849,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.2752</v>
+        <v>0.2756</v>
       </c>
       <c r="C52">
         <v>0.0527</v>
       </c>
       <c r="D52">
-        <v>0.2225</v>
+        <v>0.2229</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1863,13 +1863,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.2781</v>
+        <v>0.2785</v>
       </c>
       <c r="C53">
-        <v>0.0532</v>
+        <v>0.0533</v>
       </c>
       <c r="D53">
-        <v>0.2248</v>
+        <v>0.2252</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1877,13 +1877,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.2812</v>
+        <v>0.2815</v>
       </c>
       <c r="C54">
         <v>0.0541</v>
       </c>
       <c r="D54">
-        <v>0.2271</v>
+        <v>0.2274</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1891,13 +1891,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.2861</v>
+        <v>0.2864</v>
       </c>
       <c r="C55">
         <v>0.0557</v>
       </c>
       <c r="D55">
-        <v>0.2304</v>
+        <v>0.2308</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1905,13 +1905,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.2904</v>
+        <v>0.2908</v>
       </c>
       <c r="C56">
         <v>0.0567</v>
       </c>
       <c r="D56">
-        <v>0.2337</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1919,13 +1919,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.2948</v>
+        <v>0.2952</v>
       </c>
       <c r="C57">
         <v>0.0578</v>
       </c>
       <c r="D57">
-        <v>0.237</v>
+        <v>0.2374</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1933,13 +1933,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.2993</v>
+        <v>0.2997</v>
       </c>
       <c r="C58">
         <v>0.059</v>
       </c>
       <c r="D58">
-        <v>0.2404</v>
+        <v>0.2407</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1947,13 +1947,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3037</v>
+        <v>0.3041</v>
       </c>
       <c r="C59">
-        <v>0.0601</v>
+        <v>0.0602</v>
       </c>
       <c r="D59">
-        <v>0.2436</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1961,13 +1961,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3082</v>
+        <v>0.3085</v>
       </c>
       <c r="C60">
         <v>0.0609</v>
       </c>
       <c r="D60">
-        <v>0.2473</v>
+        <v>0.2476</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1975,13 +1975,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.3124</v>
+        <v>0.3128</v>
       </c>
       <c r="C61">
         <v>0.0617</v>
       </c>
       <c r="D61">
-        <v>0.2507</v>
+        <v>0.2511</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1989,13 +1989,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.3161</v>
+        <v>0.3165</v>
       </c>
       <c r="C62">
         <v>0.0622</v>
       </c>
       <c r="D62">
-        <v>0.2539</v>
+        <v>0.2543</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2003,13 +2003,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3201</v>
+        <v>0.3205</v>
       </c>
       <c r="C63">
         <v>0.063</v>
       </c>
       <c r="D63">
-        <v>0.2571</v>
+        <v>0.2574</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2017,13 +2017,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.3238</v>
+        <v>0.3241</v>
       </c>
       <c r="C64">
         <v>0.06370000000000001</v>
       </c>
       <c r="D64">
-        <v>0.26</v>
+        <v>0.2604</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2031,13 +2031,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.3273</v>
+        <v>0.3276</v>
       </c>
       <c r="C65">
         <v>0.0644</v>
       </c>
       <c r="D65">
-        <v>0.2628</v>
+        <v>0.2632</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2045,13 +2045,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.3305</v>
+        <v>0.3309</v>
       </c>
       <c r="C66">
         <v>0.0648</v>
       </c>
       <c r="D66">
-        <v>0.2657</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2059,13 +2059,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.3337</v>
+        <v>0.3341</v>
       </c>
       <c r="C67">
         <v>0.06519999999999999</v>
       </c>
       <c r="D67">
-        <v>0.2685</v>
+        <v>0.2689</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2073,13 +2073,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.3369</v>
+        <v>0.3372</v>
       </c>
       <c r="C68">
         <v>0.0655</v>
       </c>
       <c r="D68">
-        <v>0.2713</v>
+        <v>0.2717</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2087,13 +2087,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.3391</v>
+        <v>0.3395</v>
       </c>
       <c r="C69">
         <v>0.0653</v>
       </c>
       <c r="D69">
-        <v>0.2738</v>
+        <v>0.2742</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2101,13 +2101,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.3414</v>
+        <v>0.3417</v>
       </c>
       <c r="C70">
         <v>0.06519999999999999</v>
       </c>
       <c r="D70">
-        <v>0.2762</v>
+        <v>0.2766</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2115,13 +2115,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.3438</v>
+        <v>0.3441</v>
       </c>
       <c r="C71">
         <v>0.065</v>
       </c>
       <c r="D71">
-        <v>0.2787</v>
+        <v>0.2791</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2129,13 +2129,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.3464</v>
+        <v>0.3468</v>
       </c>
       <c r="C72">
         <v>0.0654</v>
       </c>
       <c r="D72">
-        <v>0.2811</v>
+        <v>0.2814</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2143,13 +2143,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.3483</v>
+        <v>0.3487</v>
       </c>
       <c r="C73">
         <v>0.0654</v>
       </c>
       <c r="D73">
-        <v>0.2829</v>
+        <v>0.2833</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2157,13 +2157,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.3495</v>
+        <v>0.3499</v>
       </c>
       <c r="C74">
         <v>0.0653</v>
       </c>
       <c r="D74">
-        <v>0.2842</v>
+        <v>0.2846</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2171,13 +2171,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.3493</v>
+        <v>0.3497</v>
       </c>
       <c r="C75">
         <v>0.0653</v>
       </c>
       <c r="D75">
-        <v>0.2841</v>
+        <v>0.2844</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2185,13 +2185,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.3486</v>
+        <v>0.3489</v>
       </c>
       <c r="C76">
         <v>0.0648</v>
       </c>
       <c r="D76">
-        <v>0.2838</v>
+        <v>0.2841</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2199,13 +2199,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.3477</v>
+        <v>0.348</v>
       </c>
       <c r="C77">
         <v>0.0644</v>
       </c>
       <c r="D77">
-        <v>0.2833</v>
+        <v>0.2836</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2213,13 +2213,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.3459</v>
+        <v>0.3462</v>
       </c>
       <c r="C78">
         <v>0.06370000000000001</v>
       </c>
       <c r="D78">
-        <v>0.2823</v>
+        <v>0.2826</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2227,13 +2227,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.3441</v>
+        <v>0.3444</v>
       </c>
       <c r="C79">
         <v>0.06320000000000001</v>
       </c>
       <c r="D79">
-        <v>0.2809</v>
+        <v>0.2812</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2241,13 +2241,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.3416</v>
+        <v>0.3419</v>
       </c>
       <c r="C80">
         <v>0.06270000000000001</v>
       </c>
       <c r="D80">
-        <v>0.2789</v>
+        <v>0.2792</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2255,13 +2255,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.3389</v>
+        <v>0.3392</v>
       </c>
       <c r="C81">
         <v>0.0624</v>
       </c>
       <c r="D81">
-        <v>0.2764</v>
+        <v>0.2767</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2269,13 +2269,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.3357</v>
+        <v>0.336</v>
       </c>
       <c r="C82">
         <v>0.062</v>
       </c>
       <c r="D82">
-        <v>0.2737</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2283,13 +2283,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.3323</v>
+        <v>0.3326</v>
       </c>
       <c r="C83">
         <v>0.0614</v>
       </c>
       <c r="D83">
-        <v>0.2709</v>
+        <v>0.2712</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2297,13 +2297,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.3289</v>
+        <v>0.3292</v>
       </c>
       <c r="C84">
         <v>0.061</v>
       </c>
       <c r="D84">
-        <v>0.2679</v>
+        <v>0.2682</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2311,13 +2311,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.3246</v>
+        <v>0.3249</v>
       </c>
       <c r="C85">
         <v>0.0601</v>
       </c>
       <c r="D85">
-        <v>0.2645</v>
+        <v>0.2648</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2325,13 +2325,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.3198</v>
+        <v>0.3201</v>
       </c>
       <c r="C86">
         <v>0.0592</v>
       </c>
       <c r="D86">
-        <v>0.2606</v>
+        <v>0.2609</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2339,13 +2339,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.315</v>
+        <v>0.3153</v>
       </c>
       <c r="C87">
         <v>0.0586</v>
       </c>
       <c r="D87">
-        <v>0.2563</v>
+        <v>0.2566</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2353,13 +2353,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.3089</v>
+        <v>0.3091</v>
       </c>
       <c r="C88">
         <v>0.0577</v>
       </c>
       <c r="D88">
-        <v>0.2512</v>
+        <v>0.2515</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2367,13 +2367,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.303</v>
+        <v>0.3033</v>
       </c>
       <c r="C89">
         <v>0.0572</v>
       </c>
       <c r="D89">
-        <v>0.2459</v>
+        <v>0.2462</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2381,13 +2381,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.2973</v>
+        <v>0.2976</v>
       </c>
       <c r="C90">
         <v>0.0568</v>
       </c>
       <c r="D90">
-        <v>0.2405</v>
+        <v>0.2408</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2395,13 +2395,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.2911</v>
+        <v>0.2914</v>
       </c>
       <c r="C91">
-        <v>0.0564</v>
+        <v>0.0563</v>
       </c>
       <c r="D91">
-        <v>0.2347</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2409,13 +2409,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.285</v>
+        <v>0.2853</v>
       </c>
       <c r="C92">
         <v>0.0558</v>
       </c>
       <c r="D92">
-        <v>0.2292</v>
+        <v>0.2295</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2423,13 +2423,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.2793</v>
+        <v>0.2796</v>
       </c>
       <c r="C93">
         <v>0.0557</v>
       </c>
       <c r="D93">
-        <v>0.2236</v>
+        <v>0.2239</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2437,13 +2437,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.2735</v>
+        <v>0.2738</v>
       </c>
       <c r="C94">
-        <v>0.0554</v>
+        <v>0.0553</v>
       </c>
       <c r="D94">
-        <v>0.2181</v>
+        <v>0.2184</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2451,13 +2451,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.2676</v>
+        <v>0.2679</v>
       </c>
       <c r="C95">
         <v>0.0546</v>
       </c>
       <c r="D95">
-        <v>0.213</v>
+        <v>0.2133</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2465,13 +2465,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.2624</v>
+        <v>0.2627</v>
       </c>
       <c r="C96">
         <v>0.0546</v>
       </c>
       <c r="D96">
-        <v>0.2078</v>
+        <v>0.2081</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2479,13 +2479,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.2567</v>
+        <v>0.257</v>
       </c>
       <c r="C97">
-        <v>0.0544</v>
+        <v>0.0543</v>
       </c>
       <c r="D97">
-        <v>0.2024</v>
+        <v>0.2027</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2493,13 +2493,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.2516</v>
+        <v>0.2519</v>
       </c>
       <c r="C98">
         <v>0.0544</v>
       </c>
       <c r="D98">
-        <v>0.1972</v>
+        <v>0.1975</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2507,13 +2507,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.2469</v>
+        <v>0.2472</v>
       </c>
       <c r="C99">
         <v>0.0545</v>
       </c>
       <c r="D99">
-        <v>0.1924</v>
+        <v>0.1927</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2521,13 +2521,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.2419</v>
+        <v>0.2422</v>
       </c>
       <c r="C100">
-        <v>0.0547</v>
+        <v>0.0546</v>
       </c>
       <c r="D100">
-        <v>0.1873</v>
+        <v>0.1876</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2535,13 +2535,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.2369</v>
+        <v>0.2372</v>
       </c>
       <c r="C101">
         <v>0.0545</v>
       </c>
       <c r="D101">
-        <v>0.1824</v>
+        <v>0.1827</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2549,13 +2549,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.2331</v>
+        <v>0.2334</v>
       </c>
       <c r="C102">
-        <v>0.0548</v>
+        <v>0.0547</v>
       </c>
       <c r="D102">
-        <v>0.1784</v>
+        <v>0.1787</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2563,13 +2563,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.2296</v>
+        <v>0.2299</v>
       </c>
       <c r="C103">
         <v>0.0552</v>
       </c>
       <c r="D103">
-        <v>0.1744</v>
+        <v>0.1747</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2577,13 +2577,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.2263</v>
+        <v>0.2266</v>
       </c>
       <c r="C104">
         <v>0.0557</v>
       </c>
       <c r="D104">
-        <v>0.1706</v>
+        <v>0.1709</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2591,13 +2591,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.2242</v>
+        <v>0.2245</v>
       </c>
       <c r="C105">
         <v>0.0566</v>
       </c>
       <c r="D105">
-        <v>0.1676</v>
+        <v>0.1679</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2605,13 +2605,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.2225</v>
+        <v>0.2228</v>
       </c>
       <c r="C106">
         <v>0.0573</v>
       </c>
       <c r="D106">
-        <v>0.1651</v>
+        <v>0.1654</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2619,13 +2619,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.2208</v>
+        <v>0.2211</v>
       </c>
       <c r="C107">
         <v>0.0578</v>
       </c>
       <c r="D107">
-        <v>0.163</v>
+        <v>0.1633</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2633,13 +2633,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.2193</v>
+        <v>0.2196</v>
       </c>
       <c r="C108">
         <v>0.0582</v>
       </c>
       <c r="D108">
-        <v>0.1611</v>
+        <v>0.1614</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2647,13 +2647,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.2177</v>
+        <v>0.218</v>
       </c>
       <c r="C109">
         <v>0.0583</v>
       </c>
       <c r="D109">
-        <v>0.1594</v>
+        <v>0.1597</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2661,13 +2661,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.2153</v>
+        <v>0.2156</v>
       </c>
       <c r="C110">
-        <v>0.058</v>
+        <v>0.0581</v>
       </c>
       <c r="D110">
-        <v>0.1572</v>
+        <v>0.1575</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2675,13 +2675,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.2126</v>
+        <v>0.2129</v>
       </c>
       <c r="C111">
-        <v>0.0577</v>
+        <v>0.0578</v>
       </c>
       <c r="D111">
-        <v>0.1549</v>
+        <v>0.1552</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2689,13 +2689,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.2098</v>
+        <v>0.2101</v>
       </c>
       <c r="C112">
         <v>0.0575</v>
       </c>
       <c r="D112">
-        <v>0.1523</v>
+        <v>0.1526</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2703,13 +2703,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.2068</v>
+        <v>0.2071</v>
       </c>
       <c r="C113">
-        <v>0.057</v>
+        <v>0.0571</v>
       </c>
       <c r="D113">
-        <v>0.1498</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2717,13 +2717,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.2044</v>
+        <v>0.2047</v>
       </c>
       <c r="C114">
         <v>0.057</v>
       </c>
       <c r="D114">
-        <v>0.1474</v>
+        <v>0.1476</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2731,13 +2731,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.2016</v>
+        <v>0.2019</v>
       </c>
       <c r="C115">
         <v>0.057</v>
       </c>
       <c r="D115">
-        <v>0.1447</v>
+        <v>0.1449</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2745,13 +2745,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.1984</v>
+        <v>0.1987</v>
       </c>
       <c r="C116">
         <v>0.0568</v>
       </c>
       <c r="D116">
-        <v>0.1417</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2759,13 +2759,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.1962</v>
+        <v>0.1965</v>
       </c>
       <c r="C117">
-        <v>0.0572</v>
+        <v>0.0573</v>
       </c>
       <c r="D117">
-        <v>0.1389</v>
+        <v>0.1392</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2773,13 +2773,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.1933</v>
+        <v>0.1936</v>
       </c>
       <c r="C118">
-        <v>0.0572</v>
+        <v>0.0573</v>
       </c>
       <c r="D118">
-        <v>0.1361</v>
+        <v>0.1364</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2787,13 +2787,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.1898</v>
+        <v>0.1901</v>
       </c>
       <c r="C119">
-        <v>0.0569</v>
+        <v>0.057</v>
       </c>
       <c r="D119">
-        <v>0.1329</v>
+        <v>0.1331</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2801,13 +2801,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.1863</v>
+        <v>0.1866</v>
       </c>
       <c r="C120">
         <v>0.0567</v>
       </c>
       <c r="D120">
-        <v>0.1296</v>
+        <v>0.1299</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2815,13 +2815,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.1828</v>
+        <v>0.1831</v>
       </c>
       <c r="C121">
         <v>0.0565</v>
       </c>
       <c r="D121">
-        <v>0.1263</v>
+        <v>0.1266</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2829,13 +2829,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.1793</v>
+        <v>0.1796</v>
       </c>
       <c r="C122">
-        <v>0.0565</v>
+        <v>0.0566</v>
       </c>
       <c r="D122">
-        <v>0.1228</v>
+        <v>0.1231</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2843,13 +2843,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.1759</v>
+        <v>0.1762</v>
       </c>
       <c r="C123">
-        <v>0.0565</v>
+        <v>0.0566</v>
       </c>
       <c r="D123">
-        <v>0.1194</v>
+        <v>0.1197</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2857,13 +2857,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.1724</v>
+        <v>0.1727</v>
       </c>
       <c r="C124">
         <v>0.0564</v>
       </c>
       <c r="D124">
-        <v>0.116</v>
+        <v>0.1162</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2871,13 +2871,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.1676</v>
+        <v>0.1679</v>
       </c>
       <c r="C125">
-        <v>0.0557</v>
+        <v>0.0558</v>
       </c>
       <c r="D125">
-        <v>0.1119</v>
+        <v>0.1121</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2885,13 +2885,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.1627</v>
+        <v>0.1629</v>
       </c>
       <c r="C126">
         <v>0.0553</v>
       </c>
       <c r="D126">
-        <v>0.1074</v>
+        <v>0.1076</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2899,13 +2899,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.1574</v>
+        <v>0.1577</v>
       </c>
       <c r="C127">
-        <v>0.0547</v>
+        <v>0.0548</v>
       </c>
       <c r="D127">
-        <v>0.1027</v>
+        <v>0.1029</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2913,13 +2913,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.1532</v>
+        <v>0.1535</v>
       </c>
       <c r="C128">
         <v>0.0548</v>
       </c>
       <c r="D128">
-        <v>0.0985</v>
+        <v>0.0987</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2927,13 +2927,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.1496</v>
+        <v>0.1499</v>
       </c>
       <c r="C129">
         <v>0.0551</v>
       </c>
       <c r="D129">
-        <v>0.0945</v>
+        <v>0.0948</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2941,13 +2941,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.1462</v>
+        <v>0.1465</v>
       </c>
       <c r="C130">
         <v>0.0553</v>
       </c>
       <c r="D130">
-        <v>0.09089999999999999</v>
+        <v>0.0912</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2955,13 +2955,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.1435</v>
+        <v>0.1438</v>
       </c>
       <c r="C131">
-        <v>0.0555</v>
+        <v>0.0556</v>
       </c>
       <c r="D131">
-        <v>0.08799999999999999</v>
+        <v>0.0882</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2969,13 +2969,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.1413</v>
+        <v>0.1417</v>
       </c>
       <c r="C132">
-        <v>0.0557</v>
+        <v>0.0558</v>
       </c>
       <c r="D132">
-        <v>0.0856</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2983,13 +2983,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.1397</v>
+        <v>0.14</v>
       </c>
       <c r="C133">
-        <v>0.0561</v>
+        <v>0.0562</v>
       </c>
       <c r="D133">
-        <v>0.08359999999999999</v>
+        <v>0.0839</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2997,13 +2997,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.138</v>
+        <v>0.1383</v>
       </c>
       <c r="C134">
-        <v>0.0561</v>
+        <v>0.0562</v>
       </c>
       <c r="D134">
-        <v>0.0819</v>
+        <v>0.0822</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3011,13 +3011,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.1368</v>
+        <v>0.1371</v>
       </c>
       <c r="C135">
-        <v>0.0563</v>
+        <v>0.0564</v>
       </c>
       <c r="D135">
-        <v>0.0804</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3025,13 +3025,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.1364</v>
+        <v>0.1367</v>
       </c>
       <c r="C136">
         <v>0.0564</v>
       </c>
       <c r="D136">
-        <v>0.08</v>
+        <v>0.0803</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3039,13 +3039,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.1364</v>
+        <v>0.1367</v>
       </c>
       <c r="C137">
-        <v>0.056</v>
+        <v>0.0561</v>
       </c>
       <c r="D137">
-        <v>0.0804</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3053,13 +3053,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.1374</v>
+        <v>0.1377</v>
       </c>
       <c r="C138">
-        <v>0.0562</v>
+        <v>0.0563</v>
       </c>
       <c r="D138">
-        <v>0.08110000000000001</v>
+        <v>0.0814</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3067,13 +3067,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.1388</v>
+        <v>0.1391</v>
       </c>
       <c r="C139">
-        <v>0.0565</v>
+        <v>0.0566</v>
       </c>
       <c r="D139">
-        <v>0.0823</v>
+        <v>0.08260000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3081,13 +3081,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.1411</v>
+        <v>0.1414</v>
       </c>
       <c r="C140">
-        <v>0.057</v>
+        <v>0.0571</v>
       </c>
       <c r="D140">
-        <v>0.08409999999999999</v>
+        <v>0.0844</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3095,13 +3095,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.1437</v>
+        <v>0.144</v>
       </c>
       <c r="C141">
-        <v>0.0575</v>
+        <v>0.0576</v>
       </c>
       <c r="D141">
-        <v>0.0861</v>
+        <v>0.0864</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3109,13 +3109,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.1456</v>
+        <v>0.1459</v>
       </c>
       <c r="C142">
         <v>0.0576</v>
       </c>
       <c r="D142">
-        <v>0.08799999999999999</v>
+        <v>0.0883</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3123,13 +3123,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.1478</v>
+        <v>0.1481</v>
       </c>
       <c r="C143">
         <v>0.0578</v>
       </c>
       <c r="D143">
-        <v>0.09</v>
+        <v>0.09030000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3137,13 +3137,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.15</v>
+        <v>0.1503</v>
       </c>
       <c r="C144">
-        <v>0.0579</v>
+        <v>0.058</v>
       </c>
       <c r="D144">
-        <v>0.0921</v>
+        <v>0.0924</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3151,13 +3151,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.153</v>
+        <v>0.1533</v>
       </c>
       <c r="C145">
         <v>0.0585</v>
       </c>
       <c r="D145">
-        <v>0.0945</v>
+        <v>0.09470000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3165,13 +3165,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.1567</v>
+        <v>0.157</v>
       </c>
       <c r="C146">
         <v>0.0596</v>
       </c>
       <c r="D146">
-        <v>0.09710000000000001</v>
+        <v>0.0974</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3179,13 +3179,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.1609</v>
+        <v>0.1612</v>
       </c>
       <c r="C147">
         <v>0.0611</v>
       </c>
       <c r="D147">
-        <v>0.0998</v>
+        <v>0.1001</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3193,13 +3193,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.1649</v>
+        <v>0.1652</v>
       </c>
       <c r="C148">
         <v>0.0626</v>
       </c>
       <c r="D148">
-        <v>0.1023</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3207,13 +3207,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.1686</v>
+        <v>0.1689</v>
       </c>
       <c r="C149">
-        <v>0.0638</v>
+        <v>0.0639</v>
       </c>
       <c r="D149">
-        <v>0.1048</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3221,13 +3221,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.1721</v>
+        <v>0.1724</v>
       </c>
       <c r="C150">
-        <v>0.06510000000000001</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="D150">
-        <v>0.107</v>
+        <v>0.1073</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3235,13 +3235,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.1756</v>
+        <v>0.1759</v>
       </c>
       <c r="C151">
         <v>0.0667</v>
       </c>
       <c r="D151">
-        <v>0.1089</v>
+        <v>0.1091</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3249,13 +3249,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.1782</v>
+        <v>0.1785</v>
       </c>
       <c r="C152">
-        <v>0.068</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="D152">
-        <v>0.1102</v>
+        <v>0.1105</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3263,13 +3263,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.1804</v>
+        <v>0.1807</v>
       </c>
       <c r="C153">
-        <v>0.06909999999999999</v>
+        <v>0.0692</v>
       </c>
       <c r="D153">
-        <v>0.1113</v>
+        <v>0.1115</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3277,13 +3277,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.1827</v>
+        <v>0.183</v>
       </c>
       <c r="C154">
         <v>0.0704</v>
       </c>
       <c r="D154">
-        <v>0.1123</v>
+        <v>0.1126</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3291,13 +3291,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.1843</v>
+        <v>0.1846</v>
       </c>
       <c r="C155">
         <v>0.0712</v>
       </c>
       <c r="D155">
-        <v>0.1132</v>
+        <v>0.1134</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3305,13 +3305,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.1846</v>
+        <v>0.1849</v>
       </c>
       <c r="C156">
         <v>0.07149999999999999</v>
       </c>
       <c r="D156">
-        <v>0.1132</v>
+        <v>0.1134</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3319,13 +3319,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.1843</v>
+        <v>0.1845</v>
       </c>
       <c r="C157">
-        <v>0.07190000000000001</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="D157">
-        <v>0.1123</v>
+        <v>0.1126</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3333,13 +3333,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.1829</v>
+        <v>0.1832</v>
       </c>
       <c r="C158">
         <v>0.0718</v>
       </c>
       <c r="D158">
-        <v>0.1111</v>
+        <v>0.1114</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3347,13 +3347,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.1817</v>
+        <v>0.182</v>
       </c>
       <c r="C159">
         <v>0.07190000000000001</v>
       </c>
       <c r="D159">
-        <v>0.1098</v>
+        <v>0.1101</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3361,13 +3361,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.1795</v>
+        <v>0.1797</v>
       </c>
       <c r="C160">
         <v>0.0716</v>
       </c>
       <c r="D160">
-        <v>0.1079</v>
+        <v>0.1082</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3375,13 +3375,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.177</v>
+        <v>0.1773</v>
       </c>
       <c r="C161">
         <v>0.0712</v>
       </c>
       <c r="D161">
-        <v>0.1058</v>
+        <v>0.1061</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3389,13 +3389,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.1747</v>
+        <v>0.1749</v>
       </c>
       <c r="C162">
         <v>0.07099999999999999</v>
       </c>
       <c r="D162">
-        <v>0.1037</v>
+        <v>0.1039</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3403,13 +3403,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.1727</v>
+        <v>0.173</v>
       </c>
       <c r="C163">
         <v>0.0713</v>
       </c>
       <c r="D163">
-        <v>0.1014</v>
+        <v>0.1017</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3417,13 +3417,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.1706</v>
+        <v>0.1709</v>
       </c>
       <c r="C164">
-        <v>0.0716</v>
+        <v>0.0717</v>
       </c>
       <c r="D164">
-        <v>0.0989</v>
+        <v>0.0992</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3431,13 +3431,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.1694</v>
+        <v>0.1697</v>
       </c>
       <c r="C165">
         <v>0.0727</v>
       </c>
       <c r="D165">
-        <v>0.09669999999999999</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3445,13 +3445,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.169</v>
+        <v>0.1693</v>
       </c>
       <c r="C166">
         <v>0.0745</v>
       </c>
       <c r="D166">
-        <v>0.0945</v>
+        <v>0.09470000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3459,13 +3459,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.1675</v>
+        <v>0.1678</v>
       </c>
       <c r="C167">
         <v>0.07539999999999999</v>
       </c>
       <c r="D167">
-        <v>0.0921</v>
+        <v>0.09229999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3473,13 +3473,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.165</v>
+        <v>0.1653</v>
       </c>
       <c r="C168">
         <v>0.0752</v>
       </c>
       <c r="D168">
-        <v>0.0898</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3487,13 +3487,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.1622</v>
+        <v>0.1626</v>
       </c>
       <c r="C169">
         <v>0.0747</v>
       </c>
       <c r="D169">
-        <v>0.0876</v>
+        <v>0.0878</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3501,13 +3501,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.1605</v>
+        <v>0.1608</v>
       </c>
       <c r="C170">
         <v>0.07489999999999999</v>
       </c>
       <c r="D170">
-        <v>0.0856</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3515,13 +3515,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.1593</v>
+        <v>0.1596</v>
       </c>
       <c r="C171">
-        <v>0.07539999999999999</v>
+        <v>0.0755</v>
       </c>
       <c r="D171">
-        <v>0.0839</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3529,13 +3529,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.1576</v>
+        <v>0.1579</v>
       </c>
       <c r="C172">
         <v>0.0756</v>
       </c>
       <c r="D172">
-        <v>0.082</v>
+        <v>0.0823</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3543,13 +3543,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.1562</v>
+        <v>0.1565</v>
       </c>
       <c r="C173">
         <v>0.0757</v>
       </c>
       <c r="D173">
-        <v>0.0805</v>
+        <v>0.0808</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3557,13 +3557,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.1551</v>
+        <v>0.1554</v>
       </c>
       <c r="C174">
         <v>0.0761</v>
       </c>
       <c r="D174">
-        <v>0.079</v>
+        <v>0.0793</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3571,13 +3571,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.1548</v>
+        <v>0.1552</v>
       </c>
       <c r="C175">
         <v>0.0769</v>
       </c>
       <c r="D175">
-        <v>0.078</v>
+        <v>0.07829999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3585,13 +3585,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.1562</v>
+        <v>0.1565</v>
       </c>
       <c r="C176">
-        <v>0.0786</v>
+        <v>0.07870000000000001</v>
       </c>
       <c r="D176">
-        <v>0.0775</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3599,13 +3599,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.1578</v>
+        <v>0.1581</v>
       </c>
       <c r="C177">
         <v>0.0803</v>
       </c>
       <c r="D177">
-        <v>0.0775</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3613,13 +3613,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.1604</v>
+        <v>0.1608</v>
       </c>
       <c r="C178">
         <v>0.0824</v>
       </c>
       <c r="D178">
-        <v>0.078</v>
+        <v>0.07829999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3627,13 +3627,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.1629</v>
+        <v>0.1632</v>
       </c>
       <c r="C179">
         <v>0.08400000000000001</v>
       </c>
       <c r="D179">
-        <v>0.0789</v>
+        <v>0.07920000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3641,13 +3641,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.1663</v>
+        <v>0.1666</v>
       </c>
       <c r="C180">
         <v>0.0862</v>
       </c>
       <c r="D180">
-        <v>0.0801</v>
+        <v>0.0804</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3655,13 +3655,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.1694</v>
+        <v>0.1698</v>
       </c>
       <c r="C181">
-        <v>0.0878</v>
+        <v>0.08790000000000001</v>
       </c>
       <c r="D181">
-        <v>0.08160000000000001</v>
+        <v>0.0819</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3669,13 +3669,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.1728</v>
+        <v>0.1732</v>
       </c>
       <c r="C182">
         <v>0.0896</v>
       </c>
       <c r="D182">
-        <v>0.0833</v>
+        <v>0.08359999999999999</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3683,13 +3683,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.176</v>
+        <v>0.1764</v>
       </c>
       <c r="C183">
         <v>0.09080000000000001</v>
       </c>
       <c r="D183">
-        <v>0.0852</v>
+        <v>0.0856</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3697,13 +3697,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.1798</v>
+        <v>0.1802</v>
       </c>
       <c r="C184">
         <v>0.092</v>
       </c>
       <c r="D184">
-        <v>0.0878</v>
+        <v>0.0882</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3711,13 +3711,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.1827</v>
+        <v>0.1831</v>
       </c>
       <c r="C185">
-        <v>0.0924</v>
+        <v>0.0925</v>
       </c>
       <c r="D185">
-        <v>0.09030000000000001</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3725,13 +3725,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.1844</v>
+        <v>0.1847</v>
       </c>
       <c r="C186">
-        <v>0.0915</v>
+        <v>0.0916</v>
       </c>
       <c r="D186">
-        <v>0.09279999999999999</v>
+        <v>0.09320000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3739,13 +3739,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.1869</v>
+        <v>0.1873</v>
       </c>
       <c r="C187">
         <v>0.0912</v>
       </c>
       <c r="D187">
-        <v>0.09569999999999999</v>
+        <v>0.0961</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3753,13 +3753,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.1909</v>
+        <v>0.1913</v>
       </c>
       <c r="C188">
         <v>0.092</v>
       </c>
       <c r="D188">
-        <v>0.0989</v>
+        <v>0.0993</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3767,13 +3767,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.1953</v>
+        <v>0.1957</v>
       </c>
       <c r="C189">
-        <v>0.09279999999999999</v>
+        <v>0.0929</v>
       </c>
       <c r="D189">
-        <v>0.1025</v>
+        <v>0.1029</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3781,13 +3781,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.199</v>
+        <v>0.1994</v>
       </c>
       <c r="C190">
-        <v>0.0929</v>
+        <v>0.093</v>
       </c>
       <c r="D190">
-        <v>0.1061</v>
+        <v>0.1064</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3795,13 +3795,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.2025</v>
+        <v>0.2029</v>
       </c>
       <c r="C191">
-        <v>0.0927</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="D191">
-        <v>0.1097</v>
+        <v>0.1101</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3809,13 +3809,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.2064</v>
+        <v>0.2068</v>
       </c>
       <c r="C192">
         <v>0.0929</v>
       </c>
       <c r="D192">
-        <v>0.1135</v>
+        <v>0.1138</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3823,13 +3823,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.21</v>
+        <v>0.2103</v>
       </c>
       <c r="C193">
         <v>0.0929</v>
       </c>
       <c r="D193">
-        <v>0.1171</v>
+        <v>0.1174</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3837,13 +3837,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.2142</v>
+        <v>0.2146</v>
       </c>
       <c r="C194">
         <v>0.0936</v>
       </c>
       <c r="D194">
-        <v>0.1206</v>
+        <v>0.1209</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3851,13 +3851,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.2185</v>
+        <v>0.2189</v>
       </c>
       <c r="C195">
         <v>0.0941</v>
       </c>
       <c r="D195">
-        <v>0.1245</v>
+        <v>0.1248</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3865,13 +3865,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.2219</v>
+        <v>0.2224</v>
       </c>
       <c r="C196">
         <v>0.0941</v>
       </c>
       <c r="D196">
-        <v>0.1279</v>
+        <v>0.1283</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3879,13 +3879,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.2251</v>
+        <v>0.2255</v>
       </c>
       <c r="C197">
-        <v>0.09379999999999999</v>
+        <v>0.0939</v>
       </c>
       <c r="D197">
-        <v>0.1312</v>
+        <v>0.1316</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3893,13 +3893,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.2276</v>
+        <v>0.2281</v>
       </c>
       <c r="C198">
         <v>0.0936</v>
       </c>
       <c r="D198">
-        <v>0.1341</v>
+        <v>0.1345</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3907,13 +3907,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.2302</v>
+        <v>0.2306</v>
       </c>
       <c r="C199">
         <v>0.0936</v>
       </c>
       <c r="D199">
-        <v>0.1366</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3921,13 +3921,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.2319</v>
+        <v>0.2323</v>
       </c>
       <c r="C200">
         <v>0.0931</v>
       </c>
       <c r="D200">
-        <v>0.1388</v>
+        <v>0.1392</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3935,13 +3935,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.2338</v>
+        <v>0.2342</v>
       </c>
       <c r="C201">
-        <v>0.0931</v>
+        <v>0.09320000000000001</v>
       </c>
       <c r="D201">
-        <v>0.1407</v>
+        <v>0.1411</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3949,13 +3949,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.235</v>
+        <v>0.2354</v>
       </c>
       <c r="C202">
         <v>0.09279999999999999</v>
       </c>
       <c r="D202">
-        <v>0.1422</v>
+        <v>0.1426</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3963,13 +3963,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.2359</v>
+        <v>0.2363</v>
       </c>
       <c r="C203">
-        <v>0.0921</v>
+        <v>0.0922</v>
       </c>
       <c r="D203">
-        <v>0.1437</v>
+        <v>0.1441</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3977,13 +3977,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.2358</v>
+        <v>0.2362</v>
       </c>
       <c r="C204">
-        <v>0.0912</v>
+        <v>0.09130000000000001</v>
       </c>
       <c r="D204">
-        <v>0.1446</v>
+        <v>0.1449</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3991,13 +3991,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.2354</v>
+        <v>0.2358</v>
       </c>
       <c r="C205">
-        <v>0.0902</v>
+        <v>0.09030000000000001</v>
       </c>
       <c r="D205">
-        <v>0.1451</v>
+        <v>0.1455</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4005,13 +4005,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.2354</v>
+        <v>0.2358</v>
       </c>
       <c r="C206">
-        <v>0.0895</v>
+        <v>0.0896</v>
       </c>
       <c r="D206">
-        <v>0.1459</v>
+        <v>0.1463</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4019,13 +4019,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.2356</v>
+        <v>0.236</v>
       </c>
       <c r="C207">
         <v>0.089</v>
       </c>
       <c r="D207">
-        <v>0.1466</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4033,13 +4033,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.2356</v>
+        <v>0.236</v>
       </c>
       <c r="C208">
-        <v>0.0887</v>
+        <v>0.0888</v>
       </c>
       <c r="D208">
-        <v>0.1469</v>
+        <v>0.1472</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4047,13 +4047,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.2352</v>
+        <v>0.2356</v>
       </c>
       <c r="C209">
-        <v>0.0886</v>
+        <v>0.0887</v>
       </c>
       <c r="D209">
-        <v>0.1466</v>
+        <v>0.1469</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4061,13 +4061,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.2354</v>
+        <v>0.2358</v>
       </c>
       <c r="C210">
         <v>0.0893</v>
       </c>
       <c r="D210">
-        <v>0.1461</v>
+        <v>0.1465</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4075,13 +4075,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.2347</v>
+        <v>0.2352</v>
       </c>
       <c r="C211">
-        <v>0.08939999999999999</v>
+        <v>0.0895</v>
       </c>
       <c r="D211">
-        <v>0.1453</v>
+        <v>0.1457</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4089,13 +4089,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.2342</v>
+        <v>0.2346</v>
       </c>
       <c r="C212">
-        <v>0.0897</v>
+        <v>0.0898</v>
       </c>
       <c r="D212">
-        <v>0.1444</v>
+        <v>0.1448</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4103,13 +4103,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.2334</v>
+        <v>0.2338</v>
       </c>
       <c r="C213">
-        <v>0.08989999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="D213">
-        <v>0.1435</v>
+        <v>0.1438</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4117,13 +4117,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.2316</v>
+        <v>0.232</v>
       </c>
       <c r="C214">
-        <v>0.089</v>
+        <v>0.0891</v>
       </c>
       <c r="D214">
-        <v>0.1425</v>
+        <v>0.1429</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4131,13 +4131,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.2288</v>
+        <v>0.2292</v>
       </c>
       <c r="C215">
-        <v>0.0878</v>
+        <v>0.08790000000000001</v>
       </c>
       <c r="D215">
-        <v>0.141</v>
+        <v>0.1414</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4145,13 +4145,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.226</v>
+        <v>0.2264</v>
       </c>
       <c r="C216">
         <v>0.0864</v>
       </c>
       <c r="D216">
-        <v>0.1396</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4159,13 +4159,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.2227</v>
+        <v>0.2232</v>
       </c>
       <c r="C217">
         <v>0.0849</v>
       </c>
       <c r="D217">
-        <v>0.1379</v>
+        <v>0.1382</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4173,13 +4173,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.22</v>
+        <v>0.2204</v>
       </c>
       <c r="C218">
-        <v>0.0837</v>
+        <v>0.0838</v>
       </c>
       <c r="D218">
-        <v>0.1362</v>
+        <v>0.1366</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4187,13 +4187,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.2169</v>
+        <v>0.2173</v>
       </c>
       <c r="C219">
-        <v>0.0823</v>
+        <v>0.0824</v>
       </c>
       <c r="D219">
-        <v>0.1346</v>
+        <v>0.1349</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4201,13 +4201,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.2146</v>
+        <v>0.215</v>
       </c>
       <c r="C220">
-        <v>0.0813</v>
+        <v>0.0814</v>
       </c>
       <c r="D220">
-        <v>0.1333</v>
+        <v>0.1336</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4215,13 +4215,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.2127</v>
+        <v>0.2131</v>
       </c>
       <c r="C221">
-        <v>0.0804</v>
+        <v>0.0805</v>
       </c>
       <c r="D221">
-        <v>0.1323</v>
+        <v>0.1326</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4229,13 +4229,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.2129</v>
+        <v>0.2133</v>
       </c>
       <c r="C222">
-        <v>0.08110000000000001</v>
+        <v>0.08119999999999999</v>
       </c>
       <c r="D222">
-        <v>0.1318</v>
+        <v>0.1321</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4243,13 +4243,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.2132</v>
+        <v>0.2136</v>
       </c>
       <c r="C223">
         <v>0.08169999999999999</v>
       </c>
       <c r="D223">
-        <v>0.1315</v>
+        <v>0.1319</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4257,13 +4257,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.2156</v>
+        <v>0.216</v>
       </c>
       <c r="C224">
         <v>0.083</v>
       </c>
       <c r="D224">
-        <v>0.1326</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4271,13 +4271,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.2186</v>
+        <v>0.219</v>
       </c>
       <c r="C225">
-        <v>0.0844</v>
+        <v>0.08450000000000001</v>
       </c>
       <c r="D225">
-        <v>0.1342</v>
+        <v>0.1345</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4285,13 +4285,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.221</v>
+        <v>0.2214</v>
       </c>
       <c r="C226">
         <v>0.0858</v>
       </c>
       <c r="D226">
-        <v>0.1352</v>
+        <v>0.1356</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4299,13 +4299,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.223</v>
+        <v>0.2234</v>
       </c>
       <c r="C227">
-        <v>0.0868</v>
+        <v>0.08690000000000001</v>
       </c>
       <c r="D227">
-        <v>0.1361</v>
+        <v>0.1365</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4313,13 +4313,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.2245</v>
+        <v>0.2249</v>
       </c>
       <c r="C228">
-        <v>0.0873</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="D228">
-        <v>0.1372</v>
+        <v>0.1376</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4327,13 +4327,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.2258</v>
+        <v>0.2263</v>
       </c>
       <c r="C229">
         <v>0.0877</v>
       </c>
       <c r="D229">
-        <v>0.1382</v>
+        <v>0.1385</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4341,13 +4341,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.2263</v>
+        <v>0.2267</v>
       </c>
       <c r="C230">
         <v>0.0873</v>
       </c>
       <c r="D230">
-        <v>0.139</v>
+        <v>0.1394</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4355,13 +4355,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.2268</v>
+        <v>0.2272</v>
       </c>
       <c r="C231">
         <v>0.08699999999999999</v>
       </c>
       <c r="D231">
-        <v>0.1399</v>
+        <v>0.1402</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4369,13 +4369,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.2277</v>
+        <v>0.2281</v>
       </c>
       <c r="C232">
         <v>0.08699999999999999</v>
       </c>
       <c r="D232">
-        <v>0.1407</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4383,13 +4383,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.2289</v>
+        <v>0.2293</v>
       </c>
       <c r="C233">
-        <v>0.08749999999999999</v>
+        <v>0.0876</v>
       </c>
       <c r="D233">
-        <v>0.1414</v>
+        <v>0.1417</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4397,13 +4397,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.2298</v>
+        <v>0.2302</v>
       </c>
       <c r="C234">
         <v>0.0882</v>
       </c>
       <c r="D234">
-        <v>0.1417</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4411,13 +4411,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.2313</v>
+        <v>0.2317</v>
       </c>
       <c r="C235">
-        <v>0.0892</v>
+        <v>0.0893</v>
       </c>
       <c r="D235">
-        <v>0.142</v>
+        <v>0.1424</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4425,13 +4425,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.2322</v>
+        <v>0.2326</v>
       </c>
       <c r="C236">
-        <v>0.0901</v>
+        <v>0.0902</v>
       </c>
       <c r="D236">
-        <v>0.1421</v>
+        <v>0.1425</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4439,13 +4439,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.2335</v>
+        <v>0.2339</v>
       </c>
       <c r="C237">
-        <v>0.09130000000000001</v>
+        <v>0.0914</v>
       </c>
       <c r="D237">
-        <v>0.1422</v>
+        <v>0.1425</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4453,13 +4453,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.2352</v>
+        <v>0.2356</v>
       </c>
       <c r="C238">
-        <v>0.0929</v>
+        <v>0.093</v>
       </c>
       <c r="D238">
-        <v>0.1423</v>
+        <v>0.1426</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4467,13 +4467,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.2369</v>
+        <v>0.2373</v>
       </c>
       <c r="C239">
-        <v>0.0946</v>
+        <v>0.09470000000000001</v>
       </c>
       <c r="D239">
-        <v>0.1423</v>
+        <v>0.1426</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4481,13 +4481,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.2378</v>
+        <v>0.2382</v>
       </c>
       <c r="C240">
         <v>0.0956</v>
       </c>
       <c r="D240">
-        <v>0.1422</v>
+        <v>0.1426</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4495,13 +4495,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.2402</v>
+        <v>0.2405</v>
       </c>
       <c r="C241">
         <v>0.098</v>
       </c>
       <c r="D241">
-        <v>0.1422</v>
+        <v>0.1425</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4509,13 +4509,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.2401</v>
+        <v>0.2405</v>
       </c>
       <c r="C242">
         <v>0.0985</v>
       </c>
       <c r="D242">
-        <v>0.1416</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4523,13 +4523,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.2394</v>
+        <v>0.2397</v>
       </c>
       <c r="C243">
         <v>0.0989</v>
       </c>
       <c r="D243">
-        <v>0.1405</v>
+        <v>0.1408</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4537,13 +4537,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.2366</v>
+        <v>0.2369</v>
       </c>
       <c r="C244">
         <v>0.09859999999999999</v>
       </c>
       <c r="D244">
-        <v>0.138</v>
+        <v>0.1383</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4551,13 +4551,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.2328</v>
+        <v>0.2331</v>
       </c>
       <c r="C245">
-        <v>0.0978</v>
+        <v>0.0979</v>
       </c>
       <c r="D245">
-        <v>0.1349</v>
+        <v>0.1352</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4565,13 +4565,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.2288</v>
+        <v>0.2291</v>
       </c>
       <c r="C246">
-        <v>0.097</v>
+        <v>0.09710000000000001</v>
       </c>
       <c r="D246">
-        <v>0.1318</v>
+        <v>0.1321</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4579,13 +4579,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.2244</v>
+        <v>0.2248</v>
       </c>
       <c r="C247">
-        <v>0.0959</v>
+        <v>0.096</v>
       </c>
       <c r="D247">
-        <v>0.1285</v>
+        <v>0.1288</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4593,13 +4593,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.2205</v>
+        <v>0.2209</v>
       </c>
       <c r="C248">
-        <v>0.0954</v>
+        <v>0.0955</v>
       </c>
       <c r="D248">
-        <v>0.1251</v>
+        <v>0.1254</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2017 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2017 - Diaria.xlsx
@@ -1149,13 +1149,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3348</v>
+        <v>0.3353</v>
       </c>
       <c r="C2">
-        <v>0.0751</v>
+        <v>0.0752</v>
       </c>
       <c r="D2">
-        <v>0.2597</v>
+        <v>0.2602</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1163,13 +1163,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3313</v>
+        <v>0.3317</v>
       </c>
       <c r="C3">
         <v>0.0751</v>
       </c>
       <c r="D3">
-        <v>0.2561</v>
+        <v>0.2566</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1177,13 +1177,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3279</v>
+        <v>0.3283</v>
       </c>
       <c r="C4">
         <v>0.0752</v>
       </c>
       <c r="D4">
-        <v>0.2527</v>
+        <v>0.2531</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1191,13 +1191,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3247</v>
+        <v>0.3251</v>
       </c>
       <c r="C5">
         <v>0.0755</v>
       </c>
       <c r="D5">
-        <v>0.2493</v>
+        <v>0.2496</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1205,13 +1205,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3221</v>
+        <v>0.3224</v>
       </c>
       <c r="C6">
         <v>0.07580000000000001</v>
       </c>
       <c r="D6">
-        <v>0.2463</v>
+        <v>0.2466</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1219,13 +1219,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3193</v>
+        <v>0.3195</v>
       </c>
       <c r="C7">
         <v>0.0759</v>
       </c>
       <c r="D7">
-        <v>0.2434</v>
+        <v>0.2436</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1233,13 +1233,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3163</v>
+        <v>0.3165</v>
       </c>
       <c r="C8">
         <v>0.07580000000000001</v>
       </c>
       <c r="D8">
-        <v>0.2406</v>
+        <v>0.2407</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1247,13 +1247,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3133</v>
+        <v>0.3134</v>
       </c>
       <c r="C9">
         <v>0.0756</v>
       </c>
       <c r="D9">
-        <v>0.2377</v>
+        <v>0.2378</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1267,7 +1267,7 @@
         <v>0.076</v>
       </c>
       <c r="D10">
-        <v>0.2344</v>
+        <v>0.2345</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1289,13 +1289,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3021</v>
+        <v>0.302</v>
       </c>
       <c r="C12">
         <v>0.0752</v>
       </c>
       <c r="D12">
-        <v>0.2269</v>
+        <v>0.2268</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1303,13 +1303,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.2978</v>
+        <v>0.2977</v>
       </c>
       <c r="C13">
-        <v>0.0745</v>
+        <v>0.0746</v>
       </c>
       <c r="D13">
-        <v>0.2233</v>
+        <v>0.2231</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1317,13 +1317,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.2938</v>
+        <v>0.2936</v>
       </c>
       <c r="C14">
         <v>0.0741</v>
       </c>
       <c r="D14">
-        <v>0.2197</v>
+        <v>0.2195</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1331,13 +1331,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.2891</v>
+        <v>0.2889</v>
       </c>
       <c r="C15">
         <v>0.07290000000000001</v>
       </c>
       <c r="D15">
-        <v>0.2163</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1345,13 +1345,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.2849</v>
+        <v>0.2846</v>
       </c>
       <c r="C16">
-        <v>0.0717</v>
+        <v>0.0718</v>
       </c>
       <c r="D16">
-        <v>0.2131</v>
+        <v>0.2128</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1359,13 +1359,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.2811</v>
+        <v>0.2807</v>
       </c>
       <c r="C17">
         <v>0.0709</v>
       </c>
       <c r="D17">
-        <v>0.2102</v>
+        <v>0.2098</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1373,13 +1373,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.2771</v>
+        <v>0.2767</v>
       </c>
       <c r="C18">
         <v>0.0699</v>
       </c>
       <c r="D18">
-        <v>0.2072</v>
+        <v>0.2068</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1387,13 +1387,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.2733</v>
+        <v>0.2727</v>
       </c>
       <c r="C19">
-        <v>0.0689</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D19">
-        <v>0.2043</v>
+        <v>0.2038</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1401,13 +1401,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.2704</v>
+        <v>0.2699</v>
       </c>
       <c r="C20">
-        <v>0.06850000000000001</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="D20">
-        <v>0.2019</v>
+        <v>0.2013</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1415,13 +1415,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.2672</v>
+        <v>0.2665</v>
       </c>
       <c r="C21">
-        <v>0.0673</v>
+        <v>0.0674</v>
       </c>
       <c r="D21">
-        <v>0.1998</v>
+        <v>0.1992</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1429,13 +1429,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.2643</v>
+        <v>0.2636</v>
       </c>
       <c r="C22">
-        <v>0.066</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="D22">
-        <v>0.1982</v>
+        <v>0.1975</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1443,13 +1443,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.2613</v>
+        <v>0.2605</v>
       </c>
       <c r="C23">
         <v>0.0648</v>
       </c>
       <c r="D23">
-        <v>0.1965</v>
+        <v>0.1957</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1457,13 +1457,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.2578</v>
+        <v>0.2571</v>
       </c>
       <c r="C24">
-        <v>0.0633</v>
+        <v>0.0634</v>
       </c>
       <c r="D24">
-        <v>0.1945</v>
+        <v>0.1937</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1471,13 +1471,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.2547</v>
+        <v>0.254</v>
       </c>
       <c r="C25">
         <v>0.062</v>
       </c>
       <c r="D25">
-        <v>0.1928</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1485,13 +1485,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.2516</v>
+        <v>0.2508</v>
       </c>
       <c r="C26">
-        <v>0.0607</v>
+        <v>0.0608</v>
       </c>
       <c r="D26">
-        <v>0.1909</v>
+        <v>0.1901</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1499,13 +1499,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.2495</v>
+        <v>0.2487</v>
       </c>
       <c r="C27">
-        <v>0.06</v>
+        <v>0.0601</v>
       </c>
       <c r="D27">
-        <v>0.1895</v>
+        <v>0.1886</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1513,13 +1513,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.2476</v>
+        <v>0.2468</v>
       </c>
       <c r="C28">
-        <v>0.0592</v>
+        <v>0.0593</v>
       </c>
       <c r="D28">
-        <v>0.1884</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1527,13 +1527,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.2463</v>
+        <v>0.2454</v>
       </c>
       <c r="C29">
-        <v>0.0585</v>
+        <v>0.0586</v>
       </c>
       <c r="D29">
-        <v>0.1878</v>
+        <v>0.1868</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1541,13 +1541,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.2445</v>
+        <v>0.2436</v>
       </c>
       <c r="C30">
-        <v>0.057</v>
+        <v>0.0571</v>
       </c>
       <c r="D30">
-        <v>0.1875</v>
+        <v>0.1866</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1555,13 +1555,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.2434</v>
+        <v>0.2425</v>
       </c>
       <c r="C31">
-        <v>0.0558</v>
+        <v>0.0559</v>
       </c>
       <c r="D31">
-        <v>0.1876</v>
+        <v>0.1866</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1569,13 +1569,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.2419</v>
+        <v>0.241</v>
       </c>
       <c r="C32">
         <v>0.0541</v>
       </c>
       <c r="D32">
-        <v>0.1879</v>
+        <v>0.1869</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1583,13 +1583,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.2414</v>
+        <v>0.2405</v>
       </c>
       <c r="C33">
         <v>0.053</v>
       </c>
       <c r="D33">
-        <v>0.1884</v>
+        <v>0.1874</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1597,13 +1597,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.2414</v>
+        <v>0.2404</v>
       </c>
       <c r="C34">
-        <v>0.0518</v>
+        <v>0.0519</v>
       </c>
       <c r="D34">
-        <v>0.1896</v>
+        <v>0.1886</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1611,13 +1611,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.2418</v>
+        <v>0.2409</v>
       </c>
       <c r="C35">
-        <v>0.051</v>
+        <v>0.0511</v>
       </c>
       <c r="D35">
-        <v>0.1908</v>
+        <v>0.1898</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1625,13 +1625,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.2431</v>
+        <v>0.2421</v>
       </c>
       <c r="C36">
-        <v>0.0508</v>
+        <v>0.0509</v>
       </c>
       <c r="D36">
-        <v>0.1923</v>
+        <v>0.1912</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1639,13 +1639,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.2442</v>
+        <v>0.2432</v>
       </c>
       <c r="C37">
-        <v>0.0504</v>
+        <v>0.0505</v>
       </c>
       <c r="D37">
-        <v>0.1938</v>
+        <v>0.1927</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1653,13 +1653,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.2455</v>
+        <v>0.2445</v>
       </c>
       <c r="C38">
-        <v>0.05</v>
+        <v>0.0501</v>
       </c>
       <c r="D38">
-        <v>0.1955</v>
+        <v>0.1944</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1667,13 +1667,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.2471</v>
+        <v>0.246</v>
       </c>
       <c r="C39">
-        <v>0.0496</v>
+        <v>0.0497</v>
       </c>
       <c r="D39">
-        <v>0.1975</v>
+        <v>0.1964</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1681,13 +1681,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.2485</v>
+        <v>0.2474</v>
       </c>
       <c r="C40">
-        <v>0.0492</v>
+        <v>0.0493</v>
       </c>
       <c r="D40">
-        <v>0.1992</v>
+        <v>0.1981</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1695,13 +1695,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.2501</v>
+        <v>0.249</v>
       </c>
       <c r="C41">
-        <v>0.0491</v>
+        <v>0.0492</v>
       </c>
       <c r="D41">
-        <v>0.2009</v>
+        <v>0.1998</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1709,13 +1709,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.252</v>
+        <v>0.2509</v>
       </c>
       <c r="C42">
         <v>0.0496</v>
       </c>
       <c r="D42">
-        <v>0.2024</v>
+        <v>0.2013</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1723,13 +1723,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.2539</v>
+        <v>0.2527</v>
       </c>
       <c r="C43">
-        <v>0.0497</v>
+        <v>0.0498</v>
       </c>
       <c r="D43">
-        <v>0.2041</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1737,13 +1737,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.256</v>
+        <v>0.2548</v>
       </c>
       <c r="C44">
         <v>0.05</v>
       </c>
       <c r="D44">
-        <v>0.206</v>
+        <v>0.2048</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1751,13 +1751,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.2583</v>
+        <v>0.2571</v>
       </c>
       <c r="C45">
         <v>0.0503</v>
       </c>
       <c r="D45">
-        <v>0.208</v>
+        <v>0.2068</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1765,13 +1765,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.2607</v>
+        <v>0.2594</v>
       </c>
       <c r="C46">
         <v>0.0506</v>
       </c>
       <c r="D46">
-        <v>0.2101</v>
+        <v>0.2089</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1779,13 +1779,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.2628</v>
+        <v>0.2616</v>
       </c>
       <c r="C47">
         <v>0.0507</v>
       </c>
       <c r="D47">
-        <v>0.2122</v>
+        <v>0.2109</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1793,13 +1793,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.2649</v>
+        <v>0.2636</v>
       </c>
       <c r="C48">
         <v>0.0507</v>
       </c>
       <c r="D48">
-        <v>0.2143</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1807,13 +1807,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.2675</v>
+        <v>0.2661</v>
       </c>
       <c r="C49">
         <v>0.0511</v>
       </c>
       <c r="D49">
-        <v>0.2163</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1821,13 +1821,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.2701</v>
+        <v>0.2687</v>
       </c>
       <c r="C50">
         <v>0.0516</v>
       </c>
       <c r="D50">
-        <v>0.2185</v>
+        <v>0.2171</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1835,13 +1835,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.2726</v>
+        <v>0.2712</v>
       </c>
       <c r="C51">
         <v>0.052</v>
       </c>
       <c r="D51">
-        <v>0.2206</v>
+        <v>0.2192</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1849,13 +1849,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.2756</v>
+        <v>0.2742</v>
       </c>
       <c r="C52">
         <v>0.0527</v>
       </c>
       <c r="D52">
-        <v>0.2229</v>
+        <v>0.2215</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1863,13 +1863,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.2785</v>
+        <v>0.277</v>
       </c>
       <c r="C53">
-        <v>0.0533</v>
+        <v>0.0532</v>
       </c>
       <c r="D53">
-        <v>0.2252</v>
+        <v>0.2237</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1877,13 +1877,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.2815</v>
+        <v>0.28</v>
       </c>
       <c r="C54">
         <v>0.0541</v>
       </c>
       <c r="D54">
-        <v>0.2274</v>
+        <v>0.2259</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1891,13 +1891,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.2864</v>
+        <v>0.2849</v>
       </c>
       <c r="C55">
-        <v>0.0557</v>
+        <v>0.0556</v>
       </c>
       <c r="D55">
-        <v>0.2308</v>
+        <v>0.2293</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1905,13 +1905,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.2908</v>
+        <v>0.2892</v>
       </c>
       <c r="C56">
         <v>0.0567</v>
       </c>
       <c r="D56">
-        <v>0.234</v>
+        <v>0.2325</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1919,13 +1919,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.2952</v>
+        <v>0.2936</v>
       </c>
       <c r="C57">
         <v>0.0578</v>
       </c>
       <c r="D57">
-        <v>0.2374</v>
+        <v>0.2359</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1933,13 +1933,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.2997</v>
+        <v>0.2982</v>
       </c>
       <c r="C58">
         <v>0.059</v>
       </c>
       <c r="D58">
-        <v>0.2407</v>
+        <v>0.2392</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1947,13 +1947,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3041</v>
+        <v>0.3026</v>
       </c>
       <c r="C59">
-        <v>0.0602</v>
+        <v>0.0601</v>
       </c>
       <c r="D59">
-        <v>0.244</v>
+        <v>0.2424</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1961,13 +1961,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3085</v>
+        <v>0.307</v>
       </c>
       <c r="C60">
         <v>0.0609</v>
       </c>
       <c r="D60">
-        <v>0.2476</v>
+        <v>0.2461</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1975,13 +1975,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.3128</v>
+        <v>0.3112</v>
       </c>
       <c r="C61">
-        <v>0.0617</v>
+        <v>0.0616</v>
       </c>
       <c r="D61">
-        <v>0.2511</v>
+        <v>0.2496</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1989,13 +1989,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.3165</v>
+        <v>0.315</v>
       </c>
       <c r="C62">
         <v>0.0622</v>
       </c>
       <c r="D62">
-        <v>0.2543</v>
+        <v>0.2528</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2003,13 +2003,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3205</v>
+        <v>0.3189</v>
       </c>
       <c r="C63">
         <v>0.063</v>
       </c>
       <c r="D63">
-        <v>0.2574</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2017,13 +2017,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.3241</v>
+        <v>0.3226</v>
       </c>
       <c r="C64">
         <v>0.06370000000000001</v>
       </c>
       <c r="D64">
-        <v>0.2604</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2031,13 +2031,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.3276</v>
+        <v>0.3262</v>
       </c>
       <c r="C65">
         <v>0.0644</v>
       </c>
       <c r="D65">
-        <v>0.2632</v>
+        <v>0.2618</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2045,13 +2045,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.3309</v>
+        <v>0.3294</v>
       </c>
       <c r="C66">
         <v>0.0648</v>
       </c>
       <c r="D66">
-        <v>0.266</v>
+        <v>0.2646</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2059,13 +2059,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.3341</v>
+        <v>0.3326</v>
       </c>
       <c r="C67">
-        <v>0.06519999999999999</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="D67">
-        <v>0.2689</v>
+        <v>0.2675</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2073,13 +2073,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.3372</v>
+        <v>0.3358</v>
       </c>
       <c r="C68">
         <v>0.0655</v>
       </c>
       <c r="D68">
-        <v>0.2717</v>
+        <v>0.2704</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2087,13 +2087,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.3395</v>
+        <v>0.3381</v>
       </c>
       <c r="C69">
-        <v>0.0653</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="D69">
-        <v>0.2742</v>
+        <v>0.2729</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2101,13 +2101,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.3417</v>
+        <v>0.3404</v>
       </c>
       <c r="C70">
-        <v>0.06519999999999999</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="D70">
-        <v>0.2766</v>
+        <v>0.2753</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2115,13 +2115,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.3441</v>
+        <v>0.3428</v>
       </c>
       <c r="C71">
         <v>0.065</v>
       </c>
       <c r="D71">
-        <v>0.2791</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2129,13 +2129,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.3468</v>
+        <v>0.3455</v>
       </c>
       <c r="C72">
-        <v>0.0654</v>
+        <v>0.0653</v>
       </c>
       <c r="D72">
-        <v>0.2814</v>
+        <v>0.2802</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2143,13 +2143,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.3487</v>
+        <v>0.3475</v>
       </c>
       <c r="C73">
         <v>0.0654</v>
       </c>
       <c r="D73">
-        <v>0.2833</v>
+        <v>0.2821</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2157,13 +2157,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.3499</v>
+        <v>0.3487</v>
       </c>
       <c r="C74">
-        <v>0.0653</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="D74">
-        <v>0.2846</v>
+        <v>0.2835</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2171,13 +2171,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.3497</v>
+        <v>0.3486</v>
       </c>
       <c r="C75">
-        <v>0.0653</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="D75">
-        <v>0.2844</v>
+        <v>0.2833</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2185,13 +2185,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.3489</v>
+        <v>0.3479</v>
       </c>
       <c r="C76">
         <v>0.0648</v>
       </c>
       <c r="D76">
-        <v>0.2841</v>
+        <v>0.2831</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2199,13 +2199,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="C77">
         <v>0.0644</v>
       </c>
       <c r="D77">
-        <v>0.2836</v>
+        <v>0.2826</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2213,13 +2213,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.3462</v>
+        <v>0.3452</v>
       </c>
       <c r="C78">
-        <v>0.06370000000000001</v>
+        <v>0.0636</v>
       </c>
       <c r="D78">
-        <v>0.2826</v>
+        <v>0.2816</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2227,13 +2227,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.3444</v>
+        <v>0.3434</v>
       </c>
       <c r="C79">
-        <v>0.06320000000000001</v>
+        <v>0.0631</v>
       </c>
       <c r="D79">
-        <v>0.2812</v>
+        <v>0.2803</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2241,13 +2241,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.3419</v>
+        <v>0.3409</v>
       </c>
       <c r="C80">
         <v>0.06270000000000001</v>
       </c>
       <c r="D80">
-        <v>0.2792</v>
+        <v>0.2782</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2255,13 +2255,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.3392</v>
+        <v>0.3382</v>
       </c>
       <c r="C81">
         <v>0.0624</v>
       </c>
       <c r="D81">
-        <v>0.2767</v>
+        <v>0.2758</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2269,13 +2269,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.336</v>
+        <v>0.335</v>
       </c>
       <c r="C82">
-        <v>0.062</v>
+        <v>0.0619</v>
       </c>
       <c r="D82">
-        <v>0.274</v>
+        <v>0.2731</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2283,13 +2283,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.3326</v>
+        <v>0.3316</v>
       </c>
       <c r="C83">
-        <v>0.0614</v>
+        <v>0.0613</v>
       </c>
       <c r="D83">
-        <v>0.2712</v>
+        <v>0.2703</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2297,13 +2297,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.3292</v>
+        <v>0.3282</v>
       </c>
       <c r="C84">
-        <v>0.061</v>
+        <v>0.0609</v>
       </c>
       <c r="D84">
-        <v>0.2682</v>
+        <v>0.2672</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2311,13 +2311,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.3249</v>
+        <v>0.3239</v>
       </c>
       <c r="C85">
-        <v>0.0601</v>
+        <v>0.06</v>
       </c>
       <c r="D85">
-        <v>0.2648</v>
+        <v>0.2638</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2325,13 +2325,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.3201</v>
+        <v>0.3191</v>
       </c>
       <c r="C86">
-        <v>0.0592</v>
+        <v>0.0591</v>
       </c>
       <c r="D86">
-        <v>0.2609</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2339,13 +2339,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.3153</v>
+        <v>0.3143</v>
       </c>
       <c r="C87">
         <v>0.0586</v>
       </c>
       <c r="D87">
-        <v>0.2566</v>
+        <v>0.2557</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2353,13 +2353,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.3091</v>
+        <v>0.3082</v>
       </c>
       <c r="C88">
-        <v>0.0577</v>
+        <v>0.0576</v>
       </c>
       <c r="D88">
-        <v>0.2515</v>
+        <v>0.2506</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2367,13 +2367,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.3033</v>
+        <v>0.3023</v>
       </c>
       <c r="C89">
-        <v>0.0572</v>
+        <v>0.0571</v>
       </c>
       <c r="D89">
-        <v>0.2462</v>
+        <v>0.2453</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2381,13 +2381,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.2976</v>
+        <v>0.2966</v>
       </c>
       <c r="C90">
-        <v>0.0568</v>
+        <v>0.0567</v>
       </c>
       <c r="D90">
-        <v>0.2408</v>
+        <v>0.2399</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2395,13 +2395,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.2914</v>
+        <v>0.2903</v>
       </c>
       <c r="C91">
         <v>0.0563</v>
       </c>
       <c r="D91">
-        <v>0.235</v>
+        <v>0.2341</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2409,13 +2409,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.2853</v>
+        <v>0.2843</v>
       </c>
       <c r="C92">
-        <v>0.0558</v>
+        <v>0.0557</v>
       </c>
       <c r="D92">
-        <v>0.2295</v>
+        <v>0.2285</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2423,13 +2423,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.2796</v>
+        <v>0.2786</v>
       </c>
       <c r="C93">
-        <v>0.0557</v>
+        <v>0.0556</v>
       </c>
       <c r="D93">
-        <v>0.2239</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2437,13 +2437,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.2738</v>
+        <v>0.2727</v>
       </c>
       <c r="C94">
-        <v>0.0553</v>
+        <v>0.0552</v>
       </c>
       <c r="D94">
-        <v>0.2184</v>
+        <v>0.2175</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2451,13 +2451,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.2679</v>
+        <v>0.2669</v>
       </c>
       <c r="C95">
-        <v>0.0546</v>
+        <v>0.0545</v>
       </c>
       <c r="D95">
-        <v>0.2133</v>
+        <v>0.2124</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2465,13 +2465,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.2627</v>
+        <v>0.2617</v>
       </c>
       <c r="C96">
-        <v>0.0546</v>
+        <v>0.0545</v>
       </c>
       <c r="D96">
-        <v>0.2081</v>
+        <v>0.2072</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2479,13 +2479,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.257</v>
+        <v>0.256</v>
       </c>
       <c r="C97">
         <v>0.0543</v>
       </c>
       <c r="D97">
-        <v>0.2027</v>
+        <v>0.2018</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2493,13 +2493,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.2519</v>
+        <v>0.2509</v>
       </c>
       <c r="C98">
-        <v>0.0544</v>
+        <v>0.0543</v>
       </c>
       <c r="D98">
-        <v>0.1975</v>
+        <v>0.1966</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2507,13 +2507,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.2472</v>
+        <v>0.2461</v>
       </c>
       <c r="C99">
-        <v>0.0545</v>
+        <v>0.0544</v>
       </c>
       <c r="D99">
-        <v>0.1927</v>
+        <v>0.1917</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2521,13 +2521,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.2422</v>
+        <v>0.2412</v>
       </c>
       <c r="C100">
         <v>0.0546</v>
       </c>
       <c r="D100">
-        <v>0.1876</v>
+        <v>0.1866</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2535,13 +2535,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.2372</v>
+        <v>0.2362</v>
       </c>
       <c r="C101">
         <v>0.0545</v>
       </c>
       <c r="D101">
-        <v>0.1827</v>
+        <v>0.1818</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2549,13 +2549,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.2334</v>
+        <v>0.2324</v>
       </c>
       <c r="C102">
         <v>0.0547</v>
       </c>
       <c r="D102">
-        <v>0.1787</v>
+        <v>0.1778</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2563,13 +2563,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.2299</v>
+        <v>0.2289</v>
       </c>
       <c r="C103">
         <v>0.0552</v>
       </c>
       <c r="D103">
-        <v>0.1747</v>
+        <v>0.1738</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2577,13 +2577,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.2266</v>
+        <v>0.2256</v>
       </c>
       <c r="C104">
-        <v>0.0557</v>
+        <v>0.0556</v>
       </c>
       <c r="D104">
-        <v>0.1709</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2591,13 +2591,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.2245</v>
+        <v>0.2235</v>
       </c>
       <c r="C105">
-        <v>0.0566</v>
+        <v>0.0565</v>
       </c>
       <c r="D105">
-        <v>0.1679</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2605,13 +2605,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.2228</v>
+        <v>0.2217</v>
       </c>
       <c r="C106">
         <v>0.0573</v>
       </c>
       <c r="D106">
-        <v>0.1654</v>
+        <v>0.1645</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2619,13 +2619,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.2211</v>
+        <v>0.22</v>
       </c>
       <c r="C107">
-        <v>0.0578</v>
+        <v>0.0577</v>
       </c>
       <c r="D107">
-        <v>0.1633</v>
+        <v>0.1623</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2633,13 +2633,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.2196</v>
+        <v>0.2186</v>
       </c>
       <c r="C108">
-        <v>0.0582</v>
+        <v>0.0581</v>
       </c>
       <c r="D108">
-        <v>0.1614</v>
+        <v>0.1605</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2647,13 +2647,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.218</v>
+        <v>0.217</v>
       </c>
       <c r="C109">
-        <v>0.0583</v>
+        <v>0.0582</v>
       </c>
       <c r="D109">
-        <v>0.1597</v>
+        <v>0.1587</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2661,13 +2661,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.2156</v>
+        <v>0.2146</v>
       </c>
       <c r="C110">
-        <v>0.0581</v>
+        <v>0.058</v>
       </c>
       <c r="D110">
-        <v>0.1575</v>
+        <v>0.1566</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2675,13 +2675,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.2129</v>
+        <v>0.2119</v>
       </c>
       <c r="C111">
-        <v>0.0578</v>
+        <v>0.0577</v>
       </c>
       <c r="D111">
-        <v>0.1552</v>
+        <v>0.1542</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2689,13 +2689,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.2101</v>
+        <v>0.2091</v>
       </c>
       <c r="C112">
         <v>0.0575</v>
       </c>
       <c r="D112">
-        <v>0.1526</v>
+        <v>0.1516</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2703,13 +2703,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.2071</v>
+        <v>0.2061</v>
       </c>
       <c r="C113">
-        <v>0.0571</v>
+        <v>0.057</v>
       </c>
       <c r="D113">
-        <v>0.15</v>
+        <v>0.1491</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2717,13 +2717,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.2047</v>
+        <v>0.2037</v>
       </c>
       <c r="C114">
         <v>0.057</v>
       </c>
       <c r="D114">
-        <v>0.1476</v>
+        <v>0.1467</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2731,13 +2731,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.2019</v>
+        <v>0.201</v>
       </c>
       <c r="C115">
         <v>0.057</v>
       </c>
       <c r="D115">
-        <v>0.1449</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2745,13 +2745,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.1987</v>
+        <v>0.1978</v>
       </c>
       <c r="C116">
         <v>0.0568</v>
       </c>
       <c r="D116">
-        <v>0.142</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2759,13 +2759,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.1965</v>
+        <v>0.1955</v>
       </c>
       <c r="C117">
         <v>0.0573</v>
       </c>
       <c r="D117">
-        <v>0.1392</v>
+        <v>0.1383</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2773,13 +2773,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.1936</v>
+        <v>0.1927</v>
       </c>
       <c r="C118">
         <v>0.0573</v>
       </c>
       <c r="D118">
-        <v>0.1364</v>
+        <v>0.1354</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2787,13 +2787,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.1901</v>
+        <v>0.1891</v>
       </c>
       <c r="C119">
-        <v>0.057</v>
+        <v>0.0569</v>
       </c>
       <c r="D119">
-        <v>0.1331</v>
+        <v>0.1322</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2801,13 +2801,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.1866</v>
+        <v>0.1856</v>
       </c>
       <c r="C120">
         <v>0.0567</v>
       </c>
       <c r="D120">
-        <v>0.1299</v>
+        <v>0.1289</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2815,13 +2815,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.1831</v>
+        <v>0.1822</v>
       </c>
       <c r="C121">
         <v>0.0565</v>
       </c>
       <c r="D121">
-        <v>0.1266</v>
+        <v>0.1257</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2829,13 +2829,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.1796</v>
+        <v>0.1787</v>
       </c>
       <c r="C122">
-        <v>0.0566</v>
+        <v>0.0565</v>
       </c>
       <c r="D122">
-        <v>0.1231</v>
+        <v>0.1222</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2843,13 +2843,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.1762</v>
+        <v>0.1753</v>
       </c>
       <c r="C123">
-        <v>0.0566</v>
+        <v>0.0565</v>
       </c>
       <c r="D123">
-        <v>0.1197</v>
+        <v>0.1187</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2857,13 +2857,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.1727</v>
+        <v>0.1717</v>
       </c>
       <c r="C124">
         <v>0.0564</v>
       </c>
       <c r="D124">
-        <v>0.1162</v>
+        <v>0.1153</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2871,13 +2871,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.1679</v>
+        <v>0.1669</v>
       </c>
       <c r="C125">
         <v>0.0558</v>
       </c>
       <c r="D125">
-        <v>0.1121</v>
+        <v>0.1112</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2885,13 +2885,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.1629</v>
+        <v>0.162</v>
       </c>
       <c r="C126">
         <v>0.0553</v>
       </c>
       <c r="D126">
-        <v>0.1076</v>
+        <v>0.1067</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2899,13 +2899,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.1577</v>
+        <v>0.1567</v>
       </c>
       <c r="C127">
-        <v>0.0548</v>
+        <v>0.0547</v>
       </c>
       <c r="D127">
-        <v>0.1029</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2913,13 +2913,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.1535</v>
+        <v>0.1526</v>
       </c>
       <c r="C128">
         <v>0.0548</v>
       </c>
       <c r="D128">
-        <v>0.0987</v>
+        <v>0.0978</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2927,13 +2927,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="C129">
-        <v>0.0551</v>
+        <v>0.055</v>
       </c>
       <c r="D129">
-        <v>0.0948</v>
+        <v>0.0939</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2941,13 +2941,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.1465</v>
+        <v>0.1455</v>
       </c>
       <c r="C130">
-        <v>0.0553</v>
+        <v>0.0552</v>
       </c>
       <c r="D130">
-        <v>0.0912</v>
+        <v>0.09030000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2955,13 +2955,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.1438</v>
+        <v>0.1428</v>
       </c>
       <c r="C131">
-        <v>0.0556</v>
+        <v>0.0555</v>
       </c>
       <c r="D131">
-        <v>0.0882</v>
+        <v>0.0873</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2969,13 +2969,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.1417</v>
+        <v>0.1407</v>
       </c>
       <c r="C132">
-        <v>0.0558</v>
+        <v>0.0557</v>
       </c>
       <c r="D132">
-        <v>0.0859</v>
+        <v>0.0849</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2983,13 +2983,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.14</v>
+        <v>0.139</v>
       </c>
       <c r="C133">
-        <v>0.0562</v>
+        <v>0.0561</v>
       </c>
       <c r="D133">
-        <v>0.0839</v>
+        <v>0.0829</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2997,13 +2997,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.1383</v>
+        <v>0.1373</v>
       </c>
       <c r="C134">
-        <v>0.0562</v>
+        <v>0.0561</v>
       </c>
       <c r="D134">
-        <v>0.0822</v>
+        <v>0.08119999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3011,13 +3011,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.1371</v>
+        <v>0.136</v>
       </c>
       <c r="C135">
-        <v>0.0564</v>
+        <v>0.0563</v>
       </c>
       <c r="D135">
-        <v>0.08069999999999999</v>
+        <v>0.0798</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3025,13 +3025,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.1367</v>
+        <v>0.1356</v>
       </c>
       <c r="C136">
         <v>0.0564</v>
       </c>
       <c r="D136">
-        <v>0.0803</v>
+        <v>0.0793</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3039,13 +3039,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.1367</v>
+        <v>0.1356</v>
       </c>
       <c r="C137">
-        <v>0.0561</v>
+        <v>0.056</v>
       </c>
       <c r="D137">
-        <v>0.08069999999999999</v>
+        <v>0.07969999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3053,13 +3053,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.1377</v>
+        <v>0.1366</v>
       </c>
       <c r="C138">
-        <v>0.0563</v>
+        <v>0.0562</v>
       </c>
       <c r="D138">
-        <v>0.0814</v>
+        <v>0.0804</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3067,13 +3067,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.1391</v>
+        <v>0.138</v>
       </c>
       <c r="C139">
-        <v>0.0566</v>
+        <v>0.0565</v>
       </c>
       <c r="D139">
-        <v>0.08260000000000001</v>
+        <v>0.0815</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3081,13 +3081,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.1414</v>
+        <v>0.1403</v>
       </c>
       <c r="C140">
-        <v>0.0571</v>
+        <v>0.057</v>
       </c>
       <c r="D140">
-        <v>0.0844</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3095,13 +3095,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.144</v>
+        <v>0.1429</v>
       </c>
       <c r="C141">
-        <v>0.0576</v>
+        <v>0.0575</v>
       </c>
       <c r="D141">
-        <v>0.0864</v>
+        <v>0.0854</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3109,13 +3109,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.1459</v>
+        <v>0.1448</v>
       </c>
       <c r="C142">
-        <v>0.0576</v>
+        <v>0.0575</v>
       </c>
       <c r="D142">
-        <v>0.0883</v>
+        <v>0.0873</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3123,13 +3123,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.1481</v>
+        <v>0.147</v>
       </c>
       <c r="C143">
-        <v>0.0578</v>
+        <v>0.0577</v>
       </c>
       <c r="D143">
-        <v>0.09030000000000001</v>
+        <v>0.0893</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3137,13 +3137,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.1503</v>
+        <v>0.1492</v>
       </c>
       <c r="C144">
-        <v>0.058</v>
+        <v>0.0578</v>
       </c>
       <c r="D144">
-        <v>0.0924</v>
+        <v>0.0914</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3151,13 +3151,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.1533</v>
+        <v>0.1522</v>
       </c>
       <c r="C145">
-        <v>0.0585</v>
+        <v>0.0584</v>
       </c>
       <c r="D145">
-        <v>0.09470000000000001</v>
+        <v>0.09370000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3165,13 +3165,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.157</v>
+        <v>0.1559</v>
       </c>
       <c r="C146">
-        <v>0.0596</v>
+        <v>0.0595</v>
       </c>
       <c r="D146">
-        <v>0.0974</v>
+        <v>0.0964</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3179,13 +3179,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.1612</v>
+        <v>0.1601</v>
       </c>
       <c r="C147">
-        <v>0.0611</v>
+        <v>0.061</v>
       </c>
       <c r="D147">
-        <v>0.1001</v>
+        <v>0.09909999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3193,13 +3193,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.1652</v>
+        <v>0.1641</v>
       </c>
       <c r="C148">
-        <v>0.0626</v>
+        <v>0.0625</v>
       </c>
       <c r="D148">
-        <v>0.1026</v>
+        <v>0.1016</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3207,13 +3207,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.1689</v>
+        <v>0.1678</v>
       </c>
       <c r="C149">
-        <v>0.0639</v>
+        <v>0.0638</v>
       </c>
       <c r="D149">
-        <v>0.105</v>
+        <v>0.1041</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3221,13 +3221,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.1724</v>
+        <v>0.1714</v>
       </c>
       <c r="C150">
-        <v>0.06519999999999999</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="D150">
-        <v>0.1073</v>
+        <v>0.1063</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3235,13 +3235,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.1759</v>
+        <v>0.1748</v>
       </c>
       <c r="C151">
-        <v>0.0667</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="D151">
-        <v>0.1091</v>
+        <v>0.1082</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3249,13 +3249,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.1785</v>
+        <v>0.1774</v>
       </c>
       <c r="C152">
-        <v>0.06809999999999999</v>
+        <v>0.0679</v>
       </c>
       <c r="D152">
-        <v>0.1105</v>
+        <v>0.1095</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3263,13 +3263,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.1807</v>
+        <v>0.1796</v>
       </c>
       <c r="C153">
-        <v>0.0692</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D153">
-        <v>0.1115</v>
+        <v>0.1105</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3277,13 +3277,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.183</v>
+        <v>0.1819</v>
       </c>
       <c r="C154">
-        <v>0.0704</v>
+        <v>0.0703</v>
       </c>
       <c r="D154">
-        <v>0.1126</v>
+        <v>0.1116</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3291,13 +3291,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.1846</v>
+        <v>0.1835</v>
       </c>
       <c r="C155">
-        <v>0.0712</v>
+        <v>0.0711</v>
       </c>
       <c r="D155">
-        <v>0.1134</v>
+        <v>0.1124</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3305,13 +3305,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.1849</v>
+        <v>0.1838</v>
       </c>
       <c r="C156">
-        <v>0.07149999999999999</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="D156">
-        <v>0.1134</v>
+        <v>0.1124</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3319,13 +3319,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.1845</v>
+        <v>0.1834</v>
       </c>
       <c r="C157">
-        <v>0.07199999999999999</v>
+        <v>0.0718</v>
       </c>
       <c r="D157">
-        <v>0.1126</v>
+        <v>0.1116</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3333,13 +3333,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.1832</v>
+        <v>0.1821</v>
       </c>
       <c r="C158">
-        <v>0.0718</v>
+        <v>0.0717</v>
       </c>
       <c r="D158">
-        <v>0.1114</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3347,13 +3347,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.182</v>
+        <v>0.1808</v>
       </c>
       <c r="C159">
-        <v>0.07190000000000001</v>
+        <v>0.0718</v>
       </c>
       <c r="D159">
-        <v>0.1101</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3361,13 +3361,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.1797</v>
+        <v>0.1786</v>
       </c>
       <c r="C160">
-        <v>0.0716</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="D160">
-        <v>0.1082</v>
+        <v>0.1071</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3375,13 +3375,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.1773</v>
+        <v>0.1761</v>
       </c>
       <c r="C161">
-        <v>0.0712</v>
+        <v>0.0711</v>
       </c>
       <c r="D161">
-        <v>0.1061</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3389,13 +3389,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.1749</v>
+        <v>0.1737</v>
       </c>
       <c r="C162">
-        <v>0.07099999999999999</v>
+        <v>0.0709</v>
       </c>
       <c r="D162">
-        <v>0.1039</v>
+        <v>0.1029</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3403,13 +3403,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.173</v>
+        <v>0.1717</v>
       </c>
       <c r="C163">
-        <v>0.0713</v>
+        <v>0.0712</v>
       </c>
       <c r="D163">
-        <v>0.1017</v>
+        <v>0.1006</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3417,13 +3417,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.1709</v>
+        <v>0.1696</v>
       </c>
       <c r="C164">
-        <v>0.0717</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="D164">
-        <v>0.0992</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3431,13 +3431,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.1697</v>
+        <v>0.1684</v>
       </c>
       <c r="C165">
-        <v>0.0727</v>
+        <v>0.0726</v>
       </c>
       <c r="D165">
-        <v>0.097</v>
+        <v>0.0958</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3445,13 +3445,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.1693</v>
+        <v>0.1679</v>
       </c>
       <c r="C166">
-        <v>0.0745</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="D166">
-        <v>0.09470000000000001</v>
+        <v>0.0935</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3459,13 +3459,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.1678</v>
+        <v>0.1663</v>
       </c>
       <c r="C167">
-        <v>0.07539999999999999</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="D167">
-        <v>0.09229999999999999</v>
+        <v>0.0911</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3473,13 +3473,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.1653</v>
+        <v>0.1638</v>
       </c>
       <c r="C168">
-        <v>0.0752</v>
+        <v>0.075</v>
       </c>
       <c r="D168">
-        <v>0.09</v>
+        <v>0.0887</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3487,13 +3487,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.1626</v>
+        <v>0.161</v>
       </c>
       <c r="C169">
-        <v>0.0747</v>
+        <v>0.0745</v>
       </c>
       <c r="D169">
-        <v>0.0878</v>
+        <v>0.08649999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3501,13 +3501,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.1608</v>
+        <v>0.1593</v>
       </c>
       <c r="C170">
-        <v>0.07489999999999999</v>
+        <v>0.0747</v>
       </c>
       <c r="D170">
-        <v>0.0859</v>
+        <v>0.08459999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3515,13 +3515,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.1596</v>
+        <v>0.158</v>
       </c>
       <c r="C171">
-        <v>0.0755</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="D171">
-        <v>0.0842</v>
+        <v>0.0828</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3529,13 +3529,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.1579</v>
+        <v>0.1563</v>
       </c>
       <c r="C172">
-        <v>0.0756</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="D172">
-        <v>0.0823</v>
+        <v>0.0809</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3543,13 +3543,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.1565</v>
+        <v>0.1549</v>
       </c>
       <c r="C173">
-        <v>0.0757</v>
+        <v>0.0755</v>
       </c>
       <c r="D173">
-        <v>0.0808</v>
+        <v>0.0793</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3557,13 +3557,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.1554</v>
+        <v>0.1538</v>
       </c>
       <c r="C174">
-        <v>0.0761</v>
+        <v>0.0759</v>
       </c>
       <c r="D174">
-        <v>0.0793</v>
+        <v>0.0779</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3571,13 +3571,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.1552</v>
+        <v>0.1535</v>
       </c>
       <c r="C175">
-        <v>0.0769</v>
+        <v>0.0767</v>
       </c>
       <c r="D175">
-        <v>0.07829999999999999</v>
+        <v>0.07679999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3585,13 +3585,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.1565</v>
+        <v>0.1549</v>
       </c>
       <c r="C176">
-        <v>0.07870000000000001</v>
+        <v>0.0785</v>
       </c>
       <c r="D176">
-        <v>0.07779999999999999</v>
+        <v>0.0764</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3599,13 +3599,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.1581</v>
+        <v>0.1564</v>
       </c>
       <c r="C177">
-        <v>0.0803</v>
+        <v>0.0801</v>
       </c>
       <c r="D177">
-        <v>0.07779999999999999</v>
+        <v>0.07630000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3613,13 +3613,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.1608</v>
+        <v>0.1591</v>
       </c>
       <c r="C178">
-        <v>0.0824</v>
+        <v>0.0822</v>
       </c>
       <c r="D178">
-        <v>0.07829999999999999</v>
+        <v>0.0769</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3627,13 +3627,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.1632</v>
+        <v>0.1615</v>
       </c>
       <c r="C179">
-        <v>0.08400000000000001</v>
+        <v>0.0838</v>
       </c>
       <c r="D179">
-        <v>0.07920000000000001</v>
+        <v>0.07770000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3641,13 +3641,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.1666</v>
+        <v>0.1649</v>
       </c>
       <c r="C180">
-        <v>0.0862</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="D180">
-        <v>0.0804</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3655,13 +3655,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.1698</v>
+        <v>0.168</v>
       </c>
       <c r="C181">
-        <v>0.08790000000000001</v>
+        <v>0.0876</v>
       </c>
       <c r="D181">
-        <v>0.0819</v>
+        <v>0.0804</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3669,13 +3669,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.1732</v>
+        <v>0.1715</v>
       </c>
       <c r="C182">
-        <v>0.0896</v>
+        <v>0.08939999999999999</v>
       </c>
       <c r="D182">
-        <v>0.08359999999999999</v>
+        <v>0.08210000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3683,13 +3683,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.1764</v>
+        <v>0.1747</v>
       </c>
       <c r="C183">
-        <v>0.09080000000000001</v>
+        <v>0.0906</v>
       </c>
       <c r="D183">
-        <v>0.0856</v>
+        <v>0.08409999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3697,13 +3697,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.1802</v>
+        <v>0.1785</v>
       </c>
       <c r="C184">
-        <v>0.092</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="D184">
-        <v>0.0882</v>
+        <v>0.0867</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3711,13 +3711,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.1831</v>
+        <v>0.1814</v>
       </c>
       <c r="C185">
-        <v>0.0925</v>
+        <v>0.0922</v>
       </c>
       <c r="D185">
-        <v>0.0906</v>
+        <v>0.0891</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3725,13 +3725,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.1847</v>
+        <v>0.183</v>
       </c>
       <c r="C186">
-        <v>0.0916</v>
+        <v>0.0914</v>
       </c>
       <c r="D186">
-        <v>0.09320000000000001</v>
+        <v>0.0917</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3739,13 +3739,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.1873</v>
+        <v>0.1856</v>
       </c>
       <c r="C187">
-        <v>0.0912</v>
+        <v>0.091</v>
       </c>
       <c r="D187">
-        <v>0.0961</v>
+        <v>0.0946</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3753,13 +3753,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.1913</v>
+        <v>0.1896</v>
       </c>
       <c r="C188">
-        <v>0.092</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="D188">
-        <v>0.0993</v>
+        <v>0.0978</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3767,13 +3767,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.1957</v>
+        <v>0.194</v>
       </c>
       <c r="C189">
-        <v>0.0929</v>
+        <v>0.0927</v>
       </c>
       <c r="D189">
-        <v>0.1029</v>
+        <v>0.1014</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3781,13 +3781,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.1994</v>
+        <v>0.1977</v>
       </c>
       <c r="C190">
-        <v>0.093</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="D190">
-        <v>0.1064</v>
+        <v>0.1049</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3795,13 +3795,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.2029</v>
+        <v>0.2012</v>
       </c>
       <c r="C191">
-        <v>0.09279999999999999</v>
+        <v>0.0926</v>
       </c>
       <c r="D191">
-        <v>0.1101</v>
+        <v>0.1086</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3809,13 +3809,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.2068</v>
+        <v>0.2051</v>
       </c>
       <c r="C192">
-        <v>0.0929</v>
+        <v>0.0927</v>
       </c>
       <c r="D192">
-        <v>0.1138</v>
+        <v>0.1123</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3823,13 +3823,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.2103</v>
+        <v>0.2087</v>
       </c>
       <c r="C193">
-        <v>0.0929</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="D193">
-        <v>0.1174</v>
+        <v>0.1159</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3837,13 +3837,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.2146</v>
+        <v>0.2129</v>
       </c>
       <c r="C194">
-        <v>0.0936</v>
+        <v>0.0935</v>
       </c>
       <c r="D194">
-        <v>0.1209</v>
+        <v>0.1194</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3851,13 +3851,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.2189</v>
+        <v>0.2172</v>
       </c>
       <c r="C195">
-        <v>0.0941</v>
+        <v>0.094</v>
       </c>
       <c r="D195">
-        <v>0.1248</v>
+        <v>0.1233</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3865,13 +3865,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.2224</v>
+        <v>0.2207</v>
       </c>
       <c r="C196">
-        <v>0.0941</v>
+        <v>0.094</v>
       </c>
       <c r="D196">
-        <v>0.1283</v>
+        <v>0.1267</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3879,13 +3879,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.2255</v>
+        <v>0.2238</v>
       </c>
       <c r="C197">
-        <v>0.0939</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="D197">
-        <v>0.1316</v>
+        <v>0.1301</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3893,13 +3893,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.2281</v>
+        <v>0.2264</v>
       </c>
       <c r="C198">
-        <v>0.0936</v>
+        <v>0.0935</v>
       </c>
       <c r="D198">
-        <v>0.1345</v>
+        <v>0.1329</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3907,13 +3907,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.2306</v>
+        <v>0.229</v>
       </c>
       <c r="C199">
-        <v>0.0936</v>
+        <v>0.0935</v>
       </c>
       <c r="D199">
-        <v>0.137</v>
+        <v>0.1355</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3921,13 +3921,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.2323</v>
+        <v>0.2307</v>
       </c>
       <c r="C200">
-        <v>0.0931</v>
+        <v>0.093</v>
       </c>
       <c r="D200">
-        <v>0.1392</v>
+        <v>0.1377</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3935,13 +3935,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.2342</v>
+        <v>0.2327</v>
       </c>
       <c r="C201">
-        <v>0.09320000000000001</v>
+        <v>0.0931</v>
       </c>
       <c r="D201">
-        <v>0.1411</v>
+        <v>0.1396</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3949,13 +3949,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.2354</v>
+        <v>0.2339</v>
       </c>
       <c r="C202">
-        <v>0.09279999999999999</v>
+        <v>0.0927</v>
       </c>
       <c r="D202">
-        <v>0.1426</v>
+        <v>0.1411</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3963,13 +3963,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.2363</v>
+        <v>0.2347</v>
       </c>
       <c r="C203">
-        <v>0.0922</v>
+        <v>0.0921</v>
       </c>
       <c r="D203">
-        <v>0.1441</v>
+        <v>0.1426</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3977,13 +3977,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.2362</v>
+        <v>0.2347</v>
       </c>
       <c r="C204">
-        <v>0.09130000000000001</v>
+        <v>0.0912</v>
       </c>
       <c r="D204">
-        <v>0.1449</v>
+        <v>0.1435</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3991,13 +3991,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.2358</v>
+        <v>0.2343</v>
       </c>
       <c r="C205">
-        <v>0.09030000000000001</v>
+        <v>0.0902</v>
       </c>
       <c r="D205">
-        <v>0.1455</v>
+        <v>0.1441</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4005,13 +4005,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.2358</v>
+        <v>0.2344</v>
       </c>
       <c r="C206">
-        <v>0.0896</v>
+        <v>0.0895</v>
       </c>
       <c r="D206">
-        <v>0.1463</v>
+        <v>0.1449</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4019,13 +4019,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.236</v>
+        <v>0.2345</v>
       </c>
       <c r="C207">
         <v>0.089</v>
       </c>
       <c r="D207">
-        <v>0.147</v>
+        <v>0.1456</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4033,13 +4033,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.236</v>
+        <v>0.2346</v>
       </c>
       <c r="C208">
-        <v>0.0888</v>
+        <v>0.0887</v>
       </c>
       <c r="D208">
-        <v>0.1472</v>
+        <v>0.1459</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4047,13 +4047,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.2356</v>
+        <v>0.2342</v>
       </c>
       <c r="C209">
-        <v>0.0887</v>
+        <v>0.0886</v>
       </c>
       <c r="D209">
-        <v>0.1469</v>
+        <v>0.1456</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4061,13 +4061,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.2358</v>
+        <v>0.2345</v>
       </c>
       <c r="C210">
         <v>0.0893</v>
       </c>
       <c r="D210">
-        <v>0.1465</v>
+        <v>0.1452</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4075,13 +4075,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.2352</v>
+        <v>0.2338</v>
       </c>
       <c r="C211">
-        <v>0.0895</v>
+        <v>0.08939999999999999</v>
       </c>
       <c r="D211">
-        <v>0.1457</v>
+        <v>0.1444</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4089,13 +4089,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.2346</v>
+        <v>0.2333</v>
       </c>
       <c r="C212">
-        <v>0.0898</v>
+        <v>0.0897</v>
       </c>
       <c r="D212">
-        <v>0.1448</v>
+        <v>0.1435</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4103,13 +4103,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.2338</v>
+        <v>0.2325</v>
       </c>
       <c r="C213">
-        <v>0.09</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="D213">
-        <v>0.1438</v>
+        <v>0.1426</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4117,13 +4117,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.232</v>
+        <v>0.2307</v>
       </c>
       <c r="C214">
-        <v>0.0891</v>
+        <v>0.089</v>
       </c>
       <c r="D214">
-        <v>0.1429</v>
+        <v>0.1417</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4131,13 +4131,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.2292</v>
+        <v>0.228</v>
       </c>
       <c r="C215">
-        <v>0.08790000000000001</v>
+        <v>0.0878</v>
       </c>
       <c r="D215">
-        <v>0.1414</v>
+        <v>0.1402</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4145,13 +4145,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.2264</v>
+        <v>0.2252</v>
       </c>
       <c r="C216">
         <v>0.0864</v>
       </c>
       <c r="D216">
-        <v>0.14</v>
+        <v>0.1388</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4159,13 +4159,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.2232</v>
+        <v>0.222</v>
       </c>
       <c r="C217">
         <v>0.0849</v>
       </c>
       <c r="D217">
-        <v>0.1382</v>
+        <v>0.1371</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4173,13 +4173,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.2204</v>
+        <v>0.2192</v>
       </c>
       <c r="C218">
-        <v>0.0838</v>
+        <v>0.0837</v>
       </c>
       <c r="D218">
-        <v>0.1366</v>
+        <v>0.1355</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4187,13 +4187,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.2173</v>
+        <v>0.2162</v>
       </c>
       <c r="C219">
-        <v>0.0824</v>
+        <v>0.0823</v>
       </c>
       <c r="D219">
-        <v>0.1349</v>
+        <v>0.1338</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4201,13 +4201,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.215</v>
+        <v>0.2138</v>
       </c>
       <c r="C220">
-        <v>0.0814</v>
+        <v>0.0813</v>
       </c>
       <c r="D220">
-        <v>0.1336</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4215,13 +4215,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.2131</v>
+        <v>0.2119</v>
       </c>
       <c r="C221">
-        <v>0.0805</v>
+        <v>0.0804</v>
       </c>
       <c r="D221">
-        <v>0.1326</v>
+        <v>0.1315</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4229,13 +4229,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.2133</v>
+        <v>0.2121</v>
       </c>
       <c r="C222">
-        <v>0.08119999999999999</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="D222">
-        <v>0.1321</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4243,13 +4243,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.2136</v>
+        <v>0.2124</v>
       </c>
       <c r="C223">
         <v>0.08169999999999999</v>
       </c>
       <c r="D223">
-        <v>0.1319</v>
+        <v>0.1307</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4257,13 +4257,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.216</v>
+        <v>0.2148</v>
       </c>
       <c r="C224">
         <v>0.083</v>
       </c>
       <c r="D224">
-        <v>0.133</v>
+        <v>0.1318</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4271,13 +4271,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.219</v>
+        <v>0.2178</v>
       </c>
       <c r="C225">
-        <v>0.08450000000000001</v>
+        <v>0.0844</v>
       </c>
       <c r="D225">
-        <v>0.1345</v>
+        <v>0.1333</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4285,13 +4285,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.2214</v>
+        <v>0.2202</v>
       </c>
       <c r="C226">
-        <v>0.0858</v>
+        <v>0.0857</v>
       </c>
       <c r="D226">
-        <v>0.1356</v>
+        <v>0.1344</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4299,13 +4299,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.2234</v>
+        <v>0.2221</v>
       </c>
       <c r="C227">
-        <v>0.08690000000000001</v>
+        <v>0.0868</v>
       </c>
       <c r="D227">
-        <v>0.1365</v>
+        <v>0.1353</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4313,13 +4313,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.2249</v>
+        <v>0.2237</v>
       </c>
       <c r="C228">
-        <v>0.08740000000000001</v>
+        <v>0.0873</v>
       </c>
       <c r="D228">
-        <v>0.1376</v>
+        <v>0.1364</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4327,13 +4327,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.2263</v>
+        <v>0.2251</v>
       </c>
       <c r="C229">
-        <v>0.0877</v>
+        <v>0.0876</v>
       </c>
       <c r="D229">
-        <v>0.1385</v>
+        <v>0.1374</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4341,13 +4341,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.2267</v>
+        <v>0.2255</v>
       </c>
       <c r="C230">
         <v>0.0873</v>
       </c>
       <c r="D230">
-        <v>0.1394</v>
+        <v>0.1383</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4355,13 +4355,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.2272</v>
+        <v>0.2261</v>
       </c>
       <c r="C231">
         <v>0.08699999999999999</v>
       </c>
       <c r="D231">
-        <v>0.1402</v>
+        <v>0.1391</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4369,13 +4369,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.2281</v>
+        <v>0.2269</v>
       </c>
       <c r="C232">
         <v>0.08699999999999999</v>
       </c>
       <c r="D232">
-        <v>0.141</v>
+        <v>0.1399</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4383,13 +4383,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.2293</v>
+        <v>0.2282</v>
       </c>
       <c r="C233">
-        <v>0.0876</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="D233">
-        <v>0.1417</v>
+        <v>0.1407</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4397,13 +4397,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.2302</v>
+        <v>0.2291</v>
       </c>
       <c r="C234">
         <v>0.0882</v>
       </c>
       <c r="D234">
-        <v>0.142</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4411,13 +4411,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.2317</v>
+        <v>0.2306</v>
       </c>
       <c r="C235">
-        <v>0.0893</v>
+        <v>0.0892</v>
       </c>
       <c r="D235">
-        <v>0.1424</v>
+        <v>0.1414</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4425,13 +4425,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.2326</v>
+        <v>0.2316</v>
       </c>
       <c r="C236">
-        <v>0.0902</v>
+        <v>0.0901</v>
       </c>
       <c r="D236">
-        <v>0.1425</v>
+        <v>0.1414</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4439,13 +4439,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.2339</v>
+        <v>0.2328</v>
       </c>
       <c r="C237">
-        <v>0.0914</v>
+        <v>0.09130000000000001</v>
       </c>
       <c r="D237">
-        <v>0.1425</v>
+        <v>0.1415</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4453,13 +4453,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.2356</v>
+        <v>0.2346</v>
       </c>
       <c r="C238">
-        <v>0.093</v>
+        <v>0.0929</v>
       </c>
       <c r="D238">
-        <v>0.1426</v>
+        <v>0.1416</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4467,13 +4467,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.2373</v>
+        <v>0.2363</v>
       </c>
       <c r="C239">
-        <v>0.09470000000000001</v>
+        <v>0.0946</v>
       </c>
       <c r="D239">
-        <v>0.1426</v>
+        <v>0.1417</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4481,13 +4481,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.2382</v>
+        <v>0.2372</v>
       </c>
       <c r="C240">
         <v>0.0956</v>
       </c>
       <c r="D240">
-        <v>0.1426</v>
+        <v>0.1416</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4495,13 +4495,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.2405</v>
+        <v>0.2395</v>
       </c>
       <c r="C241">
-        <v>0.098</v>
+        <v>0.0979</v>
       </c>
       <c r="D241">
-        <v>0.1425</v>
+        <v>0.1416</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4509,13 +4509,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.2405</v>
+        <v>0.2394</v>
       </c>
       <c r="C242">
-        <v>0.0985</v>
+        <v>0.0984</v>
       </c>
       <c r="D242">
-        <v>0.142</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4523,13 +4523,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.2397</v>
+        <v>0.2387</v>
       </c>
       <c r="C243">
         <v>0.0989</v>
       </c>
       <c r="D243">
-        <v>0.1408</v>
+        <v>0.1398</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4537,13 +4537,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.2369</v>
+        <v>0.2359</v>
       </c>
       <c r="C244">
         <v>0.09859999999999999</v>
       </c>
       <c r="D244">
-        <v>0.1383</v>
+        <v>0.1374</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4551,13 +4551,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.2331</v>
+        <v>0.2322</v>
       </c>
       <c r="C245">
-        <v>0.0979</v>
+        <v>0.0978</v>
       </c>
       <c r="D245">
-        <v>0.1352</v>
+        <v>0.1343</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4565,13 +4565,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.2291</v>
+        <v>0.2282</v>
       </c>
       <c r="C246">
-        <v>0.09710000000000001</v>
+        <v>0.097</v>
       </c>
       <c r="D246">
-        <v>0.1321</v>
+        <v>0.1312</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4579,13 +4579,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.2248</v>
+        <v>0.2238</v>
       </c>
       <c r="C247">
-        <v>0.096</v>
+        <v>0.0959</v>
       </c>
       <c r="D247">
-        <v>0.1288</v>
+        <v>0.1279</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4593,13 +4593,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.2209</v>
+        <v>0.22</v>
       </c>
       <c r="C248">
-        <v>0.0955</v>
+        <v>0.0954</v>
       </c>
       <c r="D248">
-        <v>0.1254</v>
+        <v>0.1245</v>
       </c>
     </row>
   </sheetData>
